--- a/impulse_1.xlsx
+++ b/impulse_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\nomogram (수정본)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\nomogram_ ver.streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7967A4-DCC6-4513-A70D-840331F30CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115C7379-E961-4089-A8CC-DC095D6DC8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="3420" windowWidth="21600" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3225" yWindow="1800" windowWidth="12150" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pressure" sheetId="4" r:id="rId1"/>
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:E392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1059,9 +1059,7 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">

--- a/impulse_1.xlsx
+++ b/impulse_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\nomogram_ ver.streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115C7379-E961-4089-A8CC-DC095D6DC8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB7ED48-BA21-4559-A1B8-3C7E3135DB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="1800" windowWidth="12150" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pressure" sheetId="4" r:id="rId1"/>
@@ -1025,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9684C5D3-1973-41B6-B112-850508B717AA}">
-  <dimension ref="A1:E392"/>
+  <dimension ref="A1:E391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1052,6621 +1052,6610 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B2" s="1">
-        <v>4.6546570003565768E-2</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+        <v>0.18716942870203679</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5.6492271887188528E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9.5636112541674811E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>9.9999999999999978E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.18716942870203679</v>
+        <v>0.32779228740050792</v>
       </c>
       <c r="C3" s="1">
-        <v>5.6492271887188528E-2</v>
+        <v>0.20820913332774771</v>
       </c>
       <c r="D3" s="1">
-        <v>9.5636112541674811E-2</v>
+        <v>0.2059447825144059</v>
       </c>
       <c r="E3" s="1">
-        <v>9.9999999999999978E-2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="B4" s="1">
-        <v>0.32779228740050792</v>
+        <v>0.46841514609897889</v>
       </c>
       <c r="C4" s="1">
-        <v>0.20820913332774771</v>
+        <v>0.35992599476830689</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2059447825144059</v>
+        <v>0.31625345248713699</v>
       </c>
       <c r="E4" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="B5" s="1">
-        <v>0.46841514609897889</v>
+        <v>0.60903800479744996</v>
       </c>
       <c r="C5" s="1">
-        <v>0.35992599476830689</v>
+        <v>0.51164285620886596</v>
       </c>
       <c r="D5" s="1">
-        <v>0.31625345248713699</v>
+        <v>0.42656212245986802</v>
       </c>
       <c r="E5" s="1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="B6" s="1">
-        <v>0.60903800479744996</v>
+        <v>0.74966086349592098</v>
       </c>
       <c r="C6" s="1">
-        <v>0.51164285620886596</v>
+        <v>0.66335971764942503</v>
       </c>
       <c r="D6" s="1">
-        <v>0.42656212245986802</v>
+        <v>0.53687079243259905</v>
       </c>
       <c r="E6" s="1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>0.5</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="B7" s="1">
-        <v>0.74966086349592098</v>
+        <v>0.91594255193941609</v>
       </c>
       <c r="C7" s="1">
-        <v>0.66335971764942503</v>
+        <v>0.78679773339973513</v>
       </c>
       <c r="D7" s="1">
-        <v>0.53687079243259905</v>
+        <v>0.65595368202801607</v>
       </c>
       <c r="E7" s="1">
-        <v>0.5</v>
+        <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>0.60000000000000009</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="B8" s="1">
-        <v>0.91594255193941609</v>
+        <v>1.04682913160785</v>
       </c>
       <c r="C8" s="1">
-        <v>0.78679773339973513</v>
+        <v>0.91945908568597912</v>
       </c>
       <c r="D8" s="1">
-        <v>0.65595368202801607</v>
+        <v>0.74966086349592109</v>
       </c>
       <c r="E8" s="1">
-        <v>0.60000000000000009</v>
+        <v>0.70000000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>0.70000000000000007</v>
+        <v>0.8</v>
       </c>
       <c r="B9" s="1">
-        <v>1.04682913160785</v>
+        <v>1.20529987751932</v>
       </c>
       <c r="C9" s="1">
-        <v>0.91945908568597912</v>
+        <v>1.04305455787927</v>
       </c>
       <c r="D9" s="1">
-        <v>0.74966086349592109</v>
+        <v>0.86315631310708796</v>
       </c>
       <c r="E9" s="1">
-        <v>0.70000000000000007</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="B10" s="1">
-        <v>1.20529987751932</v>
+        <v>1.3572275941841001</v>
       </c>
       <c r="C10" s="1">
-        <v>1.04305455787927</v>
+        <v>1.1572305695942999</v>
       </c>
       <c r="D10" s="1">
-        <v>0.86315631310708796</v>
+        <v>0.97195692797737099</v>
       </c>
       <c r="E10" s="1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>1.3572275941841001</v>
+        <v>1.50579396832594</v>
       </c>
       <c r="C11" s="1">
-        <v>1.1572305695942999</v>
+        <v>1.2934662994499899</v>
       </c>
       <c r="D11" s="1">
-        <v>0.97195692797737099</v>
+        <v>1.0703919738244201</v>
       </c>
       <c r="E11" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B12" s="1">
-        <v>1.50579396832594</v>
+        <v>1.662191448592224</v>
       </c>
       <c r="C12" s="1">
-        <v>1.2934662994499899</v>
+        <v>1.418213481137607</v>
       </c>
       <c r="D12" s="1">
-        <v>1.0703919738244201</v>
+        <v>1.1783579242382229</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="B13" s="1">
-        <v>1.662191448592224</v>
+        <v>1.818588928858508</v>
       </c>
       <c r="C13" s="1">
-        <v>1.418213481137607</v>
+        <v>1.5429606628252239</v>
       </c>
       <c r="D13" s="1">
-        <v>1.1783579242382229</v>
+        <v>1.286323874652026</v>
       </c>
       <c r="E13" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="B14" s="1">
-        <v>1.818588928858508</v>
+        <v>1.974986409124792</v>
       </c>
       <c r="C14" s="1">
-        <v>1.5429606628252239</v>
+        <v>1.667707844512841</v>
       </c>
       <c r="D14" s="1">
-        <v>1.286323874652026</v>
+        <v>1.3942898250658291</v>
       </c>
       <c r="E14" s="1">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="B15" s="1">
-        <v>1.974986409124792</v>
+        <v>2.1313838893910759</v>
       </c>
       <c r="C15" s="1">
-        <v>1.667707844512841</v>
+        <v>1.7924550262004579</v>
       </c>
       <c r="D15" s="1">
-        <v>1.3942898250658291</v>
+        <v>1.502255775479632</v>
       </c>
       <c r="E15" s="1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="B16" s="1">
-        <v>2.1313838893910759</v>
+        <v>2.2877813696573601</v>
       </c>
       <c r="C16" s="1">
-        <v>1.7924550262004579</v>
+        <v>1.917202207888075</v>
       </c>
       <c r="D16" s="1">
-        <v>1.502255775479632</v>
+        <v>1.610221725893435</v>
       </c>
       <c r="E16" s="1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="B17" s="1">
-        <v>2.2877813696573601</v>
+        <v>2.4441788499236439</v>
       </c>
       <c r="C17" s="1">
-        <v>1.917202207888075</v>
+        <v>2.0419493895756919</v>
       </c>
       <c r="D17" s="1">
-        <v>1.610221725893435</v>
+        <v>1.7181876763072379</v>
       </c>
       <c r="E17" s="1">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="B18" s="1">
-        <v>2.4441788499236439</v>
+        <v>2.600576330189929</v>
       </c>
       <c r="C18" s="1">
-        <v>2.0419493895756919</v>
+        <v>2.1666965712633091</v>
       </c>
       <c r="D18" s="1">
-        <v>1.7181876763072379</v>
+        <v>1.826153626721041</v>
       </c>
       <c r="E18" s="1">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="B19" s="1">
-        <v>2.600576330189929</v>
+        <v>2.7569738104562118</v>
       </c>
       <c r="C19" s="1">
-        <v>2.1666965712633091</v>
+        <v>2.2914437529509262</v>
       </c>
       <c r="D19" s="1">
-        <v>1.826153626721041</v>
+        <v>1.9341195771348441</v>
       </c>
       <c r="E19" s="1">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="B20" s="1">
-        <v>2.7569738104562118</v>
+        <v>2.913371290722496</v>
       </c>
       <c r="C20" s="1">
-        <v>2.2914437529509262</v>
+        <v>2.4161909346385428</v>
       </c>
       <c r="D20" s="1">
-        <v>1.9341195771348441</v>
+        <v>2.0420855275486471</v>
       </c>
       <c r="E20" s="1">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="B21" s="1">
-        <v>2.913371290722496</v>
+        <v>3.0697687709887802</v>
       </c>
       <c r="C21" s="1">
-        <v>2.4161909346385428</v>
+        <v>2.54093811632616</v>
       </c>
       <c r="D21" s="1">
-        <v>2.0420855275486471</v>
+        <v>2.15005147796245</v>
       </c>
       <c r="E21" s="1">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="B22" s="1">
-        <v>3.0697687709887802</v>
+        <v>3.2176703925037522</v>
       </c>
       <c r="C22" s="1">
-        <v>2.54093811632616</v>
+        <v>2.6804916451686531</v>
       </c>
       <c r="D22" s="1">
-        <v>2.15005147796245</v>
+        <v>2.2608042984579049</v>
       </c>
       <c r="E22" s="1">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B23" s="1">
-        <v>3.2176703925037522</v>
+        <v>3.3655720140187251</v>
       </c>
       <c r="C23" s="1">
-        <v>2.6804916451686531</v>
+        <v>2.8200451740111458</v>
       </c>
       <c r="D23" s="1">
-        <v>2.2608042984579049</v>
+        <v>2.3715571189533602</v>
       </c>
       <c r="E23" s="1">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B24" s="1">
-        <v>3.3655720140187251</v>
+        <v>3.5134736355336971</v>
       </c>
       <c r="C24" s="1">
-        <v>2.8200451740111458</v>
+        <v>2.959598702853639</v>
       </c>
       <c r="D24" s="1">
-        <v>2.3715571189533602</v>
+        <v>2.4823099394488159</v>
       </c>
       <c r="E24" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="B25" s="1">
-        <v>3.5134736355336971</v>
+        <v>3.6613752570486691</v>
       </c>
       <c r="C25" s="1">
-        <v>2.959598702853639</v>
+        <v>3.0991522316961331</v>
       </c>
       <c r="D25" s="1">
-        <v>2.4823099394488159</v>
+        <v>2.5930627599442699</v>
       </c>
       <c r="E25" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="B26" s="1">
-        <v>3.6613752570486691</v>
+        <v>3.8092768785636402</v>
       </c>
       <c r="C26" s="1">
-        <v>3.0991522316961331</v>
+        <v>3.2387057605386249</v>
       </c>
       <c r="D26" s="1">
-        <v>2.5930627599442699</v>
+        <v>2.7038155804397248</v>
       </c>
       <c r="E26" s="1">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="B27" s="1">
-        <v>3.8092768785636402</v>
+        <v>3.9571785000786122</v>
       </c>
       <c r="C27" s="1">
-        <v>3.2387057605386249</v>
+        <v>3.3782592893811181</v>
       </c>
       <c r="D27" s="1">
-        <v>2.7038155804397248</v>
+        <v>2.8145684009351801</v>
       </c>
       <c r="E27" s="1">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="B28" s="1">
-        <v>3.9571785000786122</v>
+        <v>4.1050801215935842</v>
       </c>
       <c r="C28" s="1">
-        <v>3.3782592893811181</v>
+        <v>3.5178128182236108</v>
       </c>
       <c r="D28" s="1">
-        <v>2.8145684009351801</v>
+        <v>2.925321221430635</v>
       </c>
       <c r="E28" s="1">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="B29" s="1">
-        <v>4.1050801215935842</v>
+        <v>4.2529817431085561</v>
       </c>
       <c r="C29" s="1">
-        <v>3.5178128182236108</v>
+        <v>3.657366347066104</v>
       </c>
       <c r="D29" s="1">
-        <v>2.925321221430635</v>
+        <v>3.0360740419260899</v>
       </c>
       <c r="E29" s="1">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="B30" s="1">
-        <v>4.2529817431085561</v>
+        <v>4.4008833646235281</v>
       </c>
       <c r="C30" s="1">
-        <v>3.657366347066104</v>
+        <v>3.7969198759085971</v>
       </c>
       <c r="D30" s="1">
-        <v>3.0360740419260899</v>
+        <v>3.1468268624215461</v>
       </c>
       <c r="E30" s="1">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="B31" s="1">
-        <v>4.4008833646235281</v>
+        <v>4.5487849861385001</v>
       </c>
       <c r="C31" s="1">
-        <v>3.7969198759085971</v>
+        <v>3.9364734047510899</v>
       </c>
       <c r="D31" s="1">
-        <v>3.1468268624215461</v>
+        <v>3.2575796829170001</v>
       </c>
       <c r="E31" s="1">
-        <v>2.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="B32" s="1">
-        <v>4.5487849861385001</v>
+        <v>4.7059673780313531</v>
       </c>
       <c r="C32" s="1">
-        <v>3.9364734047510899</v>
+        <v>4.0608440017776744</v>
       </c>
       <c r="D32" s="1">
-        <v>3.2575796829170001</v>
+        <v>3.3604905633992339</v>
       </c>
       <c r="E32" s="1">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="B33" s="1">
-        <v>4.7059673780313531</v>
+        <v>4.8631497699242061</v>
       </c>
       <c r="C33" s="1">
-        <v>4.0608440017776744</v>
+        <v>4.1852145988042579</v>
       </c>
       <c r="D33" s="1">
-        <v>3.3604905633992339</v>
+        <v>3.4634014438814682</v>
       </c>
       <c r="E33" s="1">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="B34" s="1">
-        <v>4.8631497699242061</v>
+        <v>5.0203321618170591</v>
       </c>
       <c r="C34" s="1">
-        <v>4.1852145988042579</v>
+        <v>4.3095851958308424</v>
       </c>
       <c r="D34" s="1">
-        <v>3.4634014438814682</v>
+        <v>3.566312324363702</v>
       </c>
       <c r="E34" s="1">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="B35" s="1">
-        <v>5.0203321618170591</v>
+        <v>5.177514553709913</v>
       </c>
       <c r="C35" s="1">
-        <v>4.3095851958308424</v>
+        <v>4.4339557928574269</v>
       </c>
       <c r="D35" s="1">
-        <v>3.566312324363702</v>
+        <v>3.6692232048459359</v>
       </c>
       <c r="E35" s="1">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="B36" s="1">
-        <v>5.177514553709913</v>
+        <v>5.3346969456027651</v>
       </c>
       <c r="C36" s="1">
-        <v>4.4339557928574269</v>
+        <v>4.5583263898840114</v>
       </c>
       <c r="D36" s="1">
-        <v>3.6692232048459359</v>
+        <v>3.7721340853281702</v>
       </c>
       <c r="E36" s="1">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="B37" s="1">
-        <v>5.3346969456027651</v>
+        <v>5.4918793374956181</v>
       </c>
       <c r="C37" s="1">
-        <v>4.5583263898840114</v>
+        <v>4.6826969869105941</v>
       </c>
       <c r="D37" s="1">
-        <v>3.7721340853281702</v>
+        <v>3.875044965810404</v>
       </c>
       <c r="E37" s="1">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="B38" s="1">
-        <v>5.4918793374956181</v>
+        <v>5.6490617293884711</v>
       </c>
       <c r="C38" s="1">
-        <v>4.6826969869105941</v>
+        <v>4.8070675839371786</v>
       </c>
       <c r="D38" s="1">
-        <v>3.875044965810404</v>
+        <v>3.9779558462926379</v>
       </c>
       <c r="E38" s="1">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="B39" s="1">
-        <v>5.6490617293884711</v>
+        <v>5.8062441212813241</v>
       </c>
       <c r="C39" s="1">
-        <v>4.8070675839371786</v>
+        <v>4.9314381809637622</v>
       </c>
       <c r="D39" s="1">
-        <v>3.9779558462926379</v>
+        <v>4.0808667267748726</v>
       </c>
       <c r="E39" s="1">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="B40" s="1">
-        <v>5.8062441212813241</v>
+        <v>5.9634265131741779</v>
       </c>
       <c r="C40" s="1">
-        <v>4.9314381809637622</v>
+        <v>5.0558087779903467</v>
       </c>
       <c r="D40" s="1">
-        <v>4.0808667267748726</v>
+        <v>4.1837776072571069</v>
       </c>
       <c r="E40" s="1">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="B41" s="1">
-        <v>5.9634265131741779</v>
+        <v>6.12060890506703</v>
       </c>
       <c r="C41" s="1">
-        <v>5.0558087779903467</v>
+        <v>5.1801793750169303</v>
       </c>
       <c r="D41" s="1">
-        <v>4.1837776072571069</v>
+        <v>4.2866884877393403</v>
       </c>
       <c r="E41" s="1">
-        <v>3.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>4</v>
+        <v>4.1000000000000014</v>
       </c>
       <c r="B42" s="1">
-        <v>6.12060890506703</v>
+        <v>6.2563605253803489</v>
       </c>
       <c r="C42" s="1">
-        <v>5.1801793750169303</v>
+        <v>5.3045348999953301</v>
       </c>
       <c r="D42" s="1">
-        <v>4.2866884877393403</v>
+        <v>4.3935601952462262</v>
       </c>
       <c r="E42" s="1">
-        <v>4</v>
+        <v>4.1000000000000014</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>4.1000000000000014</v>
+        <v>4.2</v>
       </c>
       <c r="B43" s="1">
-        <v>6.2563605253803489</v>
+        <v>6.392112145693666</v>
       </c>
       <c r="C43" s="1">
-        <v>5.3045348999953301</v>
+        <v>5.4288904249737282</v>
       </c>
       <c r="D43" s="1">
-        <v>4.3935601952462262</v>
+        <v>4.5004319027531103</v>
       </c>
       <c r="E43" s="1">
-        <v>4.1000000000000014</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="B44" s="1">
-        <v>6.392112145693666</v>
+        <v>6.527863766006984</v>
       </c>
       <c r="C44" s="1">
-        <v>5.4288904249737282</v>
+        <v>5.5532459499521272</v>
       </c>
       <c r="D44" s="1">
-        <v>4.5004319027531103</v>
+        <v>4.6073036102599954</v>
       </c>
       <c r="E44" s="1">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B45" s="1">
-        <v>6.527863766006984</v>
+        <v>6.663615386320302</v>
       </c>
       <c r="C45" s="1">
-        <v>5.5532459499521272</v>
+        <v>5.6776014749305261</v>
       </c>
       <c r="D45" s="1">
-        <v>4.6073036102599954</v>
+        <v>4.7141753177668804</v>
       </c>
       <c r="E45" s="1">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="B46" s="1">
-        <v>6.663615386320302</v>
+        <v>6.79936700663362</v>
       </c>
       <c r="C46" s="1">
-        <v>5.6776014749305261</v>
+        <v>5.8019569999089251</v>
       </c>
       <c r="D46" s="1">
-        <v>4.7141753177668804</v>
+        <v>4.8210470252737654</v>
       </c>
       <c r="E46" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>4.5</v>
+        <v>4.6000000000000014</v>
       </c>
       <c r="B47" s="1">
-        <v>6.79936700663362</v>
+        <v>6.9351186269469389</v>
       </c>
       <c r="C47" s="1">
-        <v>5.8019569999089251</v>
+        <v>5.926312524887325</v>
       </c>
       <c r="D47" s="1">
-        <v>4.8210470252737654</v>
+        <v>4.9279187327806504</v>
       </c>
       <c r="E47" s="1">
-        <v>4.5</v>
+        <v>4.6000000000000014</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>4.6000000000000014</v>
+        <v>4.7</v>
       </c>
       <c r="B48" s="1">
-        <v>6.9351186269469389</v>
+        <v>7.070870247260256</v>
       </c>
       <c r="C48" s="1">
-        <v>5.926312524887325</v>
+        <v>6.050668049865723</v>
       </c>
       <c r="D48" s="1">
-        <v>4.9279187327806504</v>
+        <v>5.0347904402875354</v>
       </c>
       <c r="E48" s="1">
-        <v>4.6000000000000014</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>4.7</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="B49" s="1">
-        <v>7.070870247260256</v>
+        <v>7.2066218675735749</v>
       </c>
       <c r="C49" s="1">
-        <v>6.050668049865723</v>
+        <v>6.1750235748441229</v>
       </c>
       <c r="D49" s="1">
-        <v>5.0347904402875354</v>
+        <v>5.1416621477944204</v>
       </c>
       <c r="E49" s="1">
-        <v>4.7</v>
+        <v>4.8000000000000007</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>4.8000000000000007</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B50" s="1">
-        <v>7.2066218675735749</v>
+        <v>7.342373487886892</v>
       </c>
       <c r="C50" s="1">
-        <v>6.1750235748441229</v>
+        <v>6.2993790998225219</v>
       </c>
       <c r="D50" s="1">
-        <v>5.1416621477944204</v>
+        <v>5.2485338553013046</v>
       </c>
       <c r="E50" s="1">
-        <v>4.8000000000000007</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="B51" s="1">
-        <v>7.342373487886892</v>
+        <v>7.47812510820021</v>
       </c>
       <c r="C51" s="1">
-        <v>6.2993790998225219</v>
+        <v>6.4237346248009199</v>
       </c>
       <c r="D51" s="1">
-        <v>5.2485338553013046</v>
+        <v>5.3554055628081896</v>
       </c>
       <c r="E51" s="1">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>5</v>
+        <v>5.1000000000000014</v>
       </c>
       <c r="B52" s="1">
-        <v>7.47812510820021</v>
+        <v>7.6440079652045432</v>
       </c>
       <c r="C52" s="1">
-        <v>6.4237346248009199</v>
+        <v>6.5546581026655009</v>
       </c>
       <c r="D52" s="1">
-        <v>5.3554055628081896</v>
+        <v>5.4645473353619272</v>
       </c>
       <c r="E52" s="1">
-        <v>5</v>
+        <v>5.1000000000000014</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>5.1000000000000014</v>
+        <v>5.2</v>
       </c>
       <c r="B53" s="1">
-        <v>7.6440079652045432</v>
+        <v>7.8098908222088754</v>
       </c>
       <c r="C53" s="1">
-        <v>6.5546581026655009</v>
+        <v>6.68558158053008</v>
       </c>
       <c r="D53" s="1">
-        <v>5.4645473353619272</v>
+        <v>5.5736891079156639</v>
       </c>
       <c r="E53" s="1">
-        <v>5.1000000000000014</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>5.2</v>
+        <v>5.3000000000000007</v>
       </c>
       <c r="B54" s="1">
-        <v>7.8098908222088754</v>
+        <v>7.9757736792132077</v>
       </c>
       <c r="C54" s="1">
-        <v>6.68558158053008</v>
+        <v>6.8165050583946609</v>
       </c>
       <c r="D54" s="1">
-        <v>5.5736891079156639</v>
+        <v>5.6828308804694014</v>
       </c>
       <c r="E54" s="1">
-        <v>5.2</v>
+        <v>5.3000000000000007</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>5.3000000000000007</v>
+        <v>5.4</v>
       </c>
       <c r="B55" s="1">
-        <v>7.9757736792132077</v>
+        <v>8.141656536217539</v>
       </c>
       <c r="C55" s="1">
-        <v>6.8165050583946609</v>
+        <v>6.9474285362592401</v>
       </c>
       <c r="D55" s="1">
-        <v>5.6828308804694014</v>
+        <v>5.7919726530231381</v>
       </c>
       <c r="E55" s="1">
-        <v>5.3000000000000007</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="B56" s="1">
-        <v>8.141656536217539</v>
+        <v>8.3075393932218695</v>
       </c>
       <c r="C56" s="1">
-        <v>6.9474285362592401</v>
+        <v>7.0783520141238201</v>
       </c>
       <c r="D56" s="1">
-        <v>5.7919726530231381</v>
+        <v>5.9011144255768748</v>
       </c>
       <c r="E56" s="1">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>5.5</v>
+        <v>5.6000000000000014</v>
       </c>
       <c r="B57" s="1">
-        <v>8.3075393932218695</v>
+        <v>8.4734222502262035</v>
       </c>
       <c r="C57" s="1">
-        <v>7.0783520141238201</v>
+        <v>7.209275491988401</v>
       </c>
       <c r="D57" s="1">
-        <v>5.9011144255768748</v>
+        <v>6.0102561981306124</v>
       </c>
       <c r="E57" s="1">
-        <v>5.5</v>
+        <v>5.6000000000000014</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>5.6000000000000014</v>
+        <v>5.7</v>
       </c>
       <c r="B58" s="1">
-        <v>8.4734222502262035</v>
+        <v>8.639305107230534</v>
       </c>
       <c r="C58" s="1">
-        <v>7.209275491988401</v>
+        <v>7.3401989698529801</v>
       </c>
       <c r="D58" s="1">
-        <v>6.0102561981306124</v>
+        <v>6.1193979706843491</v>
       </c>
       <c r="E58" s="1">
-        <v>5.6000000000000014</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>5.7</v>
+        <v>5.8000000000000007</v>
       </c>
       <c r="B59" s="1">
-        <v>8.639305107230534</v>
+        <v>8.805187964234868</v>
       </c>
       <c r="C59" s="1">
-        <v>7.3401989698529801</v>
+        <v>7.4711224477175611</v>
       </c>
       <c r="D59" s="1">
-        <v>6.1193979706843491</v>
+        <v>6.2285397432380867</v>
       </c>
       <c r="E59" s="1">
-        <v>5.7</v>
+        <v>5.8000000000000007</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>5.8000000000000007</v>
+        <v>5.9</v>
       </c>
       <c r="B60" s="1">
-        <v>8.805187964234868</v>
+        <v>8.9710708212391985</v>
       </c>
       <c r="C60" s="1">
-        <v>7.4711224477175611</v>
+        <v>7.6020459255821411</v>
       </c>
       <c r="D60" s="1">
-        <v>6.2285397432380867</v>
+        <v>6.3376815157918234</v>
       </c>
       <c r="E60" s="1">
-        <v>5.8000000000000007</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="B61" s="1">
-        <v>8.9710708212391985</v>
+        <v>9.1369536782435308</v>
       </c>
       <c r="C61" s="1">
-        <v>7.6020459255821411</v>
+        <v>7.7329694034467202</v>
       </c>
       <c r="D61" s="1">
-        <v>6.3376815157918234</v>
+        <v>6.4468232883455601</v>
       </c>
       <c r="E61" s="1">
-        <v>5.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>6</v>
+        <v>6.1000000000000014</v>
       </c>
       <c r="B62" s="1">
-        <v>9.1369536782435308</v>
+        <v>9.2909981114671591</v>
       </c>
       <c r="C62" s="1">
-        <v>7.7329694034467202</v>
+        <v>7.8633433695247517</v>
       </c>
       <c r="D62" s="1">
-        <v>6.4468232883455601</v>
+        <v>6.5499717224214216</v>
       </c>
       <c r="E62" s="1">
-        <v>6</v>
+        <v>6.1000000000000014</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>6.1000000000000014</v>
+        <v>6.2</v>
       </c>
       <c r="B63" s="1">
-        <v>9.2909981114671591</v>
+        <v>9.4450425446907857</v>
       </c>
       <c r="C63" s="1">
-        <v>7.8633433695247517</v>
+        <v>7.9937173356027822</v>
       </c>
       <c r="D63" s="1">
-        <v>6.5499717224214216</v>
+        <v>6.6531201564972839</v>
       </c>
       <c r="E63" s="1">
-        <v>6.1000000000000014</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>6.2</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="B64" s="1">
-        <v>9.4450425446907857</v>
+        <v>9.5990869779144123</v>
       </c>
       <c r="C64" s="1">
-        <v>7.9937173356027822</v>
+        <v>8.1240913016808136</v>
       </c>
       <c r="D64" s="1">
-        <v>6.6531201564972839</v>
+        <v>6.7562685905731472</v>
       </c>
       <c r="E64" s="1">
-        <v>6.2</v>
+        <v>6.3000000000000007</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>6.3000000000000007</v>
+        <v>6.4</v>
       </c>
       <c r="B65" s="1">
-        <v>9.5990869779144123</v>
+        <v>9.7531314111380389</v>
       </c>
       <c r="C65" s="1">
-        <v>8.1240913016808136</v>
+        <v>8.2544652677588441</v>
       </c>
       <c r="D65" s="1">
-        <v>6.7562685905731472</v>
+        <v>6.8594170246490087</v>
       </c>
       <c r="E65" s="1">
-        <v>6.3000000000000007</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="B66" s="1">
-        <v>9.7531314111380389</v>
+        <v>9.9071758443616655</v>
       </c>
       <c r="C66" s="1">
-        <v>8.2544652677588441</v>
+        <v>8.3848392338368747</v>
       </c>
       <c r="D66" s="1">
-        <v>6.8594170246490087</v>
+        <v>6.9625654587248702</v>
       </c>
       <c r="E66" s="1">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>6.5</v>
+        <v>6.6000000000000014</v>
       </c>
       <c r="B67" s="1">
-        <v>9.9071758443616655</v>
+        <v>10.06122027758529</v>
       </c>
       <c r="C67" s="1">
-        <v>8.3848392338368747</v>
+        <v>8.515213199914907</v>
       </c>
       <c r="D67" s="1">
-        <v>6.9625654587248702</v>
+        <v>7.0657138928007326</v>
       </c>
       <c r="E67" s="1">
-        <v>6.5</v>
+        <v>6.6000000000000014</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>6.6000000000000014</v>
+        <v>6.7</v>
       </c>
       <c r="B68" s="1">
-        <v>10.06122027758529</v>
+        <v>10.215264710808921</v>
       </c>
       <c r="C68" s="1">
-        <v>8.515213199914907</v>
+        <v>8.6455871659929358</v>
       </c>
       <c r="D68" s="1">
-        <v>7.0657138928007326</v>
+        <v>7.1688623268765941</v>
       </c>
       <c r="E68" s="1">
-        <v>6.6000000000000014</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>6.7</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="B69" s="1">
-        <v>10.215264710808921</v>
+        <v>10.369309144032551</v>
       </c>
       <c r="C69" s="1">
-        <v>8.6455871659929358</v>
+        <v>8.7759611320709681</v>
       </c>
       <c r="D69" s="1">
-        <v>7.1688623268765941</v>
+        <v>7.2720107609524574</v>
       </c>
       <c r="E69" s="1">
-        <v>6.7</v>
+        <v>6.8000000000000007</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>6.8000000000000007</v>
+        <v>6.9</v>
       </c>
       <c r="B70" s="1">
-        <v>10.369309144032551</v>
+        <v>10.52335357725617</v>
       </c>
       <c r="C70" s="1">
-        <v>8.7759611320709681</v>
+        <v>8.9063350981489986</v>
       </c>
       <c r="D70" s="1">
-        <v>7.2720107609524574</v>
+        <v>7.3751591950283188</v>
       </c>
       <c r="E70" s="1">
-        <v>6.8000000000000007</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="B71" s="1">
-        <v>10.52335357725617</v>
+        <v>10.6773980104798</v>
       </c>
       <c r="C71" s="1">
-        <v>8.9063350981489986</v>
+        <v>9.0367090642270291</v>
       </c>
       <c r="D71" s="1">
-        <v>7.3751591950283188</v>
+        <v>7.4783076291041803</v>
       </c>
       <c r="E71" s="1">
-        <v>6.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>7</v>
+        <v>7.1000000000000014</v>
       </c>
       <c r="B72" s="1">
-        <v>10.6773980104798</v>
+        <v>10.820940445595211</v>
       </c>
       <c r="C72" s="1">
-        <v>9.0367090642270291</v>
+        <v>9.1735336734922566</v>
       </c>
       <c r="D72" s="1">
-        <v>7.4783076291041803</v>
+        <v>7.5851504695229188</v>
       </c>
       <c r="E72" s="1">
-        <v>7</v>
+        <v>7.1000000000000014</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>7.1000000000000014</v>
+        <v>7.2</v>
       </c>
       <c r="B73" s="1">
-        <v>10.820940445595211</v>
+        <v>10.964482880710619</v>
       </c>
       <c r="C73" s="1">
-        <v>9.1735336734922566</v>
+        <v>9.310358282757484</v>
       </c>
       <c r="D73" s="1">
-        <v>7.5851504695229188</v>
+        <v>7.6919933099416564</v>
       </c>
       <c r="E73" s="1">
-        <v>7.1000000000000014</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>7.2</v>
+        <v>7.3000000000000007</v>
       </c>
       <c r="B74" s="1">
-        <v>10.964482880710619</v>
+        <v>11.10802531582603</v>
       </c>
       <c r="C74" s="1">
-        <v>9.310358282757484</v>
+        <v>9.4471828920227114</v>
       </c>
       <c r="D74" s="1">
-        <v>7.6919933099416564</v>
+        <v>7.7988361503603949</v>
       </c>
       <c r="E74" s="1">
-        <v>7.2</v>
+        <v>7.3000000000000007</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>7.3000000000000007</v>
+        <v>7.4</v>
       </c>
       <c r="B75" s="1">
-        <v>11.10802531582603</v>
+        <v>11.25156775094144</v>
       </c>
       <c r="C75" s="1">
-        <v>9.4471828920227114</v>
+        <v>9.5840075012879389</v>
       </c>
       <c r="D75" s="1">
-        <v>7.7988361503603949</v>
+        <v>7.9056789907791316</v>
       </c>
       <c r="E75" s="1">
-        <v>7.3000000000000007</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="B76" s="1">
-        <v>11.25156775094144</v>
+        <v>11.395110186056851</v>
       </c>
       <c r="C76" s="1">
-        <v>9.5840075012879389</v>
+        <v>9.7208321105531645</v>
       </c>
       <c r="D76" s="1">
-        <v>7.9056789907791316</v>
+        <v>8.012521831197871</v>
       </c>
       <c r="E76" s="1">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>7.5</v>
+        <v>7.6000000000000014</v>
       </c>
       <c r="B77" s="1">
-        <v>11.395110186056851</v>
+        <v>11.538652621172259</v>
       </c>
       <c r="C77" s="1">
-        <v>9.7208321105531645</v>
+        <v>9.857656719818392</v>
       </c>
       <c r="D77" s="1">
-        <v>8.012521831197871</v>
+        <v>8.1193646716166086</v>
       </c>
       <c r="E77" s="1">
-        <v>7.5</v>
+        <v>7.6000000000000014</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>7.6000000000000014</v>
+        <v>7.7</v>
       </c>
       <c r="B78" s="1">
-        <v>11.538652621172259</v>
+        <v>11.68219505628767</v>
       </c>
       <c r="C78" s="1">
-        <v>9.857656719818392</v>
+        <v>9.9944813290836194</v>
       </c>
       <c r="D78" s="1">
-        <v>8.1193646716166086</v>
+        <v>8.2262075120353462</v>
       </c>
       <c r="E78" s="1">
-        <v>7.6000000000000014</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>7.7</v>
+        <v>7.8000000000000007</v>
       </c>
       <c r="B79" s="1">
-        <v>11.68219505628767</v>
+        <v>11.82573749140308</v>
       </c>
       <c r="C79" s="1">
-        <v>9.9944813290836194</v>
+        <v>10.13130593834885</v>
       </c>
       <c r="D79" s="1">
-        <v>8.2262075120353462</v>
+        <v>8.3330503524540855</v>
       </c>
       <c r="E79" s="1">
-        <v>7.7</v>
+        <v>7.8000000000000007</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>7.8000000000000007</v>
+        <v>7.9</v>
       </c>
       <c r="B80" s="1">
-        <v>11.82573749140308</v>
+        <v>11.969279926518491</v>
       </c>
       <c r="C80" s="1">
-        <v>10.13130593834885</v>
+        <v>10.268130547614071</v>
       </c>
       <c r="D80" s="1">
-        <v>8.3330503524540855</v>
+        <v>8.4398931928728231</v>
       </c>
       <c r="E80" s="1">
-        <v>7.8000000000000007</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="B81" s="1">
-        <v>11.969279926518491</v>
+        <v>12.112822361633899</v>
       </c>
       <c r="C81" s="1">
-        <v>10.268130547614071</v>
+        <v>10.4049551568793</v>
       </c>
       <c r="D81" s="1">
-        <v>8.4398931928728231</v>
+        <v>8.5467360332915607</v>
       </c>
       <c r="E81" s="1">
-        <v>7.9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="B82" s="1">
-        <v>12.112822361633899</v>
+        <v>12.24541310076799</v>
       </c>
       <c r="C82" s="1">
-        <v>10.4049551568793</v>
+        <v>10.5361093292532</v>
       </c>
       <c r="D82" s="1">
-        <v>8.5467360332915607</v>
+        <v>8.6544674049371917</v>
       </c>
       <c r="E82" s="1">
-        <v>8</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>8.1</v>
+        <v>8.2000000000000011</v>
       </c>
       <c r="B83" s="1">
-        <v>12.24541310076799</v>
+        <v>12.37800383990208</v>
       </c>
       <c r="C83" s="1">
-        <v>10.5361093292532</v>
+        <v>10.667263501627099</v>
       </c>
       <c r="D83" s="1">
-        <v>8.6544674049371917</v>
+        <v>8.7621987765828262</v>
       </c>
       <c r="E83" s="1">
-        <v>8.1</v>
+        <v>8.2000000000000011</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>8.2000000000000011</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="B84" s="1">
-        <v>12.37800383990208</v>
+        <v>12.510594579036169</v>
       </c>
       <c r="C84" s="1">
-        <v>10.667263501627099</v>
+        <v>10.798417674001</v>
       </c>
       <c r="D84" s="1">
-        <v>8.7621987765828262</v>
+        <v>8.8699301482284572</v>
       </c>
       <c r="E84" s="1">
-        <v>8.2000000000000011</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>8.3000000000000007</v>
+        <v>8.4</v>
       </c>
       <c r="B85" s="1">
-        <v>12.510594579036169</v>
+        <v>12.643185318170261</v>
       </c>
       <c r="C85" s="1">
-        <v>10.798417674001</v>
+        <v>10.9295718463749</v>
       </c>
       <c r="D85" s="1">
-        <v>8.8699301482284572</v>
+        <v>8.9776615198740881</v>
       </c>
       <c r="E85" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="B86" s="1">
-        <v>12.643185318170261</v>
+        <v>12.77577605730435</v>
       </c>
       <c r="C86" s="1">
-        <v>10.9295718463749</v>
+        <v>11.060726018748801</v>
       </c>
       <c r="D86" s="1">
-        <v>8.9776615198740881</v>
+        <v>9.0853928915197208</v>
       </c>
       <c r="E86" s="1">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="B87" s="1">
-        <v>12.77577605730435</v>
+        <v>12.90836679643844</v>
       </c>
       <c r="C87" s="1">
-        <v>11.060726018748801</v>
+        <v>11.191880191122699</v>
       </c>
       <c r="D87" s="1">
-        <v>9.0853928915197208</v>
+        <v>9.1931242631653518</v>
       </c>
       <c r="E87" s="1">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>8.6</v>
+        <v>8.7000000000000011</v>
       </c>
       <c r="B88" s="1">
-        <v>12.90836679643844</v>
+        <v>13.040957535572529</v>
       </c>
       <c r="C88" s="1">
-        <v>11.191880191122699</v>
+        <v>11.3230343634966</v>
       </c>
       <c r="D88" s="1">
-        <v>9.1931242631653518</v>
+        <v>9.3008556348109845</v>
       </c>
       <c r="E88" s="1">
-        <v>8.6</v>
+        <v>8.7000000000000011</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>8.7000000000000011</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="B89" s="1">
-        <v>13.040957535572529</v>
+        <v>13.17354827470662</v>
       </c>
       <c r="C89" s="1">
-        <v>11.3230343634966</v>
+        <v>11.4541885358705</v>
       </c>
       <c r="D89" s="1">
-        <v>9.3008556348109845</v>
+        <v>9.4085870064566155</v>
       </c>
       <c r="E89" s="1">
-        <v>8.7000000000000011</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>8.8000000000000007</v>
+        <v>8.9</v>
       </c>
       <c r="B90" s="1">
-        <v>13.17354827470662</v>
+        <v>13.30613901384071</v>
       </c>
       <c r="C90" s="1">
-        <v>11.4541885358705</v>
+        <v>11.585342708244401</v>
       </c>
       <c r="D90" s="1">
-        <v>9.4085870064566155</v>
+        <v>9.5163183781022482</v>
       </c>
       <c r="E90" s="1">
-        <v>8.8000000000000007</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="B91" s="1">
-        <v>13.30613901384071</v>
+        <v>13.438729752974799</v>
       </c>
       <c r="C91" s="1">
-        <v>11.585342708244401</v>
+        <v>11.716496880618299</v>
       </c>
       <c r="D91" s="1">
-        <v>9.5163183781022482</v>
+        <v>9.6240497497478792</v>
       </c>
       <c r="E91" s="1">
-        <v>8.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="B92" s="1">
-        <v>13.438729752974799</v>
+        <v>13.619394367306381</v>
       </c>
       <c r="C92" s="1">
-        <v>11.716496880618299</v>
+        <v>11.825586260740421</v>
       </c>
       <c r="D92" s="1">
-        <v>9.6240497497478792</v>
+        <v>9.7453606310311507</v>
       </c>
       <c r="E92" s="1">
-        <v>9</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>9.1</v>
+        <v>9.2000000000000011</v>
       </c>
       <c r="B93" s="1">
-        <v>13.619394367306381</v>
+        <v>13.80005898163796</v>
       </c>
       <c r="C93" s="1">
-        <v>11.825586260740421</v>
+        <v>11.93467564086254</v>
       </c>
       <c r="D93" s="1">
-        <v>9.7453606310311507</v>
+        <v>9.866671512314424</v>
       </c>
       <c r="E93" s="1">
-        <v>9.1</v>
+        <v>9.2000000000000011</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>9.2000000000000011</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="B94" s="1">
-        <v>13.80005898163796</v>
+        <v>13.98072359596954</v>
       </c>
       <c r="C94" s="1">
-        <v>11.93467564086254</v>
+        <v>12.04376502098466</v>
       </c>
       <c r="D94" s="1">
-        <v>9.866671512314424</v>
+        <v>9.9879823935976955</v>
       </c>
       <c r="E94" s="1">
-        <v>9.2000000000000011</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>9.3000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="B95" s="1">
-        <v>13.98072359596954</v>
+        <v>14.161388210301119</v>
       </c>
       <c r="C95" s="1">
-        <v>12.04376502098466</v>
+        <v>12.152854401106779</v>
       </c>
       <c r="D95" s="1">
-        <v>9.9879823935976955</v>
+        <v>10.109293274880971</v>
       </c>
       <c r="E95" s="1">
-        <v>9.3000000000000007</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="B96" s="1">
-        <v>14.161388210301119</v>
+        <v>14.342052824632701</v>
       </c>
       <c r="C96" s="1">
-        <v>12.152854401106779</v>
+        <v>12.261943781228901</v>
       </c>
       <c r="D96" s="1">
-        <v>10.109293274880971</v>
+        <v>10.23060415616424</v>
       </c>
       <c r="E96" s="1">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>9.5</v>
+        <v>9.6000000000000014</v>
       </c>
       <c r="B97" s="1">
-        <v>14.342052824632701</v>
+        <v>14.52271743896428</v>
       </c>
       <c r="C97" s="1">
-        <v>12.261943781228901</v>
+        <v>12.37103316135102</v>
       </c>
       <c r="D97" s="1">
-        <v>10.23060415616424</v>
+        <v>10.35191503744751</v>
       </c>
       <c r="E97" s="1">
-        <v>9.5</v>
+        <v>9.6000000000000014</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>9.6000000000000014</v>
+        <v>9.7000000000000011</v>
       </c>
       <c r="B98" s="1">
-        <v>14.52271743896428</v>
+        <v>14.70338205329586</v>
       </c>
       <c r="C98" s="1">
-        <v>12.37103316135102</v>
+        <v>12.48012254147314</v>
       </c>
       <c r="D98" s="1">
-        <v>10.35191503744751</v>
+        <v>10.47322591873079</v>
       </c>
       <c r="E98" s="1">
-        <v>9.6000000000000014</v>
+        <v>9.7000000000000011</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>9.7000000000000011</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="B99" s="1">
-        <v>14.70338205329586</v>
+        <v>14.884046667627439</v>
       </c>
       <c r="C99" s="1">
-        <v>12.48012254147314</v>
+        <v>12.589211921595259</v>
       </c>
       <c r="D99" s="1">
-        <v>10.47322591873079</v>
+        <v>10.59453680001406</v>
       </c>
       <c r="E99" s="1">
-        <v>9.7000000000000011</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.9</v>
       </c>
       <c r="B100" s="1">
-        <v>14.884046667627439</v>
+        <v>15.064711281959021</v>
       </c>
       <c r="C100" s="1">
-        <v>12.589211921595259</v>
+        <v>12.698301301717381</v>
       </c>
       <c r="D100" s="1">
-        <v>10.59453680001406</v>
+        <v>10.71584768129733</v>
       </c>
       <c r="E100" s="1">
-        <v>9.8000000000000007</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="B101" s="1">
-        <v>15.064711281959021</v>
+        <v>15.2453758962906</v>
       </c>
       <c r="C101" s="1">
-        <v>12.698301301717381</v>
+        <v>12.8073906818395</v>
       </c>
       <c r="D101" s="1">
-        <v>10.71584768129733</v>
+        <v>10.8371585625806</v>
       </c>
       <c r="E101" s="1">
-        <v>9.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B102" s="1">
-        <v>15.2453758962906</v>
+        <v>16.783075671221699</v>
       </c>
       <c r="C102" s="1">
-        <v>12.8073906818395</v>
+        <v>14.09921848053828</v>
       </c>
       <c r="D102" s="1">
-        <v>10.8371585625806</v>
+        <v>11.8981668760304</v>
       </c>
       <c r="E102" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B103" s="1">
-        <v>16.783075671221699</v>
+        <v>18.320775446152801</v>
       </c>
       <c r="C103" s="1">
-        <v>14.09921848053828</v>
+        <v>15.391046279237059</v>
       </c>
       <c r="D103" s="1">
-        <v>11.8981668760304</v>
+        <v>12.959175189480201</v>
       </c>
       <c r="E103" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B104" s="1">
-        <v>18.320775446152801</v>
+        <v>19.8584752210839</v>
       </c>
       <c r="C104" s="1">
-        <v>15.391046279237059</v>
+        <v>16.682874077935839</v>
       </c>
       <c r="D104" s="1">
-        <v>12.959175189480201</v>
+        <v>14.020183502929999</v>
       </c>
       <c r="E104" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B105" s="1">
-        <v>19.8584752210839</v>
+        <v>21.396174996014999</v>
       </c>
       <c r="C105" s="1">
-        <v>16.682874077935839</v>
+        <v>17.974701876634619</v>
       </c>
       <c r="D105" s="1">
-        <v>14.020183502929999</v>
+        <v>15.0811918163798</v>
       </c>
       <c r="E105" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B106" s="1">
-        <v>21.396174996014999</v>
+        <v>22.933874770946101</v>
       </c>
       <c r="C106" s="1">
-        <v>17.974701876634619</v>
+        <v>19.266529675333398</v>
       </c>
       <c r="D106" s="1">
-        <v>15.0811918163798</v>
+        <v>16.1422001298296</v>
       </c>
       <c r="E106" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B107" s="1">
-        <v>22.933874770946101</v>
+        <v>24.4715745458772</v>
       </c>
       <c r="C107" s="1">
-        <v>19.266529675333398</v>
+        <v>20.558357474032181</v>
       </c>
       <c r="D107" s="1">
-        <v>16.1422001298296</v>
+        <v>17.203208443279401</v>
       </c>
       <c r="E107" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B108" s="1">
-        <v>24.4715745458772</v>
+        <v>26.009274320808299</v>
       </c>
       <c r="C108" s="1">
-        <v>20.558357474032181</v>
+        <v>21.850185272730961</v>
       </c>
       <c r="D108" s="1">
-        <v>17.203208443279401</v>
+        <v>18.264216756729201</v>
       </c>
       <c r="E108" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B109" s="1">
-        <v>26.009274320808299</v>
+        <v>27.546974095739401</v>
       </c>
       <c r="C109" s="1">
-        <v>21.850185272730961</v>
+        <v>23.142013071429741</v>
       </c>
       <c r="D109" s="1">
-        <v>18.264216756729201</v>
+        <v>19.325225070178998</v>
       </c>
       <c r="E109" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B110" s="1">
-        <v>27.546974095739401</v>
+        <v>29.0846738706705</v>
       </c>
       <c r="C110" s="1">
-        <v>23.142013071429741</v>
+        <v>24.43384087012852</v>
       </c>
       <c r="D110" s="1">
-        <v>19.325225070178998</v>
+        <v>20.386233383628799</v>
       </c>
       <c r="E110" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B111" s="1">
-        <v>29.0846738706705</v>
+        <v>30.622373645601598</v>
       </c>
       <c r="C111" s="1">
-        <v>24.43384087012852</v>
+        <v>25.7256686688273</v>
       </c>
       <c r="D111" s="1">
-        <v>20.386233383628799</v>
+        <v>21.447241697078599</v>
       </c>
       <c r="E111" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B112" s="1">
-        <v>30.622373645601598</v>
+        <v>32.064162900833132</v>
       </c>
       <c r="C112" s="1">
-        <v>25.7256686688273</v>
+        <v>26.99352217705583</v>
       </c>
       <c r="D112" s="1">
-        <v>21.447241697078599</v>
+        <v>22.528004465346459</v>
       </c>
       <c r="E112" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B113" s="1">
-        <v>32.064162900833132</v>
+        <v>33.505952156064659</v>
       </c>
       <c r="C113" s="1">
-        <v>26.99352217705583</v>
+        <v>28.26137568528436</v>
       </c>
       <c r="D113" s="1">
-        <v>22.528004465346459</v>
+        <v>23.608767233614319</v>
       </c>
       <c r="E113" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B114" s="1">
-        <v>33.505952156064659</v>
+        <v>34.947741411296192</v>
       </c>
       <c r="C114" s="1">
-        <v>28.26137568528436</v>
+        <v>29.52922919351289</v>
       </c>
       <c r="D114" s="1">
-        <v>23.608767233614319</v>
+        <v>24.689530001882179</v>
       </c>
       <c r="E114" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B115" s="1">
-        <v>34.947741411296192</v>
+        <v>36.389530666527719</v>
       </c>
       <c r="C115" s="1">
-        <v>29.52922919351289</v>
+        <v>30.79708270174142</v>
       </c>
       <c r="D115" s="1">
-        <v>24.689530001882179</v>
+        <v>25.770292770150039</v>
       </c>
       <c r="E115" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B116" s="1">
-        <v>36.389530666527719</v>
+        <v>37.831319921759253</v>
       </c>
       <c r="C116" s="1">
-        <v>30.79708270174142</v>
+        <v>32.06493620996995</v>
       </c>
       <c r="D116" s="1">
-        <v>25.770292770150039</v>
+        <v>26.851055538417899</v>
       </c>
       <c r="E116" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B117" s="1">
-        <v>37.831319921759253</v>
+        <v>39.273109176990779</v>
       </c>
       <c r="C117" s="1">
-        <v>32.06493620996995</v>
+        <v>33.332789718198477</v>
       </c>
       <c r="D117" s="1">
-        <v>26.851055538417899</v>
+        <v>27.931818306685759</v>
       </c>
       <c r="E117" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B118" s="1">
-        <v>39.273109176990779</v>
+        <v>40.714898432222313</v>
       </c>
       <c r="C118" s="1">
-        <v>33.332789718198477</v>
+        <v>34.60064322642701</v>
       </c>
       <c r="D118" s="1">
-        <v>27.931818306685759</v>
+        <v>29.012581074953619</v>
       </c>
       <c r="E118" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B119" s="1">
-        <v>40.714898432222313</v>
+        <v>42.156687687453839</v>
       </c>
       <c r="C119" s="1">
-        <v>34.60064322642701</v>
+        <v>35.868496734655537</v>
       </c>
       <c r="D119" s="1">
-        <v>29.012581074953619</v>
+        <v>30.093343843221479</v>
       </c>
       <c r="E119" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B120" s="1">
-        <v>42.156687687453839</v>
+        <v>43.598476942685373</v>
       </c>
       <c r="C120" s="1">
-        <v>35.868496734655537</v>
+        <v>37.136350242884063</v>
       </c>
       <c r="D120" s="1">
-        <v>30.093343843221479</v>
+        <v>31.174106611489339</v>
       </c>
       <c r="E120" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B121" s="1">
-        <v>43.598476942685373</v>
+        <v>45.0402661979169</v>
       </c>
       <c r="C121" s="1">
-        <v>37.136350242884063</v>
+        <v>38.404203751112597</v>
       </c>
       <c r="D121" s="1">
-        <v>31.174106611489339</v>
+        <v>32.254869379757203</v>
       </c>
       <c r="E121" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B122" s="1">
-        <v>45.0402661979169</v>
+        <v>46.733035782301037</v>
       </c>
       <c r="C122" s="1">
-        <v>38.404203751112597</v>
+        <v>39.692991696788248</v>
       </c>
       <c r="D122" s="1">
-        <v>32.254869379757203</v>
+        <v>33.337294812004259</v>
       </c>
       <c r="E122" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B123" s="1">
-        <v>46.733035782301037</v>
+        <v>48.425805366685182</v>
       </c>
       <c r="C123" s="1">
-        <v>39.692991696788248</v>
+        <v>40.981779642463898</v>
       </c>
       <c r="D123" s="1">
-        <v>33.337294812004259</v>
+        <v>34.419720244251323</v>
       </c>
       <c r="E123" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B124" s="1">
-        <v>48.425805366685182</v>
+        <v>50.11857495106932</v>
       </c>
       <c r="C124" s="1">
-        <v>40.981779642463898</v>
+        <v>42.270567588139549</v>
       </c>
       <c r="D124" s="1">
-        <v>34.419720244251323</v>
+        <v>35.50214567649838</v>
       </c>
       <c r="E124" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B125" s="1">
-        <v>50.11857495106932</v>
+        <v>51.811344535453458</v>
       </c>
       <c r="C125" s="1">
-        <v>42.270567588139549</v>
+        <v>43.5593555338152</v>
       </c>
       <c r="D125" s="1">
-        <v>35.50214567649838</v>
+        <v>36.584571108745443</v>
       </c>
       <c r="E125" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B126" s="1">
-        <v>51.811344535453458</v>
+        <v>53.504114119837602</v>
       </c>
       <c r="C126" s="1">
-        <v>43.5593555338152</v>
+        <v>44.848143479490837</v>
       </c>
       <c r="D126" s="1">
-        <v>36.584571108745443</v>
+        <v>37.6669965409925</v>
       </c>
       <c r="E126" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B127" s="1">
-        <v>53.504114119837602</v>
+        <v>55.19688370422174</v>
       </c>
       <c r="C127" s="1">
-        <v>44.848143479490837</v>
+        <v>46.136931425166487</v>
       </c>
       <c r="D127" s="1">
-        <v>37.6669965409925</v>
+        <v>38.749421973239563</v>
       </c>
       <c r="E127" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B128" s="1">
-        <v>55.19688370422174</v>
+        <v>56.889653288605878</v>
       </c>
       <c r="C128" s="1">
-        <v>46.136931425166487</v>
+        <v>47.425719370842153</v>
       </c>
       <c r="D128" s="1">
-        <v>38.749421973239563</v>
+        <v>39.83184740548662</v>
       </c>
       <c r="E128" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B129" s="1">
-        <v>56.889653288605878</v>
+        <v>58.582422872990023</v>
       </c>
       <c r="C129" s="1">
-        <v>47.425719370842153</v>
+        <v>48.714507316517803</v>
       </c>
       <c r="D129" s="1">
-        <v>39.83184740548662</v>
+        <v>40.914272837733677</v>
       </c>
       <c r="E129" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B130" s="1">
-        <v>58.582422872990023</v>
+        <v>60.27519245737416</v>
       </c>
       <c r="C130" s="1">
-        <v>48.714507316517803</v>
+        <v>50.003295262193447</v>
       </c>
       <c r="D130" s="1">
-        <v>40.914272837733677</v>
+        <v>41.99669826998074</v>
       </c>
       <c r="E130" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B131" s="1">
-        <v>60.27519245737416</v>
+        <v>61.967962041758298</v>
       </c>
       <c r="C131" s="1">
-        <v>50.003295262193447</v>
+        <v>51.292083207869098</v>
       </c>
       <c r="D131" s="1">
-        <v>41.99669826998074</v>
+        <v>43.079123702227797</v>
       </c>
       <c r="E131" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B132" s="1">
-        <v>61.967962041758298</v>
+        <v>63.342376154033758</v>
       </c>
       <c r="C132" s="1">
-        <v>51.292083207869098</v>
+        <v>52.570849446584297</v>
       </c>
       <c r="D132" s="1">
-        <v>43.079123702227797</v>
+        <v>44.193279197827678</v>
       </c>
       <c r="E132" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B133" s="1">
-        <v>63.342376154033758</v>
+        <v>64.716790266309218</v>
       </c>
       <c r="C133" s="1">
-        <v>52.570849446584297</v>
+        <v>53.849615685299518</v>
       </c>
       <c r="D133" s="1">
-        <v>44.193279197827678</v>
+        <v>45.30743469342756</v>
       </c>
       <c r="E133" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B134" s="1">
-        <v>64.716790266309218</v>
+        <v>66.091204378584678</v>
       </c>
       <c r="C134" s="1">
-        <v>53.849615685299518</v>
+        <v>55.128381924014732</v>
       </c>
       <c r="D134" s="1">
-        <v>45.30743469342756</v>
+        <v>46.421590189027441</v>
       </c>
       <c r="E134" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B135" s="1">
-        <v>66.091204378584678</v>
+        <v>67.465618490860138</v>
       </c>
       <c r="C135" s="1">
-        <v>55.128381924014732</v>
+        <v>56.407148162729939</v>
       </c>
       <c r="D135" s="1">
-        <v>46.421590189027441</v>
+        <v>47.535745684627322</v>
       </c>
       <c r="E135" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B136" s="1">
-        <v>67.465618490860138</v>
+        <v>68.840032603135597</v>
       </c>
       <c r="C136" s="1">
-        <v>56.407148162729939</v>
+        <v>57.685914401445153</v>
       </c>
       <c r="D136" s="1">
-        <v>47.535745684627322</v>
+        <v>48.649901180227197</v>
       </c>
       <c r="E136" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B137" s="1">
-        <v>68.840032603135597</v>
+        <v>70.214446715411057</v>
       </c>
       <c r="C137" s="1">
-        <v>57.685914401445153</v>
+        <v>58.964680640160353</v>
       </c>
       <c r="D137" s="1">
-        <v>48.649901180227197</v>
+        <v>49.764056675827078</v>
       </c>
       <c r="E137" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B138" s="1">
-        <v>70.214446715411057</v>
+        <v>71.588860827686517</v>
       </c>
       <c r="C138" s="1">
-        <v>58.964680640160353</v>
+        <v>60.243446878875567</v>
       </c>
       <c r="D138" s="1">
-        <v>49.764056675827078</v>
+        <v>50.878212171426959</v>
       </c>
       <c r="E138" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B139" s="1">
-        <v>71.588860827686517</v>
+        <v>72.963274939961977</v>
       </c>
       <c r="C139" s="1">
-        <v>60.243446878875567</v>
+        <v>61.522213117590773</v>
       </c>
       <c r="D139" s="1">
-        <v>50.878212171426959</v>
+        <v>51.992367667026841</v>
       </c>
       <c r="E139" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B140" s="1">
-        <v>72.963274939961977</v>
+        <v>74.337689052237437</v>
       </c>
       <c r="C140" s="1">
-        <v>61.522213117590773</v>
+        <v>62.800979356305987</v>
       </c>
       <c r="D140" s="1">
-        <v>51.992367667026841</v>
+        <v>53.106523162626722</v>
       </c>
       <c r="E140" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B141" s="1">
-        <v>74.337689052237437</v>
+        <v>75.712103164512897</v>
       </c>
       <c r="C141" s="1">
-        <v>62.800979356305987</v>
+        <v>64.079745595021194</v>
       </c>
       <c r="D141" s="1">
-        <v>53.106523162626722</v>
+        <v>54.220678658226603</v>
       </c>
       <c r="E141" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B142" s="1">
-        <v>75.712103164512897</v>
+        <v>77.391580279535361</v>
       </c>
       <c r="C142" s="1">
-        <v>64.079745595021194</v>
+        <v>65.328837756306584</v>
       </c>
       <c r="D142" s="1">
-        <v>54.220678658226603</v>
+        <v>55.325761641383806</v>
       </c>
       <c r="E142" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B143" s="1">
-        <v>77.391580279535361</v>
+        <v>79.071057394557812</v>
       </c>
       <c r="C143" s="1">
-        <v>65.328837756306584</v>
+        <v>66.577929917591973</v>
       </c>
       <c r="D143" s="1">
-        <v>55.325761641383806</v>
+        <v>56.430844624541017</v>
       </c>
       <c r="E143" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B144" s="1">
-        <v>79.071057394557812</v>
+        <v>80.750534509580277</v>
       </c>
       <c r="C144" s="1">
-        <v>66.577929917591973</v>
+        <v>67.827022078877363</v>
       </c>
       <c r="D144" s="1">
-        <v>56.430844624541017</v>
+        <v>57.535927607698227</v>
       </c>
       <c r="E144" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B145" s="1">
-        <v>80.750534509580277</v>
+        <v>82.430011624602741</v>
       </c>
       <c r="C145" s="1">
-        <v>67.827022078877363</v>
+        <v>69.076114240162752</v>
       </c>
       <c r="D145" s="1">
-        <v>57.535927607698227</v>
+        <v>58.641010590855437</v>
       </c>
       <c r="E145" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B146" s="1">
-        <v>82.430011624602741</v>
+        <v>84.109488739625192</v>
       </c>
       <c r="C146" s="1">
-        <v>69.076114240162752</v>
+        <v>70.325206401448156</v>
       </c>
       <c r="D146" s="1">
-        <v>58.641010590855437</v>
+        <v>59.746093574012647</v>
       </c>
       <c r="E146" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B147" s="1">
-        <v>84.109488739625192</v>
+        <v>85.788965854647657</v>
       </c>
       <c r="C147" s="1">
-        <v>70.325206401448156</v>
+        <v>71.574298562733546</v>
       </c>
       <c r="D147" s="1">
-        <v>59.746093574012647</v>
+        <v>60.851176557169858</v>
       </c>
       <c r="E147" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B148" s="1">
-        <v>85.788965854647657</v>
+        <v>87.468442969670122</v>
       </c>
       <c r="C148" s="1">
-        <v>71.574298562733546</v>
+        <v>72.823390724018935</v>
       </c>
       <c r="D148" s="1">
-        <v>60.851176557169858</v>
+        <v>61.956259540327068</v>
       </c>
       <c r="E148" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B149" s="1">
-        <v>87.468442969670122</v>
+        <v>89.147920084692586</v>
       </c>
       <c r="C149" s="1">
-        <v>72.823390724018935</v>
+        <v>74.072482885304325</v>
       </c>
       <c r="D149" s="1">
-        <v>61.956259540327068</v>
+        <v>63.061342523484292</v>
       </c>
       <c r="E149" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B150" s="1">
-        <v>89.147920084692586</v>
+        <v>90.827397199715037</v>
       </c>
       <c r="C150" s="1">
-        <v>74.072482885304325</v>
+        <v>75.321575046589714</v>
       </c>
       <c r="D150" s="1">
-        <v>63.061342523484292</v>
+        <v>64.166425506641502</v>
       </c>
       <c r="E150" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B151" s="1">
-        <v>90.827397199715037</v>
+        <v>92.506874314737502</v>
       </c>
       <c r="C151" s="1">
-        <v>75.321575046589714</v>
+        <v>76.570667207875104</v>
       </c>
       <c r="D151" s="1">
-        <v>64.166425506641502</v>
+        <v>65.271508489798705</v>
       </c>
       <c r="E151" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B152" s="1">
-        <v>92.506874314737502</v>
+        <v>93.907388841201353</v>
       </c>
       <c r="C152" s="1">
-        <v>76.570667207875104</v>
+        <v>77.928138784127484</v>
       </c>
       <c r="D152" s="1">
-        <v>65.271508489798705</v>
+        <v>66.315660353131477</v>
       </c>
       <c r="E152" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B153" s="1">
-        <v>93.907388841201353</v>
+        <v>95.307903367665205</v>
       </c>
       <c r="C153" s="1">
-        <v>77.928138784127484</v>
+        <v>79.285610360379863</v>
       </c>
       <c r="D153" s="1">
-        <v>66.315660353131477</v>
+        <v>67.359812216464249</v>
       </c>
       <c r="E153" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B154" s="1">
-        <v>95.307903367665205</v>
+        <v>96.708417894129056</v>
       </c>
       <c r="C154" s="1">
-        <v>79.285610360379863</v>
+        <v>80.643081936632242</v>
       </c>
       <c r="D154" s="1">
-        <v>67.359812216464249</v>
+        <v>68.403964079797007</v>
       </c>
       <c r="E154" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B155" s="1">
-        <v>96.708417894129056</v>
+        <v>98.108932420592907</v>
       </c>
       <c r="C155" s="1">
-        <v>80.643081936632242</v>
+        <v>82.000553512884622</v>
       </c>
       <c r="D155" s="1">
-        <v>68.403964079797007</v>
+        <v>69.448115943129778</v>
       </c>
       <c r="E155" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B156" s="1">
-        <v>98.108932420592907</v>
+        <v>99.509446947056745</v>
       </c>
       <c r="C156" s="1">
-        <v>82.000553512884622</v>
+        <v>83.358025089137001</v>
       </c>
       <c r="D156" s="1">
-        <v>69.448115943129778</v>
+        <v>70.49226780646255</v>
       </c>
       <c r="E156" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B157" s="1">
-        <v>99.509446947056745</v>
+        <v>100.9099614735206</v>
       </c>
       <c r="C157" s="1">
-        <v>83.358025089137001</v>
+        <v>84.715496665389381</v>
       </c>
       <c r="D157" s="1">
-        <v>70.49226780646255</v>
+        <v>71.536419669795322</v>
       </c>
       <c r="E157" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B158" s="1">
-        <v>100.9099614735206</v>
+        <v>102.3104759999844</v>
       </c>
       <c r="C158" s="1">
-        <v>84.715496665389381</v>
+        <v>86.07296824164176</v>
       </c>
       <c r="D158" s="1">
-        <v>71.536419669795322</v>
+        <v>72.580571533128094</v>
       </c>
       <c r="E158" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B159" s="1">
-        <v>102.3104759999844</v>
+        <v>103.7109905264483</v>
       </c>
       <c r="C159" s="1">
-        <v>86.07296824164176</v>
+        <v>87.43043981789414</v>
       </c>
       <c r="D159" s="1">
-        <v>72.580571533128094</v>
+        <v>73.624723396460851</v>
       </c>
       <c r="E159" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B160" s="1">
-        <v>103.7109905264483</v>
+        <v>105.11150505291219</v>
       </c>
       <c r="C160" s="1">
-        <v>87.43043981789414</v>
+        <v>88.787911394146519</v>
       </c>
       <c r="D160" s="1">
-        <v>73.624723396460851</v>
+        <v>74.668875259793623</v>
       </c>
       <c r="E160" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B161" s="1">
-        <v>105.11150505291219</v>
+        <v>106.512019579376</v>
       </c>
       <c r="C161" s="1">
-        <v>88.787911394146519</v>
+        <v>90.145382970398899</v>
       </c>
       <c r="D161" s="1">
-        <v>74.668875259793623</v>
+        <v>75.713027123126395</v>
       </c>
       <c r="E161" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B162" s="1">
-        <v>106.512019579376</v>
+        <v>107.94377478840219</v>
       </c>
       <c r="C162" s="1">
-        <v>90.145382970398899</v>
+        <v>91.357259475637505</v>
       </c>
       <c r="D162" s="1">
-        <v>75.713027123126395</v>
+        <v>76.730881123922032</v>
       </c>
       <c r="E162" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B163" s="1">
-        <v>107.94377478840219</v>
+        <v>109.3755299974284</v>
       </c>
       <c r="C163" s="1">
-        <v>91.357259475637505</v>
+        <v>92.569135980876112</v>
       </c>
       <c r="D163" s="1">
-        <v>76.730881123922032</v>
+        <v>77.748735124717669</v>
       </c>
       <c r="E163" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B164" s="1">
-        <v>109.3755299974284</v>
+        <v>110.80728520645459</v>
       </c>
       <c r="C164" s="1">
-        <v>92.569135980876112</v>
+        <v>93.781012486114733</v>
       </c>
       <c r="D164" s="1">
-        <v>77.748735124717669</v>
+        <v>78.76658912551332</v>
       </c>
       <c r="E164" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B165" s="1">
-        <v>110.80728520645459</v>
+        <v>112.2390404154808</v>
       </c>
       <c r="C165" s="1">
-        <v>93.781012486114733</v>
+        <v>94.99288899135334</v>
       </c>
       <c r="D165" s="1">
-        <v>78.76658912551332</v>
+        <v>79.784443126308958</v>
       </c>
       <c r="E165" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B166" s="1">
-        <v>112.2390404154808</v>
+        <v>113.67079562450699</v>
       </c>
       <c r="C166" s="1">
-        <v>94.99288899135334</v>
+        <v>96.204765496591946</v>
       </c>
       <c r="D166" s="1">
-        <v>79.784443126308958</v>
+        <v>80.802297127104595</v>
       </c>
       <c r="E166" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B167" s="1">
-        <v>113.67079562450699</v>
+        <v>115.1025508335332</v>
       </c>
       <c r="C167" s="1">
-        <v>96.204765496591946</v>
+        <v>97.416642001830553</v>
       </c>
       <c r="D167" s="1">
-        <v>80.802297127104595</v>
+        <v>81.820151127900232</v>
       </c>
       <c r="E167" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B168" s="1">
-        <v>115.1025508335332</v>
+        <v>116.53430604255939</v>
       </c>
       <c r="C168" s="1">
-        <v>97.416642001830553</v>
+        <v>98.62851850706916</v>
       </c>
       <c r="D168" s="1">
-        <v>81.820151127900232</v>
+        <v>82.838005128695869</v>
       </c>
       <c r="E168" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B169" s="1">
-        <v>116.53430604255939</v>
+        <v>117.9660612515856</v>
       </c>
       <c r="C169" s="1">
-        <v>98.62851850706916</v>
+        <v>99.840395012307781</v>
       </c>
       <c r="D169" s="1">
-        <v>82.838005128695869</v>
+        <v>83.85585912949152</v>
       </c>
       <c r="E169" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B170" s="1">
-        <v>117.9660612515856</v>
+        <v>119.39781646061181</v>
       </c>
       <c r="C170" s="1">
-        <v>99.840395012307781</v>
+        <v>101.0522715175464</v>
       </c>
       <c r="D170" s="1">
-        <v>83.85585912949152</v>
+        <v>84.873713130287157</v>
       </c>
       <c r="E170" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B171" s="1">
-        <v>119.39781646061181</v>
+        <v>120.829571669638</v>
       </c>
       <c r="C171" s="1">
-        <v>101.0522715175464</v>
+        <v>102.26414802278499</v>
       </c>
       <c r="D171" s="1">
-        <v>84.873713130287157</v>
+        <v>85.891567131082795</v>
       </c>
       <c r="E171" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B172" s="1">
-        <v>120.829571669638</v>
+        <v>122.25204574847309</v>
       </c>
       <c r="C172" s="1">
-        <v>102.26414802278499</v>
+        <v>103.81223981043711</v>
       </c>
       <c r="D172" s="1">
-        <v>85.891567131082795</v>
+        <v>86.974227962513751</v>
       </c>
       <c r="E172" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B173" s="1">
-        <v>122.25204574847309</v>
+        <v>123.6745198273082</v>
       </c>
       <c r="C173" s="1">
-        <v>103.81223981043711</v>
+        <v>105.3603315980892</v>
       </c>
       <c r="D173" s="1">
-        <v>86.974227962513751</v>
+        <v>88.056888793944722</v>
       </c>
       <c r="E173" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B174" s="1">
-        <v>123.6745198273082</v>
+        <v>125.0969939061433</v>
       </c>
       <c r="C174" s="1">
-        <v>105.3603315980892</v>
+        <v>106.9084233857413</v>
       </c>
       <c r="D174" s="1">
-        <v>88.056888793944722</v>
+        <v>89.139549625375679</v>
       </c>
       <c r="E174" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B175" s="1">
-        <v>125.0969939061433</v>
+        <v>126.51946798497841</v>
       </c>
       <c r="C175" s="1">
-        <v>106.9084233857413</v>
+        <v>108.4565151733934</v>
       </c>
       <c r="D175" s="1">
-        <v>89.139549625375679</v>
+        <v>90.222210456806636</v>
       </c>
       <c r="E175" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B176" s="1">
-        <v>126.51946798497841</v>
+        <v>127.9419420638135</v>
       </c>
       <c r="C176" s="1">
-        <v>108.4565151733934</v>
+        <v>110.0046069610455</v>
       </c>
       <c r="D176" s="1">
-        <v>90.222210456806636</v>
+        <v>91.304871288237592</v>
       </c>
       <c r="E176" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B177" s="1">
-        <v>127.9419420638135</v>
+        <v>129.36441614264859</v>
       </c>
       <c r="C177" s="1">
-        <v>110.0046069610455</v>
+        <v>111.55269874869759</v>
       </c>
       <c r="D177" s="1">
-        <v>91.304871288237592</v>
+        <v>92.387532119668563</v>
       </c>
       <c r="E177" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B178" s="1">
-        <v>129.36441614264859</v>
+        <v>130.7868902214837</v>
       </c>
       <c r="C178" s="1">
-        <v>111.55269874869759</v>
+        <v>113.10079053634971</v>
       </c>
       <c r="D178" s="1">
-        <v>92.387532119668563</v>
+        <v>93.47019295109952</v>
       </c>
       <c r="E178" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B179" s="1">
-        <v>130.7868902214837</v>
+        <v>132.20936430031881</v>
       </c>
       <c r="C179" s="1">
-        <v>113.10079053634971</v>
+        <v>114.6488823240018</v>
       </c>
       <c r="D179" s="1">
-        <v>93.47019295109952</v>
+        <v>94.552853782530477</v>
       </c>
       <c r="E179" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B180" s="1">
-        <v>132.20936430031881</v>
+        <v>133.63183837915389</v>
       </c>
       <c r="C180" s="1">
-        <v>114.6488823240018</v>
+        <v>116.1969741116539</v>
       </c>
       <c r="D180" s="1">
-        <v>94.552853782530477</v>
+        <v>95.635514613961448</v>
       </c>
       <c r="E180" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B181" s="1">
-        <v>133.63183837915389</v>
+        <v>135.054312457989</v>
       </c>
       <c r="C181" s="1">
-        <v>116.1969741116539</v>
+        <v>117.745065899306</v>
       </c>
       <c r="D181" s="1">
-        <v>95.635514613961448</v>
+        <v>96.718175445392404</v>
       </c>
       <c r="E181" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B182" s="1">
-        <v>135.054312457989</v>
+        <v>136.532659170046</v>
       </c>
       <c r="C182" s="1">
-        <v>117.745065899306</v>
+        <v>118.93753036215</v>
       </c>
       <c r="D182" s="1">
-        <v>96.718175445392404</v>
+        <v>97.776751871506761</v>
       </c>
       <c r="E182" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B183" s="1">
-        <v>136.532659170046</v>
+        <v>138.01100588210301</v>
       </c>
       <c r="C183" s="1">
-        <v>118.93753036215</v>
+        <v>120.129994824994</v>
       </c>
       <c r="D183" s="1">
-        <v>97.776751871506761</v>
+        <v>98.835328297621118</v>
       </c>
       <c r="E183" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B184" s="1">
-        <v>138.01100588210301</v>
+        <v>139.48935259416001</v>
       </c>
       <c r="C184" s="1">
-        <v>120.129994824994</v>
+        <v>121.322459287838</v>
       </c>
       <c r="D184" s="1">
-        <v>98.835328297621118</v>
+        <v>99.893904723735488</v>
       </c>
       <c r="E184" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B185" s="1">
-        <v>139.48935259416001</v>
+        <v>140.96769930621701</v>
       </c>
       <c r="C185" s="1">
-        <v>121.322459287838</v>
+        <v>122.514923750682</v>
       </c>
       <c r="D185" s="1">
-        <v>99.893904723735488</v>
+        <v>100.9524811498498</v>
       </c>
       <c r="E185" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B186" s="1">
-        <v>140.96769930621701</v>
+        <v>142.44604601827399</v>
       </c>
       <c r="C186" s="1">
-        <v>122.514923750682</v>
+        <v>123.707388213526</v>
       </c>
       <c r="D186" s="1">
-        <v>100.9524811498498</v>
+        <v>102.0110575759642</v>
       </c>
       <c r="E186" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B187" s="1">
-        <v>142.44604601827399</v>
+        <v>143.92439273033099</v>
       </c>
       <c r="C187" s="1">
-        <v>123.707388213526</v>
+        <v>124.89985267637</v>
       </c>
       <c r="D187" s="1">
-        <v>102.0110575759642</v>
+        <v>103.0696340020786</v>
       </c>
       <c r="E187" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B188" s="1">
-        <v>143.92439273033099</v>
+        <v>145.402739442388</v>
       </c>
       <c r="C188" s="1">
-        <v>124.89985267637</v>
+        <v>126.092317139214</v>
       </c>
       <c r="D188" s="1">
-        <v>103.0696340020786</v>
+        <v>104.1282104281929</v>
       </c>
       <c r="E188" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B189" s="1">
-        <v>145.402739442388</v>
+        <v>146.881086154445</v>
       </c>
       <c r="C189" s="1">
-        <v>126.092317139214</v>
+        <v>127.284781602058</v>
       </c>
       <c r="D189" s="1">
-        <v>104.1282104281929</v>
+        <v>105.1867868543073</v>
       </c>
       <c r="E189" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B190" s="1">
-        <v>146.881086154445</v>
+        <v>148.359432866502</v>
       </c>
       <c r="C190" s="1">
-        <v>127.284781602058</v>
+        <v>128.477246064902</v>
       </c>
       <c r="D190" s="1">
-        <v>105.1867868543073</v>
+        <v>106.2453632804216</v>
       </c>
       <c r="E190" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B191" s="1">
-        <v>148.359432866502</v>
+        <v>149.83777957855901</v>
       </c>
       <c r="C191" s="1">
-        <v>128.477246064902</v>
+        <v>129.66971052774599</v>
       </c>
       <c r="D191" s="1">
-        <v>106.2453632804216</v>
+        <v>107.303939706536</v>
       </c>
       <c r="E191" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B192" s="1">
-        <v>149.83777957855901</v>
+        <v>164.95092086823871</v>
       </c>
       <c r="C192" s="1">
-        <v>129.66971052774599</v>
+        <v>142.74799699620621</v>
       </c>
       <c r="D192" s="1">
-        <v>107.303939706536</v>
+        <v>118.12750122830801</v>
       </c>
       <c r="E192" s="1">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B193" s="1">
-        <v>164.95092086823871</v>
+        <v>180.06406215791841</v>
       </c>
       <c r="C193" s="1">
-        <v>142.74799699620621</v>
+        <v>155.8262834646664</v>
       </c>
       <c r="D193" s="1">
-        <v>118.12750122830801</v>
+        <v>128.95106275008001</v>
       </c>
       <c r="E193" s="1">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B194" s="1">
-        <v>180.06406215791841</v>
+        <v>195.17720344759809</v>
       </c>
       <c r="C194" s="1">
-        <v>155.8262834646664</v>
+        <v>168.9045699331266</v>
       </c>
       <c r="D194" s="1">
-        <v>128.95106275008001</v>
+        <v>139.77462427185199</v>
       </c>
       <c r="E194" s="1">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B195" s="1">
-        <v>195.17720344759809</v>
+        <v>210.29034473727779</v>
       </c>
       <c r="C195" s="1">
-        <v>168.9045699331266</v>
+        <v>181.98285640158679</v>
       </c>
       <c r="D195" s="1">
-        <v>139.77462427185199</v>
+        <v>150.598185793624</v>
       </c>
       <c r="E195" s="1">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B196" s="1">
-        <v>210.29034473727779</v>
+        <v>225.40348602695749</v>
       </c>
       <c r="C196" s="1">
-        <v>181.98285640158679</v>
+        <v>195.06114287004701</v>
       </c>
       <c r="D196" s="1">
-        <v>150.598185793624</v>
+        <v>161.421747315396</v>
       </c>
       <c r="E196" s="1">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B197" s="1">
-        <v>225.40348602695749</v>
+        <v>240.5166273166372</v>
       </c>
       <c r="C197" s="1">
-        <v>195.06114287004701</v>
+        <v>208.1394293385072</v>
       </c>
       <c r="D197" s="1">
-        <v>161.421747315396</v>
+        <v>172.24530883716801</v>
       </c>
       <c r="E197" s="1">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B198" s="1">
-        <v>240.5166273166372</v>
+        <v>255.6297686063169</v>
       </c>
       <c r="C198" s="1">
-        <v>208.1394293385072</v>
+        <v>221.21771580696739</v>
       </c>
       <c r="D198" s="1">
-        <v>172.24530883716801</v>
+        <v>183.06887035893999</v>
       </c>
       <c r="E198" s="1">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B199" s="1">
-        <v>255.6297686063169</v>
+        <v>270.7429098959966</v>
       </c>
       <c r="C199" s="1">
-        <v>221.21771580696739</v>
+        <v>234.29600227542761</v>
       </c>
       <c r="D199" s="1">
-        <v>183.06887035893999</v>
+        <v>193.892431880712</v>
       </c>
       <c r="E199" s="1">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B200" s="1">
-        <v>270.7429098959966</v>
+        <v>285.85605118567628</v>
       </c>
       <c r="C200" s="1">
-        <v>234.29600227542761</v>
+        <v>247.3742887438878</v>
       </c>
       <c r="D200" s="1">
-        <v>193.892431880712</v>
+        <v>204.715993402484</v>
       </c>
       <c r="E200" s="1">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B201" s="1">
-        <v>285.85605118567628</v>
+        <v>300.96919247535601</v>
       </c>
       <c r="C201" s="1">
-        <v>247.3742887438878</v>
+        <v>260.45257521234799</v>
       </c>
       <c r="D201" s="1">
-        <v>204.715993402484</v>
+        <v>215.53955492425601</v>
       </c>
       <c r="E201" s="1">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B202" s="1">
-        <v>300.96919247535601</v>
+        <v>316.4742986388988</v>
       </c>
       <c r="C202" s="1">
-        <v>260.45257521234799</v>
+        <v>273.28908967036239</v>
       </c>
       <c r="D202" s="1">
-        <v>215.53955492425601</v>
+        <v>225.68738901844881</v>
       </c>
       <c r="E202" s="1">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B203" s="1">
-        <v>316.4742986388988</v>
+        <v>331.97940480244159</v>
       </c>
       <c r="C203" s="1">
-        <v>273.28908967036239</v>
+        <v>286.12560412837678</v>
       </c>
       <c r="D203" s="1">
-        <v>225.68738901844881</v>
+        <v>235.83522311264159</v>
       </c>
       <c r="E203" s="1">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B204" s="1">
-        <v>331.97940480244159</v>
+        <v>347.48451096598438</v>
       </c>
       <c r="C204" s="1">
-        <v>286.12560412837678</v>
+        <v>298.96211858639123</v>
       </c>
       <c r="D204" s="1">
-        <v>235.83522311264159</v>
+        <v>245.98305720683439</v>
       </c>
       <c r="E204" s="1">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B205" s="1">
-        <v>347.48451096598438</v>
+        <v>362.98961712952718</v>
       </c>
       <c r="C205" s="1">
-        <v>298.96211858639123</v>
+        <v>311.79863304440562</v>
       </c>
       <c r="D205" s="1">
-        <v>245.98305720683439</v>
+        <v>256.13089130102719</v>
       </c>
       <c r="E205" s="1">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B206" s="1">
-        <v>362.98961712952718</v>
+        <v>378.49472329307002</v>
       </c>
       <c r="C206" s="1">
-        <v>311.79863304440562</v>
+        <v>324.63514750242001</v>
       </c>
       <c r="D206" s="1">
-        <v>256.13089130102719</v>
+        <v>266.27872539522002</v>
       </c>
       <c r="E206" s="1">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B207" s="1">
-        <v>378.49472329307002</v>
+        <v>393.99982945661282</v>
       </c>
       <c r="C207" s="1">
-        <v>324.63514750242001</v>
+        <v>337.4716619604344</v>
       </c>
       <c r="D207" s="1">
-        <v>266.27872539522002</v>
+        <v>276.4265594894128</v>
       </c>
       <c r="E207" s="1">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B208" s="1">
-        <v>393.99982945661282</v>
+        <v>409.50493562015561</v>
       </c>
       <c r="C208" s="1">
-        <v>337.4716619604344</v>
+        <v>350.3081764184488</v>
       </c>
       <c r="D208" s="1">
-        <v>276.4265594894128</v>
+        <v>286.57439358360563</v>
       </c>
       <c r="E208" s="1">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B209" s="1">
-        <v>409.50493562015561</v>
+        <v>425.0100417836984</v>
       </c>
       <c r="C209" s="1">
-        <v>350.3081764184488</v>
+        <v>363.14469087646319</v>
       </c>
       <c r="D209" s="1">
-        <v>286.57439358360563</v>
+        <v>296.7222276777984</v>
       </c>
       <c r="E209" s="1">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B210" s="1">
-        <v>425.0100417836984</v>
+        <v>440.51514794724119</v>
       </c>
       <c r="C210" s="1">
-        <v>363.14469087646319</v>
+        <v>375.98120533447758</v>
       </c>
       <c r="D210" s="1">
-        <v>296.7222276777984</v>
+        <v>306.87006177199117</v>
       </c>
       <c r="E210" s="1">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B211" s="1">
-        <v>440.51514794724119</v>
+        <v>456.02025411078398</v>
       </c>
       <c r="C211" s="1">
-        <v>375.98120533447758</v>
+        <v>388.81771979249203</v>
       </c>
       <c r="D211" s="1">
-        <v>306.87006177199117</v>
+        <v>317.01789586618401</v>
       </c>
       <c r="E211" s="1">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="B212" s="1">
-        <v>456.02025411078398</v>
+        <v>471.32287218314173</v>
       </c>
       <c r="C212" s="1">
-        <v>388.81771979249203</v>
+        <v>401.48135492323468</v>
       </c>
       <c r="D212" s="1">
-        <v>317.01789586618401</v>
+        <v>328.60957627654841</v>
       </c>
       <c r="E212" s="1">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="B213" s="1">
-        <v>471.32287218314173</v>
+        <v>486.62549025549941</v>
       </c>
       <c r="C213" s="1">
-        <v>401.48135492323468</v>
+        <v>414.14499005397738</v>
       </c>
       <c r="D213" s="1">
-        <v>328.60957627654841</v>
+        <v>340.20125668691281</v>
       </c>
       <c r="E213" s="1">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="B214" s="1">
-        <v>486.62549025549941</v>
+        <v>501.9281083278571</v>
       </c>
       <c r="C214" s="1">
-        <v>414.14499005397738</v>
+        <v>426.80862518472009</v>
       </c>
       <c r="D214" s="1">
-        <v>340.20125668691281</v>
+        <v>351.79293709727722</v>
       </c>
       <c r="E214" s="1">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="B215" s="1">
-        <v>501.9281083278571</v>
+        <v>517.23072640021473</v>
       </c>
       <c r="C215" s="1">
-        <v>426.80862518472009</v>
+        <v>439.47226031546279</v>
       </c>
       <c r="D215" s="1">
-        <v>351.79293709727722</v>
+        <v>363.38461750764162</v>
       </c>
       <c r="E215" s="1">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B216" s="1">
-        <v>517.23072640021473</v>
+        <v>532.53334447257248</v>
       </c>
       <c r="C216" s="1">
-        <v>439.47226031546279</v>
+        <v>452.1358954462055</v>
       </c>
       <c r="D216" s="1">
-        <v>363.38461750764162</v>
+        <v>374.97629791800603</v>
       </c>
       <c r="E216" s="1">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="B217" s="1">
-        <v>532.53334447257248</v>
+        <v>547.83596254493023</v>
       </c>
       <c r="C217" s="1">
-        <v>452.1358954462055</v>
+        <v>464.7995305769482</v>
       </c>
       <c r="D217" s="1">
-        <v>374.97629791800603</v>
+        <v>386.56797832837037</v>
       </c>
       <c r="E217" s="1">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="B218" s="1">
-        <v>547.83596254493023</v>
+        <v>563.13858061728786</v>
       </c>
       <c r="C218" s="1">
-        <v>464.7995305769482</v>
+        <v>477.46316570769091</v>
       </c>
       <c r="D218" s="1">
-        <v>386.56797832837037</v>
+        <v>398.15965873873478</v>
       </c>
       <c r="E218" s="1">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B219" s="1">
-        <v>563.13858061728786</v>
+        <v>578.4411986896456</v>
       </c>
       <c r="C219" s="1">
-        <v>477.46316570769091</v>
+        <v>490.12680083843361</v>
       </c>
       <c r="D219" s="1">
-        <v>398.15965873873478</v>
+        <v>409.75133914909918</v>
       </c>
       <c r="E219" s="1">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B220" s="1">
-        <v>578.4411986896456</v>
+        <v>593.74381676200323</v>
       </c>
       <c r="C220" s="1">
-        <v>490.12680083843361</v>
+        <v>502.79043596917631</v>
       </c>
       <c r="D220" s="1">
-        <v>409.75133914909918</v>
+        <v>421.34301955946358</v>
       </c>
       <c r="E220" s="1">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B221" s="1">
-        <v>593.74381676200323</v>
+        <v>609.04643483436098</v>
       </c>
       <c r="C221" s="1">
-        <v>502.79043596917631</v>
+        <v>515.45407109991902</v>
       </c>
       <c r="D221" s="1">
-        <v>421.34301955946358</v>
+        <v>432.93469996982799</v>
       </c>
       <c r="E221" s="1">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="B222" s="1">
-        <v>609.04643483436098</v>
+        <v>624.23061083139476</v>
       </c>
       <c r="C222" s="1">
-        <v>515.45407109991902</v>
+        <v>527.82885539763015</v>
       </c>
       <c r="D222" s="1">
-        <v>432.93469996982799</v>
+        <v>443.72822293215501</v>
       </c>
       <c r="E222" s="1">
-        <v>400</v>
+        <v>410</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="B223" s="1">
-        <v>624.23061083139476</v>
+        <v>639.41478682842853</v>
       </c>
       <c r="C223" s="1">
-        <v>527.82885539763015</v>
+        <v>540.20363969534117</v>
       </c>
       <c r="D223" s="1">
-        <v>443.72822293215501</v>
+        <v>454.52174589448202</v>
       </c>
       <c r="E223" s="1">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B224" s="1">
-        <v>639.41478682842853</v>
+        <v>654.59896282546242</v>
       </c>
       <c r="C224" s="1">
-        <v>540.20363969534117</v>
+        <v>552.5784239930523</v>
       </c>
       <c r="D224" s="1">
-        <v>454.52174589448202</v>
+        <v>465.31526885680898</v>
       </c>
       <c r="E224" s="1">
-        <v>420</v>
+        <v>430</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="B225" s="1">
-        <v>654.59896282546242</v>
+        <v>669.7831388224962</v>
       </c>
       <c r="C225" s="1">
-        <v>552.5784239930523</v>
+        <v>564.95320829076343</v>
       </c>
       <c r="D225" s="1">
-        <v>465.31526885680898</v>
+        <v>476.108791819136</v>
       </c>
       <c r="E225" s="1">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="B226" s="1">
-        <v>669.7831388224962</v>
+        <v>684.96731481952997</v>
       </c>
       <c r="C226" s="1">
-        <v>564.95320829076343</v>
+        <v>577.32799258847444</v>
       </c>
       <c r="D226" s="1">
-        <v>476.108791819136</v>
+        <v>486.90231478146302</v>
       </c>
       <c r="E226" s="1">
-        <v>440</v>
+        <v>450</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="B227" s="1">
-        <v>684.96731481952997</v>
+        <v>700.15149081656375</v>
       </c>
       <c r="C227" s="1">
-        <v>577.32799258847444</v>
+        <v>589.70277688618557</v>
       </c>
       <c r="D227" s="1">
-        <v>486.90231478146302</v>
+        <v>497.69583774378998</v>
       </c>
       <c r="E227" s="1">
-        <v>450</v>
+        <v>460</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="B228" s="1">
-        <v>700.15149081656375</v>
+        <v>715.33566681359753</v>
       </c>
       <c r="C228" s="1">
-        <v>589.70277688618557</v>
+        <v>602.07756118389671</v>
       </c>
       <c r="D228" s="1">
-        <v>497.69583774378998</v>
+        <v>508.48936070611711</v>
       </c>
       <c r="E228" s="1">
-        <v>460</v>
+        <v>470</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="B229" s="1">
-        <v>715.33566681359753</v>
+        <v>730.51984281063142</v>
       </c>
       <c r="C229" s="1">
-        <v>602.07756118389671</v>
+        <v>614.45234548160784</v>
       </c>
       <c r="D229" s="1">
-        <v>508.48936070611711</v>
+        <v>519.28288366844401</v>
       </c>
       <c r="E229" s="1">
-        <v>470</v>
+        <v>480</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="B230" s="1">
-        <v>730.51984281063142</v>
+        <v>745.70401880766519</v>
       </c>
       <c r="C230" s="1">
-        <v>614.45234548160784</v>
+        <v>626.82712977931885</v>
       </c>
       <c r="D230" s="1">
-        <v>519.28288366844401</v>
+        <v>530.07640663077109</v>
       </c>
       <c r="E230" s="1">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="B231" s="1">
-        <v>745.70401880766519</v>
+        <v>760.88819480469897</v>
       </c>
       <c r="C231" s="1">
-        <v>626.82712977931885</v>
+        <v>639.20191407702998</v>
       </c>
       <c r="D231" s="1">
-        <v>530.07640663077109</v>
+        <v>540.86992959309805</v>
       </c>
       <c r="E231" s="1">
-        <v>490</v>
+        <v>500</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="B232" s="1">
-        <v>760.88819480469897</v>
+        <v>775.71890881008881</v>
       </c>
       <c r="C232" s="1">
-        <v>639.20191407702998</v>
+        <v>652.80362391415019</v>
       </c>
       <c r="D232" s="1">
-        <v>540.86992959309805</v>
+        <v>550.46021507937087</v>
       </c>
       <c r="E232" s="1">
-        <v>500</v>
+        <v>510</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="B233" s="1">
-        <v>775.71890881008881</v>
+        <v>790.54962281547853</v>
       </c>
       <c r="C233" s="1">
-        <v>652.80362391415019</v>
+        <v>666.4053337512704</v>
       </c>
       <c r="D233" s="1">
-        <v>550.46021507937087</v>
+        <v>560.05050056564369</v>
       </c>
       <c r="E233" s="1">
-        <v>510</v>
+        <v>520</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="B234" s="1">
-        <v>790.54962281547853</v>
+        <v>805.38033682086837</v>
       </c>
       <c r="C234" s="1">
-        <v>666.4053337512704</v>
+        <v>680.00704358839062</v>
       </c>
       <c r="D234" s="1">
-        <v>560.05050056564369</v>
+        <v>569.64078605191639</v>
       </c>
       <c r="E234" s="1">
-        <v>520</v>
+        <v>530</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="B235" s="1">
-        <v>805.38033682086837</v>
+        <v>820.2110508262582</v>
       </c>
       <c r="C235" s="1">
-        <v>680.00704358839062</v>
+        <v>693.60875342551083</v>
       </c>
       <c r="D235" s="1">
-        <v>569.64078605191639</v>
+        <v>579.23107153818921</v>
       </c>
       <c r="E235" s="1">
-        <v>530</v>
+        <v>540</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="B236" s="1">
-        <v>820.2110508262582</v>
+        <v>835.04176483164792</v>
       </c>
       <c r="C236" s="1">
-        <v>693.60875342551083</v>
+        <v>707.21046326263104</v>
       </c>
       <c r="D236" s="1">
-        <v>579.23107153818921</v>
+        <v>588.82135702446203</v>
       </c>
       <c r="E236" s="1">
-        <v>540</v>
+        <v>550</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="B237" s="1">
-        <v>835.04176483164792</v>
+        <v>849.87247883703776</v>
       </c>
       <c r="C237" s="1">
-        <v>707.21046326263104</v>
+        <v>720.81217309975113</v>
       </c>
       <c r="D237" s="1">
-        <v>588.82135702446203</v>
+        <v>598.41164251073485</v>
       </c>
       <c r="E237" s="1">
-        <v>550</v>
+        <v>560</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="B238" s="1">
-        <v>849.87247883703776</v>
+        <v>864.7031928424276</v>
       </c>
       <c r="C238" s="1">
-        <v>720.81217309975113</v>
+        <v>734.41388293687135</v>
       </c>
       <c r="D238" s="1">
-        <v>598.41164251073485</v>
+        <v>608.00192799700767</v>
       </c>
       <c r="E238" s="1">
-        <v>560</v>
+        <v>570</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="B239" s="1">
-        <v>864.7031928424276</v>
+        <v>879.53390684781743</v>
       </c>
       <c r="C239" s="1">
-        <v>734.41388293687135</v>
+        <v>748.01559277399156</v>
       </c>
       <c r="D239" s="1">
-        <v>608.00192799700767</v>
+        <v>617.59221348328037</v>
       </c>
       <c r="E239" s="1">
-        <v>570</v>
+        <v>580</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="B240" s="1">
-        <v>879.53390684781743</v>
+        <v>894.36462085320716</v>
       </c>
       <c r="C240" s="1">
-        <v>748.01559277399156</v>
+        <v>761.61730261111177</v>
       </c>
       <c r="D240" s="1">
-        <v>617.59221348328037</v>
+        <v>627.18249896955319</v>
       </c>
       <c r="E240" s="1">
-        <v>580</v>
+        <v>590</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="B241" s="1">
-        <v>894.36462085320716</v>
+        <v>909.19533485859699</v>
       </c>
       <c r="C241" s="1">
-        <v>761.61730261111177</v>
+        <v>775.21901244823198</v>
       </c>
       <c r="D241" s="1">
-        <v>627.18249896955319</v>
+        <v>636.77278445582601</v>
       </c>
       <c r="E241" s="1">
-        <v>590</v>
+        <v>600</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="B242" s="1">
-        <v>909.19533485859699</v>
+        <v>923.73978196869234</v>
       </c>
       <c r="C242" s="1">
-        <v>775.21901244823198</v>
+        <v>786.95440759898895</v>
       </c>
       <c r="D242" s="1">
-        <v>636.77278445582601</v>
+        <v>649.75191912429375</v>
       </c>
       <c r="E242" s="1">
-        <v>600</v>
+        <v>610</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="B243" s="1">
-        <v>923.73978196869234</v>
+        <v>938.28422907878758</v>
       </c>
       <c r="C243" s="1">
-        <v>786.95440759898895</v>
+        <v>798.68980274974604</v>
       </c>
       <c r="D243" s="1">
-        <v>649.75191912429375</v>
+        <v>662.73105379276137</v>
       </c>
       <c r="E243" s="1">
-        <v>610</v>
+        <v>620</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="B244" s="1">
-        <v>938.28422907878758</v>
+        <v>952.82867618888281</v>
       </c>
       <c r="C244" s="1">
-        <v>798.68980274974604</v>
+        <v>810.42519790050301</v>
       </c>
       <c r="D244" s="1">
-        <v>662.73105379276137</v>
+        <v>675.71018846122911</v>
       </c>
       <c r="E244" s="1">
-        <v>620</v>
+        <v>630</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="B245" s="1">
-        <v>952.82867618888281</v>
+        <v>967.37312329897816</v>
       </c>
       <c r="C245" s="1">
-        <v>810.42519790050301</v>
+        <v>822.16059305125998</v>
       </c>
       <c r="D245" s="1">
-        <v>675.71018846122911</v>
+        <v>688.68932312969685</v>
       </c>
       <c r="E245" s="1">
-        <v>630</v>
+        <v>640</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="B246" s="1">
-        <v>967.37312329897816</v>
+        <v>981.91757040907351</v>
       </c>
       <c r="C246" s="1">
-        <v>822.16059305125998</v>
+        <v>833.89598820201695</v>
       </c>
       <c r="D246" s="1">
-        <v>688.68932312969685</v>
+        <v>701.66845779816458</v>
       </c>
       <c r="E246" s="1">
-        <v>640</v>
+        <v>650</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="B247" s="1">
-        <v>981.91757040907351</v>
+        <v>996.46201751916874</v>
       </c>
       <c r="C247" s="1">
-        <v>833.89598820201695</v>
+        <v>845.63138335277404</v>
       </c>
       <c r="D247" s="1">
-        <v>701.66845779816458</v>
+        <v>714.6475924666322</v>
       </c>
       <c r="E247" s="1">
-        <v>650</v>
+        <v>660</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="B248" s="1">
-        <v>996.46201751916874</v>
+        <v>1011.006464629264</v>
       </c>
       <c r="C248" s="1">
-        <v>845.63138335277404</v>
+        <v>857.36677850353101</v>
       </c>
       <c r="D248" s="1">
-        <v>714.6475924666322</v>
+        <v>727.62672713509994</v>
       </c>
       <c r="E248" s="1">
-        <v>660</v>
+        <v>670</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="B249" s="1">
-        <v>1011.006464629264</v>
+        <v>1025.550911739359</v>
       </c>
       <c r="C249" s="1">
-        <v>857.36677850353101</v>
+        <v>869.10217365428798</v>
       </c>
       <c r="D249" s="1">
-        <v>727.62672713509994</v>
+        <v>740.60586180356768</v>
       </c>
       <c r="E249" s="1">
-        <v>670</v>
+        <v>680</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="B250" s="1">
-        <v>1025.550911739359</v>
+        <v>1040.0953588494549</v>
       </c>
       <c r="C250" s="1">
-        <v>869.10217365428798</v>
+        <v>880.83756880504507</v>
       </c>
       <c r="D250" s="1">
-        <v>740.60586180356768</v>
+        <v>753.5849964720353</v>
       </c>
       <c r="E250" s="1">
-        <v>680</v>
+        <v>690</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="B251" s="1">
-        <v>1040.0953588494549</v>
+        <v>1054.6398059595499</v>
       </c>
       <c r="C251" s="1">
-        <v>880.83756880504507</v>
+        <v>892.57296395580204</v>
       </c>
       <c r="D251" s="1">
-        <v>753.5849964720353</v>
+        <v>766.56413114050304</v>
       </c>
       <c r="E251" s="1">
-        <v>690</v>
+        <v>700</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="B252" s="1">
-        <v>1054.6398059595499</v>
+        <v>1068.81647861858</v>
       </c>
       <c r="C252" s="1">
-        <v>892.57296395580204</v>
+        <v>906.85402912701988</v>
       </c>
       <c r="D252" s="1">
-        <v>766.56413114050304</v>
+        <v>775.58646659980923</v>
       </c>
       <c r="E252" s="1">
-        <v>700</v>
+        <v>710</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="B253" s="1">
-        <v>1068.81647861858</v>
+        <v>1082.99315127761</v>
       </c>
       <c r="C253" s="1">
-        <v>906.85402912701988</v>
+        <v>921.13509429823762</v>
       </c>
       <c r="D253" s="1">
-        <v>775.58646659980923</v>
+        <v>784.60880205911542</v>
       </c>
       <c r="E253" s="1">
-        <v>710</v>
+        <v>720</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="B254" s="1">
-        <v>1082.99315127761</v>
+        <v>1097.1698239366399</v>
       </c>
       <c r="C254" s="1">
-        <v>921.13509429823762</v>
+        <v>935.41615946945535</v>
       </c>
       <c r="D254" s="1">
-        <v>784.60880205911542</v>
+        <v>793.63113751842161</v>
       </c>
       <c r="E254" s="1">
-        <v>720</v>
+        <v>730</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="B255" s="1">
-        <v>1097.1698239366399</v>
+        <v>1111.34649659567</v>
       </c>
       <c r="C255" s="1">
-        <v>935.41615946945535</v>
+        <v>949.6972246406732</v>
       </c>
       <c r="D255" s="1">
-        <v>793.63113751842161</v>
+        <v>802.6534729777278</v>
       </c>
       <c r="E255" s="1">
-        <v>730</v>
+        <v>740</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B256" s="1">
-        <v>1111.34649659567</v>
+        <v>1125.5231692547</v>
       </c>
       <c r="C256" s="1">
-        <v>949.6972246406732</v>
+        <v>963.97828981189105</v>
       </c>
       <c r="D256" s="1">
-        <v>802.6534729777278</v>
+        <v>811.67580843703399</v>
       </c>
       <c r="E256" s="1">
-        <v>740</v>
+        <v>750</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B257" s="1">
-        <v>1125.5231692547</v>
+        <v>1139.6998419137301</v>
       </c>
       <c r="C257" s="1">
-        <v>963.97828981189105</v>
+        <v>978.25935498310878</v>
       </c>
       <c r="D257" s="1">
-        <v>811.67580843703399</v>
+        <v>820.69814389634018</v>
       </c>
       <c r="E257" s="1">
-        <v>750</v>
+        <v>760</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B258" s="1">
-        <v>1139.6998419137301</v>
+        <v>1153.87651457276</v>
       </c>
       <c r="C258" s="1">
-        <v>978.25935498310878</v>
+        <v>992.54042015432651</v>
       </c>
       <c r="D258" s="1">
-        <v>820.69814389634018</v>
+        <v>829.72047935564638</v>
       </c>
       <c r="E258" s="1">
-        <v>760</v>
+        <v>770</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
-        <v>770</v>
+        <v>780</v>
       </c>
       <c r="B259" s="1">
-        <v>1153.87651457276</v>
+        <v>1168.0531872317899</v>
       </c>
       <c r="C259" s="1">
-        <v>992.54042015432651</v>
+        <v>1006.821485325544</v>
       </c>
       <c r="D259" s="1">
-        <v>829.72047935564638</v>
+        <v>838.74281481495257</v>
       </c>
       <c r="E259" s="1">
-        <v>770</v>
+        <v>780</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="B260" s="1">
-        <v>1168.0531872317899</v>
+        <v>1182.2298598908201</v>
       </c>
       <c r="C260" s="1">
-        <v>1006.821485325544</v>
+        <v>1021.102550496762</v>
       </c>
       <c r="D260" s="1">
-        <v>838.74281481495257</v>
+        <v>847.76515027425876</v>
       </c>
       <c r="E260" s="1">
-        <v>780</v>
+        <v>790</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B261" s="1">
-        <v>1182.2298598908201</v>
+        <v>1196.40653254985</v>
       </c>
       <c r="C261" s="1">
-        <v>1021.102550496762</v>
+        <v>1035.3836156679799</v>
       </c>
       <c r="D261" s="1">
-        <v>847.76515027425876</v>
+        <v>856.78748573356495</v>
       </c>
       <c r="E261" s="1">
-        <v>790</v>
+        <v>800</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="B262" s="1">
-        <v>1196.40653254985</v>
+        <v>1213.5029714702671</v>
       </c>
       <c r="C262" s="1">
-        <v>1035.3836156679799</v>
+        <v>1047.5713251031921</v>
       </c>
       <c r="D262" s="1">
-        <v>856.78748573356495</v>
+        <v>869.02963322360665</v>
       </c>
       <c r="E262" s="1">
-        <v>800</v>
+        <v>810</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="B263" s="1">
-        <v>1213.5029714702671</v>
+        <v>1230.5994103906839</v>
       </c>
       <c r="C263" s="1">
-        <v>1047.5713251031921</v>
+        <v>1059.759034538404</v>
       </c>
       <c r="D263" s="1">
-        <v>869.02963322360665</v>
+        <v>881.27178071364835</v>
       </c>
       <c r="E263" s="1">
-        <v>810</v>
+        <v>820</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="B264" s="1">
-        <v>1230.5994103906839</v>
+        <v>1247.695849311101</v>
       </c>
       <c r="C264" s="1">
-        <v>1059.759034538404</v>
+        <v>1071.9467439736161</v>
       </c>
       <c r="D264" s="1">
-        <v>881.27178071364835</v>
+        <v>893.51392820369006</v>
       </c>
       <c r="E264" s="1">
-        <v>820</v>
+        <v>830</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="B265" s="1">
-        <v>1247.695849311101</v>
+        <v>1264.7922882315179</v>
       </c>
       <c r="C265" s="1">
-        <v>1071.9467439736161</v>
+        <v>1084.134453408828</v>
       </c>
       <c r="D265" s="1">
-        <v>893.51392820369006</v>
+        <v>905.75607569373176</v>
       </c>
       <c r="E265" s="1">
-        <v>830</v>
+        <v>840</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B266" s="1">
-        <v>1264.7922882315179</v>
+        <v>1281.888727151935</v>
       </c>
       <c r="C266" s="1">
-        <v>1084.134453408828</v>
+        <v>1096.3221628440399</v>
       </c>
       <c r="D266" s="1">
-        <v>905.75607569373176</v>
+        <v>917.99822318377346</v>
       </c>
       <c r="E266" s="1">
-        <v>840</v>
+        <v>850</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="B267" s="1">
-        <v>1281.888727151935</v>
+        <v>1298.9851660723521</v>
       </c>
       <c r="C267" s="1">
-        <v>1096.3221628440399</v>
+        <v>1108.509872279252</v>
       </c>
       <c r="D267" s="1">
-        <v>917.99822318377346</v>
+        <v>930.24037067381516</v>
       </c>
       <c r="E267" s="1">
-        <v>850</v>
+        <v>860</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
-        <v>860</v>
+        <v>870</v>
       </c>
       <c r="B268" s="1">
-        <v>1298.9851660723521</v>
+        <v>1316.0816049927689</v>
       </c>
       <c r="C268" s="1">
-        <v>1108.509872279252</v>
+        <v>1120.6975817144639</v>
       </c>
       <c r="D268" s="1">
-        <v>930.24037067381516</v>
+        <v>942.48251816385687</v>
       </c>
       <c r="E268" s="1">
-        <v>860</v>
+        <v>870</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
-        <v>870</v>
+        <v>880</v>
       </c>
       <c r="B269" s="1">
-        <v>1316.0816049927689</v>
+        <v>1333.178043913186</v>
       </c>
       <c r="C269" s="1">
-        <v>1120.6975817144639</v>
+        <v>1132.885291149676</v>
       </c>
       <c r="D269" s="1">
-        <v>942.48251816385687</v>
+        <v>954.72466565389857</v>
       </c>
       <c r="E269" s="1">
-        <v>870</v>
+        <v>880</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="B270" s="1">
-        <v>1333.178043913186</v>
+        <v>1350.2744828336031</v>
       </c>
       <c r="C270" s="1">
-        <v>1132.885291149676</v>
+        <v>1145.073000584888</v>
       </c>
       <c r="D270" s="1">
-        <v>954.72466565389857</v>
+        <v>966.96681314394027</v>
       </c>
       <c r="E270" s="1">
-        <v>880</v>
+        <v>890</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="B271" s="1">
-        <v>1350.2744828336031</v>
+        <v>1367.3709217540199</v>
       </c>
       <c r="C271" s="1">
-        <v>1145.073000584888</v>
+        <v>1157.2607100201001</v>
       </c>
       <c r="D271" s="1">
-        <v>966.96681314394027</v>
+        <v>979.20896063398197</v>
       </c>
       <c r="E271" s="1">
-        <v>890</v>
+        <v>900</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="B272" s="1">
-        <v>1367.3709217540199</v>
+        <v>1381.215310664652</v>
       </c>
       <c r="C272" s="1">
-        <v>1157.2607100201001</v>
+        <v>1169.926880580641</v>
       </c>
       <c r="D272" s="1">
-        <v>979.20896063398197</v>
+        <v>989.12591025997278</v>
       </c>
       <c r="E272" s="1">
-        <v>900</v>
+        <v>910</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="B273" s="1">
-        <v>1381.215310664652</v>
+        <v>1395.059699575284</v>
       </c>
       <c r="C273" s="1">
-        <v>1169.926880580641</v>
+        <v>1182.5930511411821</v>
       </c>
       <c r="D273" s="1">
-        <v>989.12591025997278</v>
+        <v>999.04285988596359</v>
       </c>
       <c r="E273" s="1">
-        <v>910</v>
+        <v>920</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
-        <v>920</v>
+        <v>930</v>
       </c>
       <c r="B274" s="1">
-        <v>1395.059699575284</v>
+        <v>1408.904088485916</v>
       </c>
       <c r="C274" s="1">
-        <v>1182.5930511411821</v>
+        <v>1195.2592217017229</v>
       </c>
       <c r="D274" s="1">
-        <v>999.04285988596359</v>
+        <v>1008.9598095119539</v>
       </c>
       <c r="E274" s="1">
-        <v>920</v>
+        <v>930</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="B275" s="1">
-        <v>1408.904088485916</v>
+        <v>1422.748477396548</v>
       </c>
       <c r="C275" s="1">
-        <v>1195.2592217017229</v>
+        <v>1207.925392262264</v>
       </c>
       <c r="D275" s="1">
-        <v>1008.9598095119539</v>
+        <v>1018.876759137945</v>
       </c>
       <c r="E275" s="1">
-        <v>930</v>
+        <v>940</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
-        <v>940</v>
+        <v>950</v>
       </c>
       <c r="B276" s="1">
-        <v>1422.748477396548</v>
+        <v>1436.59286630718</v>
       </c>
       <c r="C276" s="1">
-        <v>1207.925392262264</v>
+        <v>1220.5915628228049</v>
       </c>
       <c r="D276" s="1">
-        <v>1018.876759137945</v>
+        <v>1028.7937087639359</v>
       </c>
       <c r="E276" s="1">
-        <v>940</v>
+        <v>950</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
-        <v>950</v>
+        <v>960</v>
       </c>
       <c r="B277" s="1">
-        <v>1436.59286630718</v>
+        <v>1450.437255217812</v>
       </c>
       <c r="C277" s="1">
-        <v>1220.5915628228049</v>
+        <v>1233.257733383346</v>
       </c>
       <c r="D277" s="1">
-        <v>1028.7937087639359</v>
+        <v>1038.7106583899269</v>
       </c>
       <c r="E277" s="1">
-        <v>950</v>
+        <v>960</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="B278" s="1">
-        <v>1450.437255217812</v>
+        <v>1464.281644128444</v>
       </c>
       <c r="C278" s="1">
-        <v>1233.257733383346</v>
+        <v>1245.9239039438869</v>
       </c>
       <c r="D278" s="1">
-        <v>1038.7106583899269</v>
+        <v>1048.627608015918</v>
       </c>
       <c r="E278" s="1">
-        <v>960</v>
+        <v>970</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="B279" s="1">
-        <v>1464.281644128444</v>
+        <v>1478.126033039076</v>
       </c>
       <c r="C279" s="1">
-        <v>1245.9239039438869</v>
+        <v>1258.590074504428</v>
       </c>
       <c r="D279" s="1">
-        <v>1048.627608015918</v>
+        <v>1058.5445576419081</v>
       </c>
       <c r="E279" s="1">
-        <v>970</v>
+        <v>980</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="B280" s="1">
-        <v>1478.126033039076</v>
+        <v>1491.970421949708</v>
       </c>
       <c r="C280" s="1">
-        <v>1258.590074504428</v>
+        <v>1271.2562450649691</v>
       </c>
       <c r="D280" s="1">
-        <v>1058.5445576419081</v>
+        <v>1068.4615072678989</v>
       </c>
       <c r="E280" s="1">
-        <v>980</v>
+        <v>990</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A281" s="2">
-        <v>990</v>
-      </c>
-      <c r="B281" s="1">
-        <v>1491.970421949708</v>
-      </c>
-      <c r="C281" s="1">
-        <v>1271.2562450649691</v>
-      </c>
-      <c r="D281" s="1">
-        <v>1068.4615072678989</v>
-      </c>
-      <c r="E281" s="1">
-        <v>990</v>
+      <c r="A281" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B281" s="3">
+        <v>1505.81481086034</v>
+      </c>
+      <c r="C281" s="3">
+        <v>1283.92241562551</v>
+      </c>
+      <c r="D281" s="3">
+        <v>1078.37845689389</v>
+      </c>
+      <c r="E281" s="3">
+        <v>1000</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="4">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="B282" s="3">
-        <v>1505.81481086034</v>
+        <v>1659.9451678424471</v>
       </c>
       <c r="C282" s="3">
-        <v>1283.92241562551</v>
+        <v>1413.4262864036509</v>
       </c>
       <c r="D282" s="3">
-        <v>1078.37845689389</v>
+        <v>1183.954127565225</v>
       </c>
       <c r="E282" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="4">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="B283" s="3">
-        <v>1659.9451678424471</v>
+        <v>1814.0755248245539</v>
       </c>
       <c r="C283" s="3">
-        <v>1413.4262864036509</v>
+        <v>1542.9301571817921</v>
       </c>
       <c r="D283" s="3">
-        <v>1183.954127565225</v>
+        <v>1289.5297982365601</v>
       </c>
       <c r="E283" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="4">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="B284" s="3">
-        <v>1814.0755248245539</v>
+        <v>1968.205881806661</v>
       </c>
       <c r="C284" s="3">
-        <v>1542.9301571817921</v>
+        <v>1672.434027959933</v>
       </c>
       <c r="D284" s="3">
-        <v>1289.5297982365601</v>
+        <v>1395.1054689078951</v>
       </c>
       <c r="E284" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="4">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="B285" s="3">
-        <v>1968.205881806661</v>
+        <v>2122.3362387887678</v>
       </c>
       <c r="C285" s="3">
-        <v>1672.434027959933</v>
+        <v>1801.937898738074</v>
       </c>
       <c r="D285" s="3">
-        <v>1395.1054689078951</v>
+        <v>1500.6811395792299</v>
       </c>
       <c r="E285" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="4">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="B286" s="3">
-        <v>2122.3362387887678</v>
+        <v>2276.4665957708748</v>
       </c>
       <c r="C286" s="3">
-        <v>1801.937898738074</v>
+        <v>1931.4417695162149</v>
       </c>
       <c r="D286" s="3">
-        <v>1500.6811395792299</v>
+        <v>1606.256810250565</v>
       </c>
       <c r="E286" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="4">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="B287" s="3">
-        <v>2276.4665957708748</v>
+        <v>2430.5969527529819</v>
       </c>
       <c r="C287" s="3">
-        <v>1931.4417695162149</v>
+        <v>2060.9456402943561</v>
       </c>
       <c r="D287" s="3">
-        <v>1606.256810250565</v>
+        <v>1711.8324809219</v>
       </c>
       <c r="E287" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="4">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="B288" s="3">
-        <v>2430.5969527529819</v>
+        <v>2584.727309735089</v>
       </c>
       <c r="C288" s="3">
-        <v>2060.9456402943561</v>
+        <v>2190.449511072497</v>
       </c>
       <c r="D288" s="3">
-        <v>1711.8324809219</v>
+        <v>1817.4081515932351</v>
       </c>
       <c r="E288" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="4">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="B289" s="3">
-        <v>2584.727309735089</v>
+        <v>2738.857666717196</v>
       </c>
       <c r="C289" s="3">
-        <v>2190.449511072497</v>
+        <v>2319.9533818506379</v>
       </c>
       <c r="D289" s="3">
-        <v>1817.4081515932351</v>
+        <v>1922.9838222645701</v>
       </c>
       <c r="E289" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="4">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="B290" s="3">
-        <v>2738.857666717196</v>
+        <v>2892.9880236993031</v>
       </c>
       <c r="C290" s="3">
-        <v>2319.9533818506379</v>
+        <v>2449.4572526287789</v>
       </c>
       <c r="D290" s="3">
-        <v>1922.9838222645701</v>
+        <v>2028.5594929359049</v>
       </c>
       <c r="E290" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="4">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="B291" s="3">
-        <v>2892.9880236993031</v>
+        <v>3047.1183806814101</v>
       </c>
       <c r="C291" s="3">
-        <v>2449.4572526287789</v>
+        <v>2578.9611234069198</v>
       </c>
       <c r="D291" s="3">
-        <v>2028.5594929359049</v>
+        <v>2134.13516360724</v>
       </c>
       <c r="E291" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="4">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="B292" s="3">
-        <v>3047.1183806814101</v>
+        <v>3204.091916319659</v>
       </c>
       <c r="C292" s="3">
-        <v>2578.9611234069198</v>
+        <v>2708.9240676720592</v>
       </c>
       <c r="D292" s="3">
-        <v>2134.13516360724</v>
+        <v>2244.0681075899702</v>
       </c>
       <c r="E292" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="4">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="B293" s="3">
-        <v>3204.091916319659</v>
+        <v>3361.065451957908</v>
       </c>
       <c r="C293" s="3">
-        <v>2708.9240676720592</v>
+        <v>2838.8870119371982</v>
       </c>
       <c r="D293" s="3">
-        <v>2244.0681075899702</v>
+        <v>2354.0010515726999</v>
       </c>
       <c r="E293" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="4">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="B294" s="3">
-        <v>3361.065451957908</v>
+        <v>3518.0389875961569</v>
       </c>
       <c r="C294" s="3">
-        <v>2838.8870119371982</v>
+        <v>2968.8499562023371</v>
       </c>
       <c r="D294" s="3">
-        <v>2354.0010515726999</v>
+        <v>2463.9339955554301</v>
       </c>
       <c r="E294" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="4">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="B295" s="3">
-        <v>3518.0389875961569</v>
+        <v>3675.0125232344062</v>
       </c>
       <c r="C295" s="3">
-        <v>2968.8499562023371</v>
+        <v>3098.8129004674761</v>
       </c>
       <c r="D295" s="3">
-        <v>2463.9339955554301</v>
+        <v>2573.8669395381598</v>
       </c>
       <c r="E295" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="4">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="B296" s="3">
-        <v>3675.0125232344062</v>
+        <v>3831.9860588726551</v>
       </c>
       <c r="C296" s="3">
-        <v>3098.8129004674761</v>
+        <v>3228.775844732615</v>
       </c>
       <c r="D296" s="3">
-        <v>2573.8669395381598</v>
+        <v>2683.79988352089</v>
       </c>
       <c r="E296" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="4">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="B297" s="3">
-        <v>3831.9860588726551</v>
+        <v>3988.959594510904</v>
       </c>
       <c r="C297" s="3">
-        <v>3228.775844732615</v>
+        <v>3358.738788997754</v>
       </c>
       <c r="D297" s="3">
-        <v>2683.79988352089</v>
+        <v>2793.7328275036198</v>
       </c>
       <c r="E297" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="4">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="B298" s="3">
-        <v>3988.959594510904</v>
+        <v>4145.9331301491529</v>
       </c>
       <c r="C298" s="3">
-        <v>3358.738788997754</v>
+        <v>3488.701733262893</v>
       </c>
       <c r="D298" s="3">
-        <v>2793.7328275036198</v>
+        <v>2903.66577148635</v>
       </c>
       <c r="E298" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="4">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="B299" s="3">
-        <v>4145.9331301491529</v>
+        <v>4302.9066657874018</v>
       </c>
       <c r="C299" s="3">
-        <v>3488.701733262893</v>
+        <v>3618.6646775280319</v>
       </c>
       <c r="D299" s="3">
-        <v>2903.66577148635</v>
+        <v>3013.5987154690802</v>
       </c>
       <c r="E299" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="4">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="B300" s="3">
-        <v>4302.9066657874018</v>
+        <v>4459.8802014256507</v>
       </c>
       <c r="C300" s="3">
-        <v>3618.6646775280319</v>
+        <v>3748.6276217931709</v>
       </c>
       <c r="D300" s="3">
-        <v>3013.5987154690802</v>
+        <v>3123.5316594518099</v>
       </c>
       <c r="E300" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="4">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="B301" s="3">
-        <v>4459.8802014256507</v>
+        <v>4616.8537370638996</v>
       </c>
       <c r="C301" s="3">
-        <v>3748.6276217931709</v>
+        <v>3878.5905660583098</v>
       </c>
       <c r="D301" s="3">
-        <v>3123.5316594518099</v>
+        <v>3233.4646034345401</v>
       </c>
       <c r="E301" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="4">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="B302" s="3">
-        <v>4616.8537370638996</v>
+        <v>4767.230256396012</v>
       </c>
       <c r="C302" s="3">
-        <v>3878.5905660583098</v>
+        <v>4001.1137026290521</v>
       </c>
       <c r="D302" s="3">
-        <v>3233.4646034345401</v>
+        <v>3341.9906760295262</v>
       </c>
       <c r="E302" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="4">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="B303" s="3">
-        <v>4767.230256396012</v>
+        <v>4917.6067757281226</v>
       </c>
       <c r="C303" s="3">
-        <v>4001.1137026290521</v>
+        <v>4123.6368391997939</v>
       </c>
       <c r="D303" s="3">
-        <v>3341.9906760295262</v>
+        <v>3450.5167486245118</v>
       </c>
       <c r="E303" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="4">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="B304" s="3">
-        <v>4917.6067757281226</v>
+        <v>5067.9832950602358</v>
       </c>
       <c r="C304" s="3">
-        <v>4123.6368391997939</v>
+        <v>4246.1599757705362</v>
       </c>
       <c r="D304" s="3">
-        <v>3450.5167486245118</v>
+        <v>3559.0428212194979</v>
       </c>
       <c r="E304" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="4">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="B305" s="3">
-        <v>5067.9832950602358</v>
+        <v>5218.3598143923473</v>
       </c>
       <c r="C305" s="3">
-        <v>4246.1599757705362</v>
+        <v>4368.6831123412776</v>
       </c>
       <c r="D305" s="3">
-        <v>3559.0428212194979</v>
+        <v>3667.568893814484</v>
       </c>
       <c r="E305" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="4">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="B306" s="3">
-        <v>5218.3598143923473</v>
+        <v>5368.7363337244597</v>
       </c>
       <c r="C306" s="3">
-        <v>4368.6831123412776</v>
+        <v>4491.2062489120199</v>
       </c>
       <c r="D306" s="3">
-        <v>3667.568893814484</v>
+        <v>3776.0949664094701</v>
       </c>
       <c r="E306" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="4">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="B307" s="3">
-        <v>5368.7363337244597</v>
+        <v>5519.112853056572</v>
       </c>
       <c r="C307" s="3">
-        <v>4491.2062489120199</v>
+        <v>4613.7293854827622</v>
       </c>
       <c r="D307" s="3">
-        <v>3776.0949664094701</v>
+        <v>3884.6210390044562</v>
       </c>
       <c r="E307" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="4">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="B308" s="3">
-        <v>5519.112853056572</v>
+        <v>5669.4893723886826</v>
       </c>
       <c r="C308" s="3">
-        <v>4613.7293854827622</v>
+        <v>4736.2525220535044</v>
       </c>
       <c r="D308" s="3">
-        <v>3884.6210390044562</v>
+        <v>3993.1471115994418</v>
       </c>
       <c r="E308" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="4">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="B309" s="3">
-        <v>5669.4893723886826</v>
+        <v>5819.8658917207958</v>
       </c>
       <c r="C309" s="3">
-        <v>4736.2525220535044</v>
+        <v>4858.7756586242467</v>
       </c>
       <c r="D309" s="3">
-        <v>3993.1471115994418</v>
+        <v>4101.6731841944274</v>
       </c>
       <c r="E309" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="4">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="B310" s="3">
-        <v>5819.8658917207958</v>
+        <v>5970.2424110529082</v>
       </c>
       <c r="C310" s="3">
-        <v>4858.7756586242467</v>
+        <v>4981.2987951949881</v>
       </c>
       <c r="D310" s="3">
-        <v>4101.6731841944274</v>
+        <v>4210.199256789414</v>
       </c>
       <c r="E310" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="4">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="B311" s="3">
-        <v>5970.2424110529082</v>
+        <v>6120.6189303850197</v>
       </c>
       <c r="C311" s="3">
-        <v>4981.2987951949881</v>
+        <v>5103.8219317657304</v>
       </c>
       <c r="D311" s="3">
-        <v>4210.199256789414</v>
+        <v>4318.7253293843996</v>
       </c>
       <c r="E311" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="4">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="B312" s="3">
-        <v>6120.6189303850197</v>
+        <v>6273.2124761861924</v>
       </c>
       <c r="C312" s="3">
-        <v>5103.8219317657304</v>
+        <v>5240.5982249910776</v>
       </c>
       <c r="D312" s="3">
-        <v>4318.7253293843996</v>
+        <v>4422.394229922189</v>
       </c>
       <c r="E312" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="4">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="B313" s="3">
-        <v>6273.2124761861924</v>
+        <v>6425.806021987366</v>
       </c>
       <c r="C313" s="3">
-        <v>5240.5982249910776</v>
+        <v>5377.3745182164266</v>
       </c>
       <c r="D313" s="3">
-        <v>4422.394229922189</v>
+        <v>4526.0631304599774</v>
       </c>
       <c r="E313" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="4">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="B314" s="3">
-        <v>6425.806021987366</v>
+        <v>6578.3995677885387</v>
       </c>
       <c r="C314" s="3">
-        <v>5377.3745182164266</v>
+        <v>5514.1508114417738</v>
       </c>
       <c r="D314" s="3">
-        <v>4526.0631304599774</v>
+        <v>4629.7320309977667</v>
       </c>
       <c r="E314" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="4">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="B315" s="3">
-        <v>6578.3995677885387</v>
+        <v>6730.9931135897123</v>
       </c>
       <c r="C315" s="3">
-        <v>5514.1508114417738</v>
+        <v>5650.927104667122</v>
       </c>
       <c r="D315" s="3">
-        <v>4629.7320309977667</v>
+        <v>4733.4009315355561</v>
       </c>
       <c r="E315" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="4">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="B316" s="3">
-        <v>6730.9931135897123</v>
+        <v>6883.586659390885</v>
       </c>
       <c r="C316" s="3">
-        <v>5650.927104667122</v>
+        <v>5787.7033978924701</v>
       </c>
       <c r="D316" s="3">
-        <v>4733.4009315355561</v>
+        <v>4837.0698320733454</v>
       </c>
       <c r="E316" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="4">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="B317" s="3">
-        <v>6883.586659390885</v>
+        <v>7036.1802051920577</v>
       </c>
       <c r="C317" s="3">
-        <v>5787.7033978924701</v>
+        <v>5924.4796911178182</v>
       </c>
       <c r="D317" s="3">
-        <v>4837.0698320733454</v>
+        <v>4940.7387326111339</v>
       </c>
       <c r="E317" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="4">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="B318" s="3">
-        <v>7036.1802051920577</v>
+        <v>7188.7737509932313</v>
       </c>
       <c r="C318" s="3">
-        <v>5924.4796911178182</v>
+        <v>6061.2559843431663</v>
       </c>
       <c r="D318" s="3">
-        <v>4940.7387326111339</v>
+        <v>5044.4076331489232</v>
       </c>
       <c r="E318" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="4">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="B319" s="3">
-        <v>7188.7737509932313</v>
+        <v>7341.367296794404</v>
       </c>
       <c r="C319" s="3">
-        <v>6061.2559843431663</v>
+        <v>6198.0322775685136</v>
       </c>
       <c r="D319" s="3">
-        <v>5044.4076331489232</v>
+        <v>5148.0765336867134</v>
       </c>
       <c r="E319" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="4">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="B320" s="3">
-        <v>7341.367296794404</v>
+        <v>7493.9608425955776</v>
       </c>
       <c r="C320" s="3">
-        <v>6198.0322775685136</v>
+        <v>6334.8085707938617</v>
       </c>
       <c r="D320" s="3">
-        <v>5148.0765336867134</v>
+        <v>5251.745434224501</v>
       </c>
       <c r="E320" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="4">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="B321" s="3">
-        <v>7493.9608425955776</v>
+        <v>7646.5543883967503</v>
       </c>
       <c r="C321" s="3">
-        <v>6334.8085707938617</v>
+        <v>6471.5848640192098</v>
       </c>
       <c r="D321" s="3">
-        <v>5251.745434224501</v>
+        <v>5355.4143347622903</v>
       </c>
       <c r="E321" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="4">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="B322" s="3">
-        <v>7646.5543883967503</v>
+        <v>7795.5846637431332</v>
       </c>
       <c r="C322" s="3">
-        <v>6471.5848640192098</v>
+        <v>6592.0175209378458</v>
       </c>
       <c r="D322" s="3">
-        <v>5355.4143347622903</v>
+        <v>5459.8062296384314</v>
       </c>
       <c r="E322" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="4">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="B323" s="3">
-        <v>7795.5846637431332</v>
+        <v>7944.6149390895162</v>
       </c>
       <c r="C323" s="3">
-        <v>6592.0175209378458</v>
+        <v>6712.4501778564818</v>
       </c>
       <c r="D323" s="3">
-        <v>5459.8062296384314</v>
+        <v>5564.1981245145698</v>
       </c>
       <c r="E323" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="4">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="B324" s="3">
-        <v>7944.6149390895162</v>
+        <v>8093.6452144358991</v>
       </c>
       <c r="C324" s="3">
-        <v>6712.4501778564818</v>
+        <v>6832.8828347751178</v>
       </c>
       <c r="D324" s="3">
-        <v>5564.1981245145698</v>
+        <v>5668.59001939071</v>
       </c>
       <c r="E324" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="4">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="B325" s="3">
-        <v>8093.6452144358991</v>
+        <v>8242.675489782283</v>
       </c>
       <c r="C325" s="3">
-        <v>6832.8828347751178</v>
+        <v>6953.3154916937538</v>
       </c>
       <c r="D325" s="3">
-        <v>5668.59001939071</v>
+        <v>5772.9819142668503</v>
       </c>
       <c r="E325" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="4">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="B326" s="3">
-        <v>8242.675489782283</v>
+        <v>8391.705765128665</v>
       </c>
       <c r="C326" s="3">
-        <v>6953.3154916937538</v>
+        <v>7073.7481486123897</v>
       </c>
       <c r="D326" s="3">
-        <v>5772.9819142668503</v>
+        <v>5877.3738091429896</v>
       </c>
       <c r="E326" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="4">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="B327" s="3">
-        <v>8391.705765128665</v>
+        <v>8540.7360404750489</v>
       </c>
       <c r="C327" s="3">
-        <v>7073.7481486123897</v>
+        <v>7194.1808055310257</v>
       </c>
       <c r="D327" s="3">
-        <v>5877.3738091429896</v>
+        <v>5981.7657040191298</v>
       </c>
       <c r="E327" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="4">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="B328" s="3">
-        <v>8540.7360404750489</v>
+        <v>8689.7663158214309</v>
       </c>
       <c r="C328" s="3">
-        <v>7194.1808055310257</v>
+        <v>7314.6134624496617</v>
       </c>
       <c r="D328" s="3">
-        <v>5981.7657040191298</v>
+        <v>6086.15759889527</v>
       </c>
       <c r="E328" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="4">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="B329" s="3">
-        <v>8689.7663158214309</v>
+        <v>8838.7965911678148</v>
       </c>
       <c r="C329" s="3">
-        <v>7314.6134624496617</v>
+        <v>7435.0461193682977</v>
       </c>
       <c r="D329" s="3">
-        <v>6086.15759889527</v>
+        <v>6190.5494937714102</v>
       </c>
       <c r="E329" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="4">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="B330" s="3">
-        <v>8838.7965911678148</v>
+        <v>8987.8268665141986</v>
       </c>
       <c r="C330" s="3">
-        <v>7435.0461193682977</v>
+        <v>7555.4787762869337</v>
       </c>
       <c r="D330" s="3">
-        <v>6190.5494937714102</v>
+        <v>6294.9413886475504</v>
       </c>
       <c r="E330" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="4">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="B331" s="3">
-        <v>8987.8268665141986</v>
+        <v>9136.8571418605807</v>
       </c>
       <c r="C331" s="3">
-        <v>7555.4787762869337</v>
+        <v>7675.9114332055697</v>
       </c>
       <c r="D331" s="3">
-        <v>6294.9413886475504</v>
+        <v>6399.3332835236897</v>
       </c>
       <c r="E331" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="4">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="B332" s="3">
-        <v>9136.8571418605807</v>
+        <v>9275.2109294133625</v>
       </c>
       <c r="C332" s="3">
-        <v>7675.9114332055697</v>
+        <v>7812.0147326941687</v>
       </c>
       <c r="D332" s="3">
-        <v>6399.3332835236897</v>
+        <v>6518.4121153590204</v>
       </c>
       <c r="E332" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="4">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="B333" s="3">
-        <v>9275.2109294133625</v>
+        <v>9413.5647169661443</v>
       </c>
       <c r="C333" s="3">
-        <v>7812.0147326941687</v>
+        <v>7948.1180321827678</v>
       </c>
       <c r="D333" s="3">
-        <v>6518.4121153590204</v>
+        <v>6637.490947194352</v>
       </c>
       <c r="E333" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="4">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="B334" s="3">
-        <v>9413.5647169661443</v>
+        <v>9551.9185045189261</v>
       </c>
       <c r="C334" s="3">
-        <v>7948.1180321827678</v>
+        <v>8084.2213316713669</v>
       </c>
       <c r="D334" s="3">
-        <v>6637.490947194352</v>
+        <v>6756.5697790296826</v>
       </c>
       <c r="E334" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="4">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="B335" s="3">
-        <v>9551.9185045189261</v>
+        <v>9690.2722920717079</v>
       </c>
       <c r="C335" s="3">
-        <v>8084.2213316713669</v>
+        <v>8220.3246311599651</v>
       </c>
       <c r="D335" s="3">
-        <v>6756.5697790296826</v>
+        <v>6875.6486108650142</v>
       </c>
       <c r="E335" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="4">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="B336" s="3">
-        <v>9690.2722920717079</v>
+        <v>9828.6260796244896</v>
       </c>
       <c r="C336" s="3">
-        <v>8220.3246311599651</v>
+        <v>8356.4279306485641</v>
       </c>
       <c r="D336" s="3">
-        <v>6875.6486108650142</v>
+        <v>6994.7274427003449</v>
       </c>
       <c r="E336" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="4">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="B337" s="3">
-        <v>9828.6260796244896</v>
+        <v>9966.9798671772733</v>
       </c>
       <c r="C337" s="3">
-        <v>8356.4279306485641</v>
+        <v>8492.5312301371632</v>
       </c>
       <c r="D337" s="3">
-        <v>6994.7274427003449</v>
+        <v>7113.8062745356756</v>
       </c>
       <c r="E337" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="4">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="B338" s="3">
-        <v>9966.9798671772733</v>
+        <v>10105.333654730061</v>
       </c>
       <c r="C338" s="3">
-        <v>8492.5312301371632</v>
+        <v>8628.6345296257623</v>
       </c>
       <c r="D338" s="3">
-        <v>7113.8062745356756</v>
+        <v>7232.8851063710072</v>
       </c>
       <c r="E338" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="4">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="B339" s="3">
-        <v>10105.333654730061</v>
+        <v>10243.68744228284</v>
       </c>
       <c r="C339" s="3">
-        <v>8628.6345296257623</v>
+        <v>8764.7378291143614</v>
       </c>
       <c r="D339" s="3">
-        <v>7232.8851063710072</v>
+        <v>7351.9639382063378</v>
       </c>
       <c r="E339" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="4">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="B340" s="3">
-        <v>10243.68744228284</v>
+        <v>10382.04122983562</v>
       </c>
       <c r="C340" s="3">
-        <v>8764.7378291143614</v>
+        <v>8900.8411286029605</v>
       </c>
       <c r="D340" s="3">
-        <v>7351.9639382063378</v>
+        <v>7471.0427700416694</v>
       </c>
       <c r="E340" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="4">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="B341" s="3">
-        <v>10382.04122983562</v>
+        <v>10520.3950173884</v>
       </c>
       <c r="C341" s="3">
-        <v>8900.8411286029605</v>
+        <v>9036.9444280915595</v>
       </c>
       <c r="D341" s="3">
-        <v>7471.0427700416694</v>
+        <v>7590.1216018770001</v>
       </c>
       <c r="E341" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="4">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="B342" s="3">
-        <v>10520.3950173884</v>
+        <v>10688.690347380951</v>
       </c>
       <c r="C342" s="3">
-        <v>9036.9444280915595</v>
+        <v>9173.7472052612829</v>
       </c>
       <c r="D342" s="3">
-        <v>7590.1216018770001</v>
+        <v>7698.5725184283456</v>
       </c>
       <c r="E342" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="4">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="B343" s="3">
-        <v>10688.690347380951</v>
+        <v>10856.985677373499</v>
       </c>
       <c r="C343" s="3">
-        <v>9173.7472052612829</v>
+        <v>9310.5499824310082</v>
       </c>
       <c r="D343" s="3">
-        <v>7698.5725184283456</v>
+        <v>7807.023434979692</v>
       </c>
       <c r="E343" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="4">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="B344" s="3">
-        <v>10856.985677373499</v>
+        <v>11025.281007366049</v>
       </c>
       <c r="C344" s="3">
-        <v>9310.5499824310082</v>
+        <v>9447.3527596007316</v>
       </c>
       <c r="D344" s="3">
-        <v>7807.023434979692</v>
+        <v>7915.4743515310383</v>
       </c>
       <c r="E344" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="4">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="B345" s="3">
-        <v>11025.281007366049</v>
+        <v>11193.5763373586</v>
       </c>
       <c r="C345" s="3">
-        <v>9447.3527596007316</v>
+        <v>9584.155536770455</v>
       </c>
       <c r="D345" s="3">
-        <v>7915.4743515310383</v>
+        <v>8023.9252680823838</v>
       </c>
       <c r="E345" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="4">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="B346" s="3">
-        <v>11193.5763373586</v>
+        <v>11361.87166735115</v>
       </c>
       <c r="C346" s="3">
-        <v>9584.155536770455</v>
+        <v>9720.9583139401802</v>
       </c>
       <c r="D346" s="3">
-        <v>8023.9252680823838</v>
+        <v>8132.3761846337293</v>
       </c>
       <c r="E346" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="4">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="B347" s="3">
-        <v>11361.87166735115</v>
+        <v>11530.1669973437</v>
       </c>
       <c r="C347" s="3">
-        <v>9720.9583139401802</v>
+        <v>9857.7610911099036</v>
       </c>
       <c r="D347" s="3">
-        <v>8132.3761846337293</v>
+        <v>8240.8271011850757</v>
       </c>
       <c r="E347" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="4">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="B348" s="3">
-        <v>11530.1669973437</v>
+        <v>11698.46232733625</v>
       </c>
       <c r="C348" s="3">
-        <v>9857.7610911099036</v>
+        <v>9994.5638682796271</v>
       </c>
       <c r="D348" s="3">
-        <v>8240.8271011850757</v>
+        <v>8349.278017736422</v>
       </c>
       <c r="E348" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="4">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="B349" s="3">
-        <v>11698.46232733625</v>
+        <v>11866.757657328801</v>
       </c>
       <c r="C349" s="3">
-        <v>9994.5638682796271</v>
+        <v>10131.36664544935</v>
       </c>
       <c r="D349" s="3">
-        <v>8349.278017736422</v>
+        <v>8457.7289342877666</v>
       </c>
       <c r="E349" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="4">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="B350" s="3">
-        <v>11866.757657328801</v>
+        <v>12035.052987321351</v>
       </c>
       <c r="C350" s="3">
-        <v>10131.36664544935</v>
+        <v>10268.169422619079</v>
       </c>
       <c r="D350" s="3">
-        <v>8457.7289342877666</v>
+        <v>8566.179850839113</v>
       </c>
       <c r="E350" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="4">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="B351" s="3">
-        <v>12035.052987321351</v>
+        <v>12203.348317313899</v>
       </c>
       <c r="C351" s="3">
-        <v>10268.169422619079</v>
+        <v>10404.972199788799</v>
       </c>
       <c r="D351" s="3">
-        <v>8566.179850839113</v>
+        <v>8674.6307673904594</v>
       </c>
       <c r="E351" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="4">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="B352" s="3">
-        <v>12203.348317313899</v>
+        <v>12346.996392457249</v>
       </c>
       <c r="C352" s="3">
-        <v>10404.972199788799</v>
+        <v>10527.4654192936</v>
       </c>
       <c r="D352" s="3">
-        <v>8674.6307673904594</v>
+        <v>8783.974248625369</v>
       </c>
       <c r="E352" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="4">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="B353" s="3">
-        <v>12346.996392457249</v>
+        <v>12490.644467600599</v>
       </c>
       <c r="C353" s="3">
-        <v>10527.4654192936</v>
+        <v>10649.9586387984</v>
       </c>
       <c r="D353" s="3">
-        <v>8783.974248625369</v>
+        <v>8893.3177298602786</v>
       </c>
       <c r="E353" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="4">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="B354" s="3">
-        <v>12490.644467600599</v>
+        <v>12634.29254274395</v>
       </c>
       <c r="C354" s="3">
-        <v>10649.9586387984</v>
+        <v>10772.4518583032</v>
       </c>
       <c r="D354" s="3">
-        <v>8893.3177298602786</v>
+        <v>9002.6612110951901</v>
       </c>
       <c r="E354" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="4">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="B355" s="3">
-        <v>12634.29254274395</v>
+        <v>12777.9406178873</v>
       </c>
       <c r="C355" s="3">
-        <v>10772.4518583032</v>
+        <v>10894.945077808001</v>
       </c>
       <c r="D355" s="3">
-        <v>9002.6612110951901</v>
+        <v>9112.0046923300997</v>
       </c>
       <c r="E355" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="4">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="B356" s="3">
-        <v>12777.9406178873</v>
+        <v>12921.58869303065</v>
       </c>
       <c r="C356" s="3">
-        <v>10894.945077808001</v>
+        <v>11017.438297312799</v>
       </c>
       <c r="D356" s="3">
-        <v>9112.0046923300997</v>
+        <v>9221.3481735650093</v>
       </c>
       <c r="E356" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="4">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="B357" s="3">
-        <v>12921.58869303065</v>
+        <v>13065.236768174</v>
       </c>
       <c r="C357" s="3">
-        <v>11017.438297312799</v>
+        <v>11139.9315168176</v>
       </c>
       <c r="D357" s="3">
-        <v>9221.3481735650093</v>
+        <v>9330.691654799919</v>
       </c>
       <c r="E357" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="4">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="B358" s="3">
-        <v>13065.236768174</v>
+        <v>13208.88484331735</v>
       </c>
       <c r="C358" s="3">
-        <v>11139.9315168176</v>
+        <v>11262.4247363224</v>
       </c>
       <c r="D358" s="3">
-        <v>9330.691654799919</v>
+        <v>9440.0351360348286</v>
       </c>
       <c r="E358" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="4">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="B359" s="3">
-        <v>13208.88484331735</v>
+        <v>13352.5329184607</v>
       </c>
       <c r="C359" s="3">
-        <v>11262.4247363224</v>
+        <v>11384.917955827201</v>
       </c>
       <c r="D359" s="3">
-        <v>9440.0351360348286</v>
+        <v>9549.3786172697401</v>
       </c>
       <c r="E359" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="4">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="B360" s="3">
-        <v>13352.5329184607</v>
+        <v>13496.18099360405</v>
       </c>
       <c r="C360" s="3">
-        <v>11384.917955827201</v>
+        <v>11507.411175331999</v>
       </c>
       <c r="D360" s="3">
-        <v>9549.3786172697401</v>
+        <v>9658.7220985046497</v>
       </c>
       <c r="E360" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="4">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="B361" s="3">
-        <v>13496.18099360405</v>
+        <v>13639.8290687474</v>
       </c>
       <c r="C361" s="3">
-        <v>11507.411175331999</v>
+        <v>11629.9043948368</v>
       </c>
       <c r="D361" s="3">
-        <v>9658.7220985046497</v>
+        <v>9768.0655797395593</v>
       </c>
       <c r="E361" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="4">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="B362" s="3">
-        <v>13639.8290687474</v>
+        <v>13789.153368064121</v>
       </c>
       <c r="C362" s="3">
-        <v>11629.9043948368</v>
+        <v>11738.187533921729</v>
       </c>
       <c r="D362" s="3">
-        <v>9768.0655797395593</v>
+        <v>9859.0136019977035</v>
       </c>
       <c r="E362" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="4">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="B363" s="3">
-        <v>13789.153368064121</v>
+        <v>13938.477667380839</v>
       </c>
       <c r="C363" s="3">
-        <v>11738.187533921729</v>
+        <v>11846.470673006659</v>
       </c>
       <c r="D363" s="3">
-        <v>9859.0136019977035</v>
+        <v>9949.9616242558477</v>
       </c>
       <c r="E363" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="4">
-        <v>9200</v>
+        <v>9300</v>
       </c>
       <c r="B364" s="3">
-        <v>13938.477667380839</v>
+        <v>14087.80196669756</v>
       </c>
       <c r="C364" s="3">
-        <v>11846.470673006659</v>
+        <v>11954.753812091591</v>
       </c>
       <c r="D364" s="3">
-        <v>9949.9616242558477</v>
+        <v>10040.90964651399</v>
       </c>
       <c r="E364" s="3">
-        <v>9200</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="4">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="B365" s="3">
-        <v>14087.80196669756</v>
+        <v>14237.12626601428</v>
       </c>
       <c r="C365" s="3">
-        <v>11954.753812091591</v>
+        <v>12063.03695117652</v>
       </c>
       <c r="D365" s="3">
-        <v>10040.90964651399</v>
+        <v>10131.85766877214</v>
       </c>
       <c r="E365" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="4">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="B366" s="3">
-        <v>14237.12626601428</v>
+        <v>14386.450565331001</v>
       </c>
       <c r="C366" s="3">
-        <v>12063.03695117652</v>
+        <v>12171.32009026145</v>
       </c>
       <c r="D366" s="3">
-        <v>10131.85766877214</v>
+        <v>10222.80569103028</v>
       </c>
       <c r="E366" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="4">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="B367" s="3">
-        <v>14386.450565331001</v>
+        <v>14535.774864647719</v>
       </c>
       <c r="C367" s="3">
-        <v>12171.32009026145</v>
+        <v>12279.60322934638</v>
       </c>
       <c r="D367" s="3">
-        <v>10222.80569103028</v>
+        <v>10313.753713288421</v>
       </c>
       <c r="E367" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="4">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="B368" s="3">
-        <v>14535.774864647719</v>
+        <v>14685.09916396444</v>
       </c>
       <c r="C368" s="3">
-        <v>12279.60322934638</v>
+        <v>12387.886368431309</v>
       </c>
       <c r="D368" s="3">
-        <v>10313.753713288421</v>
+        <v>10404.70173554657</v>
       </c>
       <c r="E368" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="4">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="B369" s="3">
-        <v>14685.09916396444</v>
+        <v>14834.42346328116</v>
       </c>
       <c r="C369" s="3">
-        <v>12387.886368431309</v>
+        <v>12496.169507516241</v>
       </c>
       <c r="D369" s="3">
-        <v>10404.70173554657</v>
+        <v>10495.649757804709</v>
       </c>
       <c r="E369" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="4">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="B370" s="3">
-        <v>14834.42346328116</v>
+        <v>14983.747762597881</v>
       </c>
       <c r="C370" s="3">
-        <v>12496.169507516241</v>
+        <v>12604.45264660117</v>
       </c>
       <c r="D370" s="3">
-        <v>10495.649757804709</v>
+        <v>10586.597780062861</v>
       </c>
       <c r="E370" s="3">
-        <v>9800</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="4">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="B371" s="3">
-        <v>14983.747762597881</v>
+        <v>15133.0720619146</v>
       </c>
       <c r="C371" s="3">
-        <v>12604.45264660117</v>
+        <v>12712.7357856861</v>
       </c>
       <c r="D371" s="3">
-        <v>10586.597780062861</v>
+        <v>10677.545802320999</v>
       </c>
       <c r="E371" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="4">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="B372" s="3">
-        <v>15133.0720619146</v>
+        <v>16614.670321551279</v>
       </c>
       <c r="C372" s="3">
-        <v>12712.7357856861</v>
+        <v>14014.033287764119</v>
       </c>
       <c r="D372" s="3">
-        <v>10677.545802320999</v>
+        <v>11722.978858867091</v>
       </c>
       <c r="E372" s="3">
-        <v>10000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="4">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="B373" s="3">
-        <v>16614.670321551279</v>
+        <v>18096.26858118796</v>
       </c>
       <c r="C373" s="3">
-        <v>14014.033287764119</v>
+        <v>15315.330789842141</v>
       </c>
       <c r="D373" s="3">
-        <v>11722.978858867091</v>
+        <v>12768.41191541318</v>
       </c>
       <c r="E373" s="3">
-        <v>11000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="4">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="B374" s="3">
-        <v>18096.26858118796</v>
+        <v>19577.866840824641</v>
       </c>
       <c r="C374" s="3">
-        <v>15315.330789842141</v>
+        <v>16616.628291920159</v>
       </c>
       <c r="D374" s="3">
-        <v>12768.41191541318</v>
+        <v>13813.84497195927</v>
       </c>
       <c r="E374" s="3">
-        <v>12000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="4">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="B375" s="3">
-        <v>19577.866840824641</v>
+        <v>21059.465100461319</v>
       </c>
       <c r="C375" s="3">
-        <v>16616.628291920159</v>
+        <v>17917.92579399818</v>
       </c>
       <c r="D375" s="3">
-        <v>13813.84497195927</v>
+        <v>14859.27802850536</v>
       </c>
       <c r="E375" s="3">
-        <v>13000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="4">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="B376" s="3">
-        <v>21059.465100461319</v>
+        <v>22541.063360098</v>
       </c>
       <c r="C376" s="3">
-        <v>17917.92579399818</v>
+        <v>19219.223296076201</v>
       </c>
       <c r="D376" s="3">
-        <v>14859.27802850536</v>
+        <v>15904.711085051449</v>
       </c>
       <c r="E376" s="3">
-        <v>14000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="4">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="B377" s="3">
-        <v>22541.063360098</v>
+        <v>24022.661619734681</v>
       </c>
       <c r="C377" s="3">
-        <v>19219.223296076201</v>
+        <v>20520.520798154219</v>
       </c>
       <c r="D377" s="3">
-        <v>15904.711085051449</v>
+        <v>16950.144141597539</v>
       </c>
       <c r="E377" s="3">
-        <v>15000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="4">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="B378" s="3">
-        <v>24022.661619734681</v>
+        <v>25504.259879371359</v>
       </c>
       <c r="C378" s="3">
-        <v>20520.520798154219</v>
+        <v>21821.81830023224</v>
       </c>
       <c r="D378" s="3">
-        <v>16950.144141597539</v>
+        <v>17995.57719814363</v>
       </c>
       <c r="E378" s="3">
-        <v>16000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="4">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="B379" s="3">
-        <v>25504.259879371359</v>
+        <v>26985.85813900804</v>
       </c>
       <c r="C379" s="3">
-        <v>21821.81830023224</v>
+        <v>23123.115802310262</v>
       </c>
       <c r="D379" s="3">
-        <v>17995.57719814363</v>
+        <v>19041.010254689721</v>
       </c>
       <c r="E379" s="3">
-        <v>17000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="4">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="B380" s="3">
-        <v>26985.85813900804</v>
+        <v>28467.456398644721</v>
       </c>
       <c r="C380" s="3">
-        <v>23123.115802310262</v>
+        <v>24424.413304388279</v>
       </c>
       <c r="D380" s="3">
-        <v>19041.010254689721</v>
+        <v>20086.443311235809</v>
       </c>
       <c r="E380" s="3">
-        <v>18000</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="4">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="B381" s="3">
-        <v>28467.456398644721</v>
+        <v>29949.054658281399</v>
       </c>
       <c r="C381" s="3">
-        <v>24424.413304388279</v>
+        <v>25725.710806466301</v>
       </c>
       <c r="D381" s="3">
-        <v>20086.443311235809</v>
+        <v>21131.876367781901</v>
       </c>
       <c r="E381" s="3">
-        <v>19000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="4">
-        <v>20000</v>
-      </c>
-      <c r="B382" s="3">
-        <v>29949.054658281399</v>
-      </c>
+        <v>21000</v>
+      </c>
+      <c r="B382" s="3"/>
       <c r="C382" s="3">
-        <v>25725.710806466301</v>
+        <v>26993.61325834518</v>
       </c>
       <c r="D382" s="3">
-        <v>21131.876367781901</v>
+        <v>22173.292766346469</v>
       </c>
       <c r="E382" s="3">
-        <v>20000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="4">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="B383" s="3"/>
       <c r="C383" s="3">
-        <v>26993.61325834518</v>
+        <v>28261.515710224059</v>
       </c>
       <c r="D383" s="3">
-        <v>22173.292766346469</v>
+        <v>23214.709164911041</v>
       </c>
       <c r="E383" s="3">
-        <v>21000</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="4">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="B384" s="3"/>
       <c r="C384" s="3">
-        <v>28261.515710224059</v>
+        <v>29529.418162102938</v>
       </c>
       <c r="D384" s="3">
-        <v>23214.709164911041</v>
+        <v>24256.125563475609</v>
       </c>
       <c r="E384" s="3">
-        <v>22000</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="4">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="B385" s="3"/>
       <c r="C385" s="3">
-        <v>29529.418162102938</v>
+        <v>30797.320613981821</v>
       </c>
       <c r="D385" s="3">
-        <v>24256.125563475609</v>
+        <v>25297.541962040181</v>
       </c>
       <c r="E385" s="3">
-        <v>23000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="4">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="B386" s="3"/>
       <c r="C386" s="3">
-        <v>30797.320613981821</v>
+        <v>32065.2230658607</v>
       </c>
       <c r="D386" s="3">
-        <v>25297.541962040181</v>
+        <v>26338.958360604749</v>
       </c>
       <c r="E386" s="3">
-        <v>24000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="4">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="B387" s="3"/>
       <c r="C387" s="3">
-        <v>32065.2230658607</v>
+        <v>33333.12551773958</v>
       </c>
       <c r="D387" s="3">
-        <v>26338.958360604749</v>
+        <v>27380.374759169321</v>
       </c>
       <c r="E387" s="3">
-        <v>25000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="4">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="B388" s="3"/>
       <c r="C388" s="3">
-        <v>33333.12551773958</v>
+        <v>34601.027969618459</v>
       </c>
       <c r="D388" s="3">
-        <v>27380.374759169321</v>
+        <v>28421.791157733889</v>
       </c>
       <c r="E388" s="3">
-        <v>26000</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="4">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="B389" s="3"/>
       <c r="C389" s="3">
-        <v>34601.027969618459</v>
+        <v>35868.930421497338</v>
       </c>
       <c r="D389" s="3">
-        <v>28421.791157733889</v>
+        <v>29463.207556298461</v>
       </c>
       <c r="E389" s="3">
-        <v>27000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="4">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="B390" s="3"/>
       <c r="C390" s="3">
-        <v>35868.930421497338</v>
+        <v>37136.832873376217</v>
       </c>
       <c r="D390" s="3">
-        <v>29463.207556298461</v>
+        <v>30504.623954863029</v>
       </c>
       <c r="E390" s="3">
-        <v>28000</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="4">
-        <v>29000</v>
-      </c>
-      <c r="B391" s="3"/>
-      <c r="C391" s="3">
-        <v>37136.832873376217</v>
-      </c>
-      <c r="D391" s="3">
-        <v>30504.623954863029</v>
-      </c>
-      <c r="E391" s="3">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A392" s="4">
         <v>30000</v>
       </c>
-      <c r="C392">
+      <c r="C391">
         <v>38404.735325255097</v>
       </c>
-      <c r="D392">
+      <c r="D391">
         <v>31546.040353427601</v>
       </c>
-      <c r="E392">
+      <c r="E391">
         <v>30000</v>
       </c>
     </row>

--- a/impulse_1.xlsx
+++ b/impulse_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\nomogram_ ver.streamlit - 복사본5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A10BC8-223D-47AF-9CBB-4582ECF4B8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FA0286-81B5-4D74-901F-0E8A7F7A86C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2055" yWindow="2475" windowWidth="12150" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1025,15 +1025,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9684C5D3-1973-41B6-B112-850508B717AA}">
-  <dimension ref="A1:E392"/>
+  <dimension ref="A1:D392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1043,12 +1043,11 @@
       <c r="C1" s="2">
         <v>35</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2">
+      <c r="D1" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1056,12 +1055,11 @@
         <v>4.6546570003565768E-2</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0.1</v>
       </c>
@@ -1071,12 +1069,11 @@
       <c r="C3" s="1">
         <v>5.6492271887188528E-2</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1">
+      <c r="D3" s="1">
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>0.2</v>
       </c>
@@ -1086,12 +1083,11 @@
       <c r="C4" s="1">
         <v>0.20820913332774771</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1">
+      <c r="D4" s="1">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>0.3</v>
       </c>
@@ -1101,12 +1097,11 @@
       <c r="C5" s="1">
         <v>0.35992599476830689</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1">
+      <c r="D5" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>0.4</v>
       </c>
@@ -1116,12 +1111,11 @@
       <c r="C6" s="1">
         <v>0.51164285620886596</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1">
+      <c r="D6" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>0.5</v>
       </c>
@@ -1131,12 +1125,11 @@
       <c r="C7" s="1">
         <v>0.66335971764942503</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1">
+      <c r="D7" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>0.60000000000000009</v>
       </c>
@@ -1146,12 +1139,11 @@
       <c r="C8" s="1">
         <v>0.78679773339973513</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1">
+      <c r="D8" s="1">
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>0.70000000000000007</v>
       </c>
@@ -1161,12 +1153,11 @@
       <c r="C9" s="1">
         <v>0.91945908568597912</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1">
+      <c r="D9" s="1">
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>0.8</v>
       </c>
@@ -1176,12 +1167,11 @@
       <c r="C10" s="1">
         <v>1.04305455787927</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1">
+      <c r="D10" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>0.9</v>
       </c>
@@ -1191,12 +1181,11 @@
       <c r="C11" s="1">
         <v>1.1572305695942999</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1">
+      <c r="D11" s="1">
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -1206,12 +1195,11 @@
       <c r="C12" s="1">
         <v>1.2934662994499899</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1">
+      <c r="D12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -1221,12 +1209,11 @@
       <c r="C13" s="1">
         <v>1.418213481137607</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1">
+      <c r="D13" s="1">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>1.2</v>
       </c>
@@ -1236,12 +1223,11 @@
       <c r="C14" s="1">
         <v>1.5429606628252239</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1">
+      <c r="D14" s="1">
         <v>1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1.3</v>
       </c>
@@ -1251,12 +1237,11 @@
       <c r="C15" s="1">
         <v>1.667707844512841</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1">
+      <c r="D15" s="1">
         <v>1.3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1.4</v>
       </c>
@@ -1266,12 +1251,11 @@
       <c r="C16" s="1">
         <v>1.7924550262004579</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1">
+      <c r="D16" s="1">
         <v>1.4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1.5</v>
       </c>
@@ -1281,12 +1265,11 @@
       <c r="C17" s="1">
         <v>1.917202207888075</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1">
+      <c r="D17" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1.6</v>
       </c>
@@ -1296,12 +1279,11 @@
       <c r="C18" s="1">
         <v>2.0419493895756919</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1">
+      <c r="D18" s="1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1.7</v>
       </c>
@@ -1311,12 +1293,11 @@
       <c r="C19" s="1">
         <v>2.1666965712633091</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1">
+      <c r="D19" s="1">
         <v>1.7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>1.8</v>
       </c>
@@ -1326,12 +1307,11 @@
       <c r="C20" s="1">
         <v>2.2914437529509262</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1">
+      <c r="D20" s="1">
         <v>1.8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1.9</v>
       </c>
@@ -1341,12 +1321,11 @@
       <c r="C21" s="1">
         <v>2.4161909346385428</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1">
+      <c r="D21" s="1">
         <v>1.9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>2</v>
       </c>
@@ -1356,12 +1335,11 @@
       <c r="C22" s="1">
         <v>2.54093811632616</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1">
+      <c r="D22" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>2.1</v>
       </c>
@@ -1371,12 +1349,11 @@
       <c r="C23" s="1">
         <v>2.6804916451686531</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1">
+      <c r="D23" s="1">
         <v>2.1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -1386,12 +1363,11 @@
       <c r="C24" s="1">
         <v>2.8200451740111458</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1">
+      <c r="D24" s="1">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -1401,12 +1377,11 @@
       <c r="C25" s="1">
         <v>2.959598702853639</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1">
+      <c r="D25" s="1">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>2.4</v>
       </c>
@@ -1416,12 +1391,11 @@
       <c r="C26" s="1">
         <v>3.0991522316961331</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1">
+      <c r="D26" s="1">
         <v>2.4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>2.5</v>
       </c>
@@ -1431,12 +1405,11 @@
       <c r="C27" s="1">
         <v>3.2387057605386249</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1">
+      <c r="D27" s="1">
         <v>2.5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>2.6</v>
       </c>
@@ -1446,12 +1419,11 @@
       <c r="C28" s="1">
         <v>3.3782592893811181</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1">
+      <c r="D28" s="1">
         <v>2.6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>2.7</v>
       </c>
@@ -1461,12 +1433,11 @@
       <c r="C29" s="1">
         <v>3.5178128182236108</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1">
+      <c r="D29" s="1">
         <v>2.7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>2.8</v>
       </c>
@@ -1476,12 +1447,11 @@
       <c r="C30" s="1">
         <v>3.657366347066104</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1">
+      <c r="D30" s="1">
         <v>2.8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>2.9</v>
       </c>
@@ -1491,12 +1461,11 @@
       <c r="C31" s="1">
         <v>3.7969198759085971</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1">
+      <c r="D31" s="1">
         <v>2.9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>3</v>
       </c>
@@ -1506,12 +1475,11 @@
       <c r="C32" s="1">
         <v>3.9364734047510899</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1">
+      <c r="D32" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>3.1</v>
       </c>
@@ -1521,12 +1489,11 @@
       <c r="C33" s="1">
         <v>4.0608440017776744</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1">
+      <c r="D33" s="1">
         <v>3.1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>3.2</v>
       </c>
@@ -1536,12 +1503,11 @@
       <c r="C34" s="1">
         <v>4.1852145988042579</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1">
+      <c r="D34" s="1">
         <v>3.2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>3.3</v>
       </c>
@@ -1551,12 +1517,11 @@
       <c r="C35" s="1">
         <v>4.3095851958308424</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1">
+      <c r="D35" s="1">
         <v>3.3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>3.4</v>
       </c>
@@ -1566,12 +1531,11 @@
       <c r="C36" s="1">
         <v>4.4339557928574269</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1">
+      <c r="D36" s="1">
         <v>3.4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>3.5</v>
       </c>
@@ -1581,12 +1545,11 @@
       <c r="C37" s="1">
         <v>4.5583263898840114</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1">
+      <c r="D37" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>3.6</v>
       </c>
@@ -1596,12 +1559,11 @@
       <c r="C38" s="1">
         <v>4.6826969869105941</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1">
+      <c r="D38" s="1">
         <v>3.6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>3.7</v>
       </c>
@@ -1611,12 +1573,11 @@
       <c r="C39" s="1">
         <v>4.8070675839371786</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1">
+      <c r="D39" s="1">
         <v>3.7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>3.8</v>
       </c>
@@ -1626,12 +1587,11 @@
       <c r="C40" s="1">
         <v>4.9314381809637622</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1">
+      <c r="D40" s="1">
         <v>3.8</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>3.9</v>
       </c>
@@ -1641,12 +1601,11 @@
       <c r="C41" s="1">
         <v>5.0558087779903467</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1">
+      <c r="D41" s="1">
         <v>3.9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>4</v>
       </c>
@@ -1656,12 +1615,11 @@
       <c r="C42" s="1">
         <v>5.1801793750169303</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1">
+      <c r="D42" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>4.1000000000000014</v>
       </c>
@@ -1671,12 +1629,11 @@
       <c r="C43" s="1">
         <v>5.3045348999953301</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1">
+      <c r="D43" s="1">
         <v>4.1000000000000014</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>4.2</v>
       </c>
@@ -1686,12 +1643,11 @@
       <c r="C44" s="1">
         <v>5.4288904249737282</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1">
+      <c r="D44" s="1">
         <v>4.2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>4.3</v>
       </c>
@@ -1701,12 +1657,11 @@
       <c r="C45" s="1">
         <v>5.5532459499521272</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1">
+      <c r="D45" s="1">
         <v>4.3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>4.4000000000000004</v>
       </c>
@@ -1716,12 +1671,11 @@
       <c r="C46" s="1">
         <v>5.6776014749305261</v>
       </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1">
+      <c r="D46" s="1">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>4.5</v>
       </c>
@@ -1731,12 +1685,11 @@
       <c r="C47" s="1">
         <v>5.8019569999089251</v>
       </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1">
+      <c r="D47" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>4.6000000000000014</v>
       </c>
@@ -1746,12 +1699,11 @@
       <c r="C48" s="1">
         <v>5.926312524887325</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1">
+      <c r="D48" s="1">
         <v>4.6000000000000014</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>4.7</v>
       </c>
@@ -1761,12 +1713,11 @@
       <c r="C49" s="1">
         <v>6.050668049865723</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1">
+      <c r="D49" s="1">
         <v>4.7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>4.8000000000000007</v>
       </c>
@@ -1776,12 +1727,11 @@
       <c r="C50" s="1">
         <v>6.1750235748441229</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1">
+      <c r="D50" s="1">
         <v>4.8000000000000007</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>4.9000000000000004</v>
       </c>
@@ -1791,12 +1741,11 @@
       <c r="C51" s="1">
         <v>6.2993790998225219</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1">
+      <c r="D51" s="1">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>5</v>
       </c>
@@ -1806,12 +1755,11 @@
       <c r="C52" s="1">
         <v>6.4237346248009199</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1">
+      <c r="D52" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>5.1000000000000014</v>
       </c>
@@ -1821,12 +1769,11 @@
       <c r="C53" s="1">
         <v>6.5546581026655009</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1">
+      <c r="D53" s="1">
         <v>5.1000000000000014</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>5.2</v>
       </c>
@@ -1836,12 +1783,11 @@
       <c r="C54" s="1">
         <v>6.68558158053008</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1">
+      <c r="D54" s="1">
         <v>5.2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>5.3000000000000007</v>
       </c>
@@ -1851,12 +1797,11 @@
       <c r="C55" s="1">
         <v>6.8165050583946609</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1">
+      <c r="D55" s="1">
         <v>5.3000000000000007</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>5.4</v>
       </c>
@@ -1866,12 +1811,11 @@
       <c r="C56" s="1">
         <v>6.9474285362592401</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1">
+      <c r="D56" s="1">
         <v>5.4</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>5.5</v>
       </c>
@@ -1881,12 +1825,11 @@
       <c r="C57" s="1">
         <v>7.0783520141238201</v>
       </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1">
+      <c r="D57" s="1">
         <v>5.5</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>5.6000000000000014</v>
       </c>
@@ -1896,12 +1839,11 @@
       <c r="C58" s="1">
         <v>7.209275491988401</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1">
+      <c r="D58" s="1">
         <v>5.6000000000000014</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>5.7</v>
       </c>
@@ -1911,12 +1853,11 @@
       <c r="C59" s="1">
         <v>7.3401989698529801</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1">
+      <c r="D59" s="1">
         <v>5.7</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>5.8000000000000007</v>
       </c>
@@ -1926,12 +1867,11 @@
       <c r="C60" s="1">
         <v>7.4711224477175611</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1">
+      <c r="D60" s="1">
         <v>5.8000000000000007</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>5.9</v>
       </c>
@@ -1941,12 +1881,11 @@
       <c r="C61" s="1">
         <v>7.6020459255821411</v>
       </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1">
+      <c r="D61" s="1">
         <v>5.9</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>6</v>
       </c>
@@ -1956,12 +1895,11 @@
       <c r="C62" s="1">
         <v>7.7329694034467202</v>
       </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1">
+      <c r="D62" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>6.1000000000000014</v>
       </c>
@@ -1971,12 +1909,11 @@
       <c r="C63" s="1">
         <v>7.8633433695247517</v>
       </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1">
+      <c r="D63" s="1">
         <v>6.1000000000000014</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>6.2</v>
       </c>
@@ -1986,12 +1923,11 @@
       <c r="C64" s="1">
         <v>7.9937173356027822</v>
       </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1">
+      <c r="D64" s="1">
         <v>6.2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>6.3000000000000007</v>
       </c>
@@ -2001,12 +1937,11 @@
       <c r="C65" s="1">
         <v>8.1240913016808136</v>
       </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1">
+      <c r="D65" s="1">
         <v>6.3000000000000007</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>6.4</v>
       </c>
@@ -2016,12 +1951,11 @@
       <c r="C66" s="1">
         <v>8.2544652677588441</v>
       </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1">
+      <c r="D66" s="1">
         <v>6.4</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>6.5</v>
       </c>
@@ -2031,12 +1965,11 @@
       <c r="C67" s="1">
         <v>8.3848392338368747</v>
       </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1">
+      <c r="D67" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>6.6000000000000014</v>
       </c>
@@ -2046,12 +1979,11 @@
       <c r="C68" s="1">
         <v>8.515213199914907</v>
       </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1">
+      <c r="D68" s="1">
         <v>6.6000000000000014</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>6.7</v>
       </c>
@@ -2061,12 +1993,11 @@
       <c r="C69" s="1">
         <v>8.6455871659929358</v>
       </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1">
+      <c r="D69" s="1">
         <v>6.7</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>6.8000000000000007</v>
       </c>
@@ -2076,12 +2007,11 @@
       <c r="C70" s="1">
         <v>8.7759611320709681</v>
       </c>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1">
+      <c r="D70" s="1">
         <v>6.8000000000000007</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>6.9</v>
       </c>
@@ -2091,12 +2021,11 @@
       <c r="C71" s="1">
         <v>8.9063350981489986</v>
       </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1">
+      <c r="D71" s="1">
         <v>6.9</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>7</v>
       </c>
@@ -2106,12 +2035,11 @@
       <c r="C72" s="1">
         <v>9.0367090642270291</v>
       </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1">
+      <c r="D72" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>7.1000000000000014</v>
       </c>
@@ -2121,12 +2049,11 @@
       <c r="C73" s="1">
         <v>9.1735336734922566</v>
       </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1">
+      <c r="D73" s="1">
         <v>7.1000000000000014</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>7.2</v>
       </c>
@@ -2136,12 +2063,11 @@
       <c r="C74" s="1">
         <v>9.310358282757484</v>
       </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1">
+      <c r="D74" s="1">
         <v>7.2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>7.3000000000000007</v>
       </c>
@@ -2151,12 +2077,11 @@
       <c r="C75" s="1">
         <v>9.4471828920227114</v>
       </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1">
+      <c r="D75" s="1">
         <v>7.3000000000000007</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>7.4</v>
       </c>
@@ -2166,12 +2091,11 @@
       <c r="C76" s="1">
         <v>9.5840075012879389</v>
       </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1">
+      <c r="D76" s="1">
         <v>7.4</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>7.5</v>
       </c>
@@ -2181,12 +2105,11 @@
       <c r="C77" s="1">
         <v>9.7208321105531645</v>
       </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1">
+      <c r="D77" s="1">
         <v>7.5</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>7.6000000000000014</v>
       </c>
@@ -2196,12 +2119,11 @@
       <c r="C78" s="1">
         <v>9.857656719818392</v>
       </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1">
+      <c r="D78" s="1">
         <v>7.6000000000000014</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>7.7</v>
       </c>
@@ -2211,12 +2133,11 @@
       <c r="C79" s="1">
         <v>9.9944813290836194</v>
       </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1">
+      <c r="D79" s="1">
         <v>7.7</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>7.8000000000000007</v>
       </c>
@@ -2226,12 +2147,11 @@
       <c r="C80" s="1">
         <v>10.13130593834885</v>
       </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1">
+      <c r="D80" s="1">
         <v>7.8000000000000007</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>7.9</v>
       </c>
@@ -2241,12 +2161,11 @@
       <c r="C81" s="1">
         <v>10.268130547614071</v>
       </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1">
+      <c r="D81" s="1">
         <v>7.9</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>8</v>
       </c>
@@ -2256,12 +2175,11 @@
       <c r="C82" s="1">
         <v>10.4049551568793</v>
       </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1">
+      <c r="D82" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>8.1</v>
       </c>
@@ -2271,12 +2189,11 @@
       <c r="C83" s="1">
         <v>10.5361093292532</v>
       </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1">
+      <c r="D83" s="1">
         <v>8.1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>8.2000000000000011</v>
       </c>
@@ -2286,12 +2203,11 @@
       <c r="C84" s="1">
         <v>10.667263501627099</v>
       </c>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1">
+      <c r="D84" s="1">
         <v>8.2000000000000011</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>8.3000000000000007</v>
       </c>
@@ -2301,12 +2217,11 @@
       <c r="C85" s="1">
         <v>10.798417674001</v>
       </c>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1">
+      <c r="D85" s="1">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>8.4</v>
       </c>
@@ -2316,12 +2231,11 @@
       <c r="C86" s="1">
         <v>10.9295718463749</v>
       </c>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1">
+      <c r="D86" s="1">
         <v>8.4</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>8.5</v>
       </c>
@@ -2331,12 +2245,11 @@
       <c r="C87" s="1">
         <v>11.060726018748801</v>
       </c>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1">
+      <c r="D87" s="1">
         <v>8.5</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>8.6</v>
       </c>
@@ -2346,12 +2259,11 @@
       <c r="C88" s="1">
         <v>11.191880191122699</v>
       </c>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1">
+      <c r="D88" s="1">
         <v>8.6</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>8.7000000000000011</v>
       </c>
@@ -2361,12 +2273,11 @@
       <c r="C89" s="1">
         <v>11.3230343634966</v>
       </c>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1">
+      <c r="D89" s="1">
         <v>8.7000000000000011</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>8.8000000000000007</v>
       </c>
@@ -2376,12 +2287,11 @@
       <c r="C90" s="1">
         <v>11.4541885358705</v>
       </c>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1">
+      <c r="D90" s="1">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>8.9</v>
       </c>
@@ -2391,12 +2301,11 @@
       <c r="C91" s="1">
         <v>11.585342708244401</v>
       </c>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1">
+      <c r="D91" s="1">
         <v>8.9</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>9</v>
       </c>
@@ -2406,12 +2315,11 @@
       <c r="C92" s="1">
         <v>11.716496880618299</v>
       </c>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1">
+      <c r="D92" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>9.1</v>
       </c>
@@ -2421,12 +2329,11 @@
       <c r="C93" s="1">
         <v>11.825586260740421</v>
       </c>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1">
+      <c r="D93" s="1">
         <v>9.1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>9.2000000000000011</v>
       </c>
@@ -2436,12 +2343,11 @@
       <c r="C94" s="1">
         <v>11.93467564086254</v>
       </c>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1">
+      <c r="D94" s="1">
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>9.3000000000000007</v>
       </c>
@@ -2451,12 +2357,11 @@
       <c r="C95" s="1">
         <v>12.04376502098466</v>
       </c>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1">
+      <c r="D95" s="1">
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>9.4</v>
       </c>
@@ -2466,12 +2371,11 @@
       <c r="C96" s="1">
         <v>12.152854401106779</v>
       </c>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1">
+      <c r="D96" s="1">
         <v>9.4</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>9.5</v>
       </c>
@@ -2481,12 +2385,11 @@
       <c r="C97" s="1">
         <v>12.261943781228901</v>
       </c>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1">
+      <c r="D97" s="1">
         <v>9.5</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>9.6000000000000014</v>
       </c>
@@ -2496,12 +2399,11 @@
       <c r="C98" s="1">
         <v>12.37103316135102</v>
       </c>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1">
+      <c r="D98" s="1">
         <v>9.6000000000000014</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>9.7000000000000011</v>
       </c>
@@ -2511,12 +2413,11 @@
       <c r="C99" s="1">
         <v>12.48012254147314</v>
       </c>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1">
+      <c r="D99" s="1">
         <v>9.7000000000000011</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>9.8000000000000007</v>
       </c>
@@ -2526,12 +2427,11 @@
       <c r="C100" s="1">
         <v>12.589211921595259</v>
       </c>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1">
+      <c r="D100" s="1">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>9.9</v>
       </c>
@@ -2541,12 +2441,11 @@
       <c r="C101" s="1">
         <v>12.698301301717381</v>
       </c>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1">
+      <c r="D101" s="1">
         <v>9.9</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>10</v>
       </c>
@@ -2556,12 +2455,11 @@
       <c r="C102" s="1">
         <v>12.8073906818395</v>
       </c>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1">
+      <c r="D102" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>11</v>
       </c>
@@ -2571,12 +2469,11 @@
       <c r="C103" s="1">
         <v>14.09921848053828</v>
       </c>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1">
+      <c r="D103" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>12</v>
       </c>
@@ -2586,12 +2483,11 @@
       <c r="C104" s="1">
         <v>15.391046279237059</v>
       </c>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1">
+      <c r="D104" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>13</v>
       </c>
@@ -2601,12 +2497,11 @@
       <c r="C105" s="1">
         <v>16.682874077935839</v>
       </c>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1">
+      <c r="D105" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>14</v>
       </c>
@@ -2616,12 +2511,11 @@
       <c r="C106" s="1">
         <v>17.974701876634619</v>
       </c>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1">
+      <c r="D106" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>15</v>
       </c>
@@ -2631,12 +2525,11 @@
       <c r="C107" s="1">
         <v>19.266529675333398</v>
       </c>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1">
+      <c r="D107" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>16</v>
       </c>
@@ -2646,12 +2539,11 @@
       <c r="C108" s="1">
         <v>20.558357474032181</v>
       </c>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1">
+      <c r="D108" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>17</v>
       </c>
@@ -2661,12 +2553,11 @@
       <c r="C109" s="1">
         <v>21.850185272730961</v>
       </c>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1">
+      <c r="D109" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>18</v>
       </c>
@@ -2676,12 +2567,11 @@
       <c r="C110" s="1">
         <v>23.142013071429741</v>
       </c>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1">
+      <c r="D110" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>19</v>
       </c>
@@ -2691,12 +2581,11 @@
       <c r="C111" s="1">
         <v>24.43384087012852</v>
       </c>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1">
+      <c r="D111" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>20</v>
       </c>
@@ -2706,12 +2595,11 @@
       <c r="C112" s="1">
         <v>25.7256686688273</v>
       </c>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1">
+      <c r="D112" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>21</v>
       </c>
@@ -2721,12 +2609,11 @@
       <c r="C113" s="1">
         <v>26.99352217705583</v>
       </c>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1">
+      <c r="D113" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>22</v>
       </c>
@@ -2736,12 +2623,11 @@
       <c r="C114" s="1">
         <v>28.26137568528436</v>
       </c>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1">
+      <c r="D114" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>23</v>
       </c>
@@ -2751,12 +2637,11 @@
       <c r="C115" s="1">
         <v>29.52922919351289</v>
       </c>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1">
+      <c r="D115" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>24</v>
       </c>
@@ -2766,12 +2651,11 @@
       <c r="C116" s="1">
         <v>30.79708270174142</v>
       </c>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1">
+      <c r="D116" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>25</v>
       </c>
@@ -2781,12 +2665,11 @@
       <c r="C117" s="1">
         <v>32.06493620996995</v>
       </c>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1">
+      <c r="D117" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>26</v>
       </c>
@@ -2796,12 +2679,11 @@
       <c r="C118" s="1">
         <v>33.332789718198477</v>
       </c>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1">
+      <c r="D118" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>27</v>
       </c>
@@ -2811,12 +2693,11 @@
       <c r="C119" s="1">
         <v>34.60064322642701</v>
       </c>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1">
+      <c r="D119" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>28</v>
       </c>
@@ -2826,12 +2707,11 @@
       <c r="C120" s="1">
         <v>35.868496734655537</v>
       </c>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1">
+      <c r="D120" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>29</v>
       </c>
@@ -2841,12 +2721,11 @@
       <c r="C121" s="1">
         <v>37.136350242884063</v>
       </c>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1">
+      <c r="D121" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>30</v>
       </c>
@@ -2856,12 +2735,11 @@
       <c r="C122" s="1">
         <v>38.404203751112597</v>
       </c>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1">
+      <c r="D122" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>31</v>
       </c>
@@ -2871,12 +2749,11 @@
       <c r="C123" s="1">
         <v>39.692991696788248</v>
       </c>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1">
+      <c r="D123" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>32</v>
       </c>
@@ -2886,12 +2763,11 @@
       <c r="C124" s="1">
         <v>40.981779642463898</v>
       </c>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1">
+      <c r="D124" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>33</v>
       </c>
@@ -2901,12 +2777,11 @@
       <c r="C125" s="1">
         <v>42.270567588139549</v>
       </c>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1">
+      <c r="D125" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>34</v>
       </c>
@@ -2916,12 +2791,11 @@
       <c r="C126" s="1">
         <v>43.5593555338152</v>
       </c>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1">
+      <c r="D126" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>35</v>
       </c>
@@ -2931,12 +2805,11 @@
       <c r="C127" s="1">
         <v>44.848143479490837</v>
       </c>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1">
+      <c r="D127" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>36</v>
       </c>
@@ -2946,12 +2819,11 @@
       <c r="C128" s="1">
         <v>46.136931425166487</v>
       </c>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1">
+      <c r="D128" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>37</v>
       </c>
@@ -2961,12 +2833,11 @@
       <c r="C129" s="1">
         <v>47.425719370842153</v>
       </c>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1">
+      <c r="D129" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>38</v>
       </c>
@@ -2976,12 +2847,11 @@
       <c r="C130" s="1">
         <v>48.714507316517803</v>
       </c>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1">
+      <c r="D130" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>39</v>
       </c>
@@ -2991,12 +2861,11 @@
       <c r="C131" s="1">
         <v>50.003295262193447</v>
       </c>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1">
+      <c r="D131" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>40</v>
       </c>
@@ -3006,12 +2875,11 @@
       <c r="C132" s="1">
         <v>51.292083207869098</v>
       </c>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1">
+      <c r="D132" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>41</v>
       </c>
@@ -3021,12 +2889,11 @@
       <c r="C133" s="1">
         <v>52.570849446584297</v>
       </c>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1">
+      <c r="D133" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>42</v>
       </c>
@@ -3036,12 +2903,11 @@
       <c r="C134" s="1">
         <v>53.849615685299518</v>
       </c>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1">
+      <c r="D134" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>43</v>
       </c>
@@ -3051,12 +2917,11 @@
       <c r="C135" s="1">
         <v>55.128381924014732</v>
       </c>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1">
+      <c r="D135" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>44</v>
       </c>
@@ -3066,12 +2931,11 @@
       <c r="C136" s="1">
         <v>56.407148162729939</v>
       </c>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1">
+      <c r="D136" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>45</v>
       </c>
@@ -3081,12 +2945,11 @@
       <c r="C137" s="1">
         <v>57.685914401445153</v>
       </c>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1">
+      <c r="D137" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>46</v>
       </c>
@@ -3096,12 +2959,11 @@
       <c r="C138" s="1">
         <v>58.964680640160353</v>
       </c>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1">
+      <c r="D138" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>47</v>
       </c>
@@ -3111,12 +2973,11 @@
       <c r="C139" s="1">
         <v>60.243446878875567</v>
       </c>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1">
+      <c r="D139" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>48</v>
       </c>
@@ -3126,12 +2987,11 @@
       <c r="C140" s="1">
         <v>61.522213117590773</v>
       </c>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1">
+      <c r="D140" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>49</v>
       </c>
@@ -3141,12 +3001,11 @@
       <c r="C141" s="1">
         <v>62.800979356305987</v>
       </c>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1">
+      <c r="D141" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>50</v>
       </c>
@@ -3156,12 +3015,11 @@
       <c r="C142" s="1">
         <v>64.079745595021194</v>
       </c>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1">
+      <c r="D142" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>51</v>
       </c>
@@ -3171,12 +3029,11 @@
       <c r="C143" s="1">
         <v>65.328837756306584</v>
       </c>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1">
+      <c r="D143" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>52</v>
       </c>
@@ -3186,12 +3043,11 @@
       <c r="C144" s="1">
         <v>66.577929917591973</v>
       </c>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1">
+      <c r="D144" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>53</v>
       </c>
@@ -3201,12 +3057,11 @@
       <c r="C145" s="1">
         <v>67.827022078877363</v>
       </c>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1">
+      <c r="D145" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>54</v>
       </c>
@@ -3216,12 +3071,11 @@
       <c r="C146" s="1">
         <v>69.076114240162752</v>
       </c>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1">
+      <c r="D146" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>55</v>
       </c>
@@ -3231,12 +3085,11 @@
       <c r="C147" s="1">
         <v>70.325206401448156</v>
       </c>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1">
+      <c r="D147" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>56</v>
       </c>
@@ -3246,12 +3099,11 @@
       <c r="C148" s="1">
         <v>71.574298562733546</v>
       </c>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1">
+      <c r="D148" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>57</v>
       </c>
@@ -3261,12 +3113,11 @@
       <c r="C149" s="1">
         <v>72.823390724018935</v>
       </c>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1">
+      <c r="D149" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>58</v>
       </c>
@@ -3276,12 +3127,11 @@
       <c r="C150" s="1">
         <v>74.072482885304325</v>
       </c>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1">
+      <c r="D150" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>59</v>
       </c>
@@ -3291,12 +3141,11 @@
       <c r="C151" s="1">
         <v>75.321575046589714</v>
       </c>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1">
+      <c r="D151" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>60</v>
       </c>
@@ -3306,12 +3155,11 @@
       <c r="C152" s="1">
         <v>76.570667207875104</v>
       </c>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1">
+      <c r="D152" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>61</v>
       </c>
@@ -3321,12 +3169,11 @@
       <c r="C153" s="1">
         <v>77.928138784127484</v>
       </c>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1">
+      <c r="D153" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>62</v>
       </c>
@@ -3336,12 +3183,11 @@
       <c r="C154" s="1">
         <v>79.285610360379863</v>
       </c>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1">
+      <c r="D154" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>63</v>
       </c>
@@ -3351,12 +3197,11 @@
       <c r="C155" s="1">
         <v>80.643081936632242</v>
       </c>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1">
+      <c r="D155" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>64</v>
       </c>
@@ -3366,12 +3211,11 @@
       <c r="C156" s="1">
         <v>82.000553512884622</v>
       </c>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1">
+      <c r="D156" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>65</v>
       </c>
@@ -3381,12 +3225,11 @@
       <c r="C157" s="1">
         <v>83.358025089137001</v>
       </c>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1">
+      <c r="D157" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>66</v>
       </c>
@@ -3396,12 +3239,11 @@
       <c r="C158" s="1">
         <v>84.715496665389381</v>
       </c>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1">
+      <c r="D158" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>67</v>
       </c>
@@ -3411,12 +3253,11 @@
       <c r="C159" s="1">
         <v>86.07296824164176</v>
       </c>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1">
+      <c r="D159" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>68</v>
       </c>
@@ -3426,12 +3267,11 @@
       <c r="C160" s="1">
         <v>87.43043981789414</v>
       </c>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1">
+      <c r="D160" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>69</v>
       </c>
@@ -3441,12 +3281,11 @@
       <c r="C161" s="1">
         <v>88.787911394146519</v>
       </c>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1">
+      <c r="D161" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>70</v>
       </c>
@@ -3456,12 +3295,11 @@
       <c r="C162" s="1">
         <v>90.145382970398899</v>
       </c>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1">
+      <c r="D162" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>71</v>
       </c>
@@ -3471,12 +3309,11 @@
       <c r="C163" s="1">
         <v>91.357259475637505</v>
       </c>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1">
+      <c r="D163" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>72</v>
       </c>
@@ -3486,12 +3323,11 @@
       <c r="C164" s="1">
         <v>92.569135980876112</v>
       </c>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1">
+      <c r="D164" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>73</v>
       </c>
@@ -3501,12 +3337,11 @@
       <c r="C165" s="1">
         <v>93.781012486114733</v>
       </c>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1">
+      <c r="D165" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>74</v>
       </c>
@@ -3516,12 +3351,11 @@
       <c r="C166" s="1">
         <v>94.99288899135334</v>
       </c>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1">
+      <c r="D166" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>75</v>
       </c>
@@ -3531,12 +3365,11 @@
       <c r="C167" s="1">
         <v>96.204765496591946</v>
       </c>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1">
+      <c r="D167" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>76</v>
       </c>
@@ -3546,12 +3379,11 @@
       <c r="C168" s="1">
         <v>97.416642001830553</v>
       </c>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1">
+      <c r="D168" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>77</v>
       </c>
@@ -3561,12 +3393,11 @@
       <c r="C169" s="1">
         <v>98.62851850706916</v>
       </c>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1">
+      <c r="D169" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>78</v>
       </c>
@@ -3576,12 +3407,11 @@
       <c r="C170" s="1">
         <v>99.840395012307781</v>
       </c>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1">
+      <c r="D170" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>79</v>
       </c>
@@ -3591,12 +3421,11 @@
       <c r="C171" s="1">
         <v>101.0522715175464</v>
       </c>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1">
+      <c r="D171" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>80</v>
       </c>
@@ -3606,12 +3435,11 @@
       <c r="C172" s="1">
         <v>102.26414802278499</v>
       </c>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1">
+      <c r="D172" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>81</v>
       </c>
@@ -3621,12 +3449,11 @@
       <c r="C173" s="1">
         <v>103.81223981043711</v>
       </c>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1">
+      <c r="D173" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>82</v>
       </c>
@@ -3636,12 +3463,11 @@
       <c r="C174" s="1">
         <v>105.3603315980892</v>
       </c>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1">
+      <c r="D174" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>83</v>
       </c>
@@ -3651,12 +3477,11 @@
       <c r="C175" s="1">
         <v>106.9084233857413</v>
       </c>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1">
+      <c r="D175" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>84</v>
       </c>
@@ -3666,12 +3491,11 @@
       <c r="C176" s="1">
         <v>108.4565151733934</v>
       </c>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1">
+      <c r="D176" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>85</v>
       </c>
@@ -3681,12 +3505,11 @@
       <c r="C177" s="1">
         <v>110.0046069610455</v>
       </c>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1">
+      <c r="D177" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>86</v>
       </c>
@@ -3696,12 +3519,11 @@
       <c r="C178" s="1">
         <v>111.55269874869759</v>
       </c>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1">
+      <c r="D178" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>87</v>
       </c>
@@ -3711,12 +3533,11 @@
       <c r="C179" s="1">
         <v>113.10079053634971</v>
       </c>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1">
+      <c r="D179" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>88</v>
       </c>
@@ -3726,12 +3547,11 @@
       <c r="C180" s="1">
         <v>114.6488823240018</v>
       </c>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1">
+      <c r="D180" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>89</v>
       </c>
@@ -3741,12 +3561,11 @@
       <c r="C181" s="1">
         <v>116.1969741116539</v>
       </c>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1">
+      <c r="D181" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>90</v>
       </c>
@@ -3756,12 +3575,11 @@
       <c r="C182" s="1">
         <v>117.745065899306</v>
       </c>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1">
+      <c r="D182" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>91</v>
       </c>
@@ -3771,12 +3589,11 @@
       <c r="C183" s="1">
         <v>118.93753036215</v>
       </c>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1">
+      <c r="D183" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>92</v>
       </c>
@@ -3786,12 +3603,11 @@
       <c r="C184" s="1">
         <v>120.129994824994</v>
       </c>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1">
+      <c r="D184" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>93</v>
       </c>
@@ -3801,12 +3617,11 @@
       <c r="C185" s="1">
         <v>121.322459287838</v>
       </c>
-      <c r="D185" s="1"/>
-      <c r="E185" s="1">
+      <c r="D185" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>94</v>
       </c>
@@ -3816,12 +3631,11 @@
       <c r="C186" s="1">
         <v>122.514923750682</v>
       </c>
-      <c r="D186" s="1"/>
-      <c r="E186" s="1">
+      <c r="D186" s="1">
         <v>94</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>95</v>
       </c>
@@ -3831,12 +3645,11 @@
       <c r="C187" s="1">
         <v>123.707388213526</v>
       </c>
-      <c r="D187" s="1"/>
-      <c r="E187" s="1">
+      <c r="D187" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>96</v>
       </c>
@@ -3846,12 +3659,11 @@
       <c r="C188" s="1">
         <v>124.89985267637</v>
       </c>
-      <c r="D188" s="1"/>
-      <c r="E188" s="1">
+      <c r="D188" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>97</v>
       </c>
@@ -3861,12 +3673,11 @@
       <c r="C189" s="1">
         <v>126.092317139214</v>
       </c>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1">
+      <c r="D189" s="1">
         <v>97</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>98</v>
       </c>
@@ -3876,12 +3687,11 @@
       <c r="C190" s="1">
         <v>127.284781602058</v>
       </c>
-      <c r="D190" s="1"/>
-      <c r="E190" s="1">
+      <c r="D190" s="1">
         <v>98</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>99</v>
       </c>
@@ -3891,12 +3701,11 @@
       <c r="C191" s="1">
         <v>128.477246064902</v>
       </c>
-      <c r="D191" s="1"/>
-      <c r="E191" s="1">
+      <c r="D191" s="1">
         <v>99</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>100</v>
       </c>
@@ -3906,12 +3715,11 @@
       <c r="C192" s="1">
         <v>129.66971052774599</v>
       </c>
-      <c r="D192" s="1"/>
-      <c r="E192" s="1">
+      <c r="D192" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>110</v>
       </c>
@@ -3921,12 +3729,11 @@
       <c r="C193" s="1">
         <v>142.74799699620621</v>
       </c>
-      <c r="D193" s="1"/>
-      <c r="E193" s="1">
+      <c r="D193" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>120</v>
       </c>
@@ -3936,12 +3743,11 @@
       <c r="C194" s="1">
         <v>155.8262834646664</v>
       </c>
-      <c r="D194" s="1"/>
-      <c r="E194" s="1">
+      <c r="D194" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>130</v>
       </c>
@@ -3951,12 +3757,11 @@
       <c r="C195" s="1">
         <v>168.9045699331266</v>
       </c>
-      <c r="D195" s="1"/>
-      <c r="E195" s="1">
+      <c r="D195" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>140</v>
       </c>
@@ -3966,12 +3771,11 @@
       <c r="C196" s="1">
         <v>181.98285640158679</v>
       </c>
-      <c r="D196" s="1"/>
-      <c r="E196" s="1">
+      <c r="D196" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>150</v>
       </c>
@@ -3981,12 +3785,11 @@
       <c r="C197" s="1">
         <v>195.06114287004701</v>
       </c>
-      <c r="D197" s="1"/>
-      <c r="E197" s="1">
+      <c r="D197" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>160</v>
       </c>
@@ -3996,12 +3799,11 @@
       <c r="C198" s="1">
         <v>208.1394293385072</v>
       </c>
-      <c r="D198" s="1"/>
-      <c r="E198" s="1">
+      <c r="D198" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>170</v>
       </c>
@@ -4011,12 +3813,11 @@
       <c r="C199" s="1">
         <v>221.21771580696739</v>
       </c>
-      <c r="D199" s="1"/>
-      <c r="E199" s="1">
+      <c r="D199" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>180</v>
       </c>
@@ -4026,12 +3827,11 @@
       <c r="C200" s="1">
         <v>234.29600227542761</v>
       </c>
-      <c r="D200" s="1"/>
-      <c r="E200" s="1">
+      <c r="D200" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>190</v>
       </c>
@@ -4041,12 +3841,11 @@
       <c r="C201" s="1">
         <v>247.3742887438878</v>
       </c>
-      <c r="D201" s="1"/>
-      <c r="E201" s="1">
+      <c r="D201" s="1">
         <v>190</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>200</v>
       </c>
@@ -4056,12 +3855,11 @@
       <c r="C202" s="1">
         <v>260.45257521234799</v>
       </c>
-      <c r="D202" s="1"/>
-      <c r="E202" s="1">
+      <c r="D202" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>210</v>
       </c>
@@ -4071,12 +3869,11 @@
       <c r="C203" s="1">
         <v>273.28908967036239</v>
       </c>
-      <c r="D203" s="1"/>
-      <c r="E203" s="1">
+      <c r="D203" s="1">
         <v>210</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>220</v>
       </c>
@@ -4086,12 +3883,11 @@
       <c r="C204" s="1">
         <v>286.12560412837678</v>
       </c>
-      <c r="D204" s="1"/>
-      <c r="E204" s="1">
+      <c r="D204" s="1">
         <v>220</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>230</v>
       </c>
@@ -4101,12 +3897,11 @@
       <c r="C205" s="1">
         <v>298.96211858639123</v>
       </c>
-      <c r="D205" s="1"/>
-      <c r="E205" s="1">
+      <c r="D205" s="1">
         <v>230</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>240</v>
       </c>
@@ -4116,12 +3911,11 @@
       <c r="C206" s="1">
         <v>311.79863304440562</v>
       </c>
-      <c r="D206" s="1"/>
-      <c r="E206" s="1">
+      <c r="D206" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>250</v>
       </c>
@@ -4131,12 +3925,11 @@
       <c r="C207" s="1">
         <v>324.63514750242001</v>
       </c>
-      <c r="D207" s="1"/>
-      <c r="E207" s="1">
+      <c r="D207" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>260</v>
       </c>
@@ -4146,12 +3939,11 @@
       <c r="C208" s="1">
         <v>337.4716619604344</v>
       </c>
-      <c r="D208" s="1"/>
-      <c r="E208" s="1">
+      <c r="D208" s="1">
         <v>260</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>270</v>
       </c>
@@ -4161,12 +3953,11 @@
       <c r="C209" s="1">
         <v>350.3081764184488</v>
       </c>
-      <c r="D209" s="1"/>
-      <c r="E209" s="1">
+      <c r="D209" s="1">
         <v>270</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>280</v>
       </c>
@@ -4176,12 +3967,11 @@
       <c r="C210" s="1">
         <v>363.14469087646319</v>
       </c>
-      <c r="D210" s="1"/>
-      <c r="E210" s="1">
+      <c r="D210" s="1">
         <v>280</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>290</v>
       </c>
@@ -4191,12 +3981,11 @@
       <c r="C211" s="1">
         <v>375.98120533447758</v>
       </c>
-      <c r="D211" s="1"/>
-      <c r="E211" s="1">
+      <c r="D211" s="1">
         <v>290</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>300</v>
       </c>
@@ -4206,12 +3995,11 @@
       <c r="C212" s="1">
         <v>388.81771979249203</v>
       </c>
-      <c r="D212" s="1"/>
-      <c r="E212" s="1">
+      <c r="D212" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>310</v>
       </c>
@@ -4221,12 +4009,11 @@
       <c r="C213" s="1">
         <v>401.48135492323468</v>
       </c>
-      <c r="D213" s="1"/>
-      <c r="E213" s="1">
+      <c r="D213" s="1">
         <v>310</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>320</v>
       </c>
@@ -4236,12 +4023,11 @@
       <c r="C214" s="1">
         <v>414.14499005397738</v>
       </c>
-      <c r="D214" s="1"/>
-      <c r="E214" s="1">
+      <c r="D214" s="1">
         <v>320</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>330</v>
       </c>
@@ -4251,12 +4037,11 @@
       <c r="C215" s="1">
         <v>426.80862518472009</v>
       </c>
-      <c r="D215" s="1"/>
-      <c r="E215" s="1">
+      <c r="D215" s="1">
         <v>330</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>340</v>
       </c>
@@ -4266,12 +4051,11 @@
       <c r="C216" s="1">
         <v>439.47226031546279</v>
       </c>
-      <c r="D216" s="1"/>
-      <c r="E216" s="1">
+      <c r="D216" s="1">
         <v>340</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>350</v>
       </c>
@@ -4281,12 +4065,11 @@
       <c r="C217" s="1">
         <v>452.1358954462055</v>
       </c>
-      <c r="D217" s="1"/>
-      <c r="E217" s="1">
+      <c r="D217" s="1">
         <v>350</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>360</v>
       </c>
@@ -4296,12 +4079,11 @@
       <c r="C218" s="1">
         <v>464.7995305769482</v>
       </c>
-      <c r="D218" s="1"/>
-      <c r="E218" s="1">
+      <c r="D218" s="1">
         <v>360</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>370</v>
       </c>
@@ -4311,12 +4093,11 @@
       <c r="C219" s="1">
         <v>477.46316570769091</v>
       </c>
-      <c r="D219" s="1"/>
-      <c r="E219" s="1">
+      <c r="D219" s="1">
         <v>370</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>380</v>
       </c>
@@ -4326,12 +4107,11 @@
       <c r="C220" s="1">
         <v>490.12680083843361</v>
       </c>
-      <c r="D220" s="1"/>
-      <c r="E220" s="1">
+      <c r="D220" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>390</v>
       </c>
@@ -4341,12 +4121,11 @@
       <c r="C221" s="1">
         <v>502.79043596917631</v>
       </c>
-      <c r="D221" s="1"/>
-      <c r="E221" s="1">
+      <c r="D221" s="1">
         <v>390</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>400</v>
       </c>
@@ -4356,12 +4135,11 @@
       <c r="C222" s="1">
         <v>515.45407109991902</v>
       </c>
-      <c r="D222" s="1"/>
-      <c r="E222" s="1">
+      <c r="D222" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>410</v>
       </c>
@@ -4371,12 +4149,11 @@
       <c r="C223" s="1">
         <v>527.82885539763015</v>
       </c>
-      <c r="D223" s="1"/>
-      <c r="E223" s="1">
+      <c r="D223" s="1">
         <v>410</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>420</v>
       </c>
@@ -4386,12 +4163,11 @@
       <c r="C224" s="1">
         <v>540.20363969534117</v>
       </c>
-      <c r="D224" s="1"/>
-      <c r="E224" s="1">
+      <c r="D224" s="1">
         <v>420</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>430</v>
       </c>
@@ -4401,12 +4177,11 @@
       <c r="C225" s="1">
         <v>552.5784239930523</v>
       </c>
-      <c r="D225" s="1"/>
-      <c r="E225" s="1">
+      <c r="D225" s="1">
         <v>430</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>440</v>
       </c>
@@ -4416,12 +4191,11 @@
       <c r="C226" s="1">
         <v>564.95320829076343</v>
       </c>
-      <c r="D226" s="1"/>
-      <c r="E226" s="1">
+      <c r="D226" s="1">
         <v>440</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>450</v>
       </c>
@@ -4431,12 +4205,11 @@
       <c r="C227" s="1">
         <v>577.32799258847444</v>
       </c>
-      <c r="D227" s="1"/>
-      <c r="E227" s="1">
+      <c r="D227" s="1">
         <v>450</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>460</v>
       </c>
@@ -4446,12 +4219,11 @@
       <c r="C228" s="1">
         <v>589.70277688618557</v>
       </c>
-      <c r="D228" s="1"/>
-      <c r="E228" s="1">
+      <c r="D228" s="1">
         <v>460</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>470</v>
       </c>
@@ -4461,12 +4233,11 @@
       <c r="C229" s="1">
         <v>602.07756118389671</v>
       </c>
-      <c r="D229" s="1"/>
-      <c r="E229" s="1">
+      <c r="D229" s="1">
         <v>470</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>480</v>
       </c>
@@ -4476,12 +4247,11 @@
       <c r="C230" s="1">
         <v>614.45234548160784</v>
       </c>
-      <c r="D230" s="1"/>
-      <c r="E230" s="1">
+      <c r="D230" s="1">
         <v>480</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>490</v>
       </c>
@@ -4491,12 +4261,11 @@
       <c r="C231" s="1">
         <v>626.82712977931885</v>
       </c>
-      <c r="D231" s="1"/>
-      <c r="E231" s="1">
+      <c r="D231" s="1">
         <v>490</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>500</v>
       </c>
@@ -4506,12 +4275,11 @@
       <c r="C232" s="1">
         <v>639.20191407702998</v>
       </c>
-      <c r="D232" s="1"/>
-      <c r="E232" s="1">
+      <c r="D232" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>510</v>
       </c>
@@ -4521,12 +4289,11 @@
       <c r="C233" s="1">
         <v>652.80362391415019</v>
       </c>
-      <c r="D233" s="1"/>
-      <c r="E233" s="1">
+      <c r="D233" s="1">
         <v>510</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>520</v>
       </c>
@@ -4536,12 +4303,11 @@
       <c r="C234" s="1">
         <v>666.4053337512704</v>
       </c>
-      <c r="D234" s="1"/>
-      <c r="E234" s="1">
+      <c r="D234" s="1">
         <v>520</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>530</v>
       </c>
@@ -4551,12 +4317,11 @@
       <c r="C235" s="1">
         <v>680.00704358839062</v>
       </c>
-      <c r="D235" s="1"/>
-      <c r="E235" s="1">
+      <c r="D235" s="1">
         <v>530</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>540</v>
       </c>
@@ -4566,12 +4331,11 @@
       <c r="C236" s="1">
         <v>693.60875342551083</v>
       </c>
-      <c r="D236" s="1"/>
-      <c r="E236" s="1">
+      <c r="D236" s="1">
         <v>540</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>550</v>
       </c>
@@ -4581,12 +4345,11 @@
       <c r="C237" s="1">
         <v>707.21046326263104</v>
       </c>
-      <c r="D237" s="1"/>
-      <c r="E237" s="1">
+      <c r="D237" s="1">
         <v>550</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>560</v>
       </c>
@@ -4596,12 +4359,11 @@
       <c r="C238" s="1">
         <v>720.81217309975113</v>
       </c>
-      <c r="D238" s="1"/>
-      <c r="E238" s="1">
+      <c r="D238" s="1">
         <v>560</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>570</v>
       </c>
@@ -4611,12 +4373,11 @@
       <c r="C239" s="1">
         <v>734.41388293687135</v>
       </c>
-      <c r="D239" s="1"/>
-      <c r="E239" s="1">
+      <c r="D239" s="1">
         <v>570</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>580</v>
       </c>
@@ -4626,12 +4387,11 @@
       <c r="C240" s="1">
         <v>748.01559277399156</v>
       </c>
-      <c r="D240" s="1"/>
-      <c r="E240" s="1">
+      <c r="D240" s="1">
         <v>580</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>590</v>
       </c>
@@ -4641,12 +4401,11 @@
       <c r="C241" s="1">
         <v>761.61730261111177</v>
       </c>
-      <c r="D241" s="1"/>
-      <c r="E241" s="1">
+      <c r="D241" s="1">
         <v>590</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>600</v>
       </c>
@@ -4656,12 +4415,11 @@
       <c r="C242" s="1">
         <v>775.21901244823198</v>
       </c>
-      <c r="D242" s="1"/>
-      <c r="E242" s="1">
+      <c r="D242" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>610</v>
       </c>
@@ -4671,12 +4429,11 @@
       <c r="C243" s="1">
         <v>786.95440759898895</v>
       </c>
-      <c r="D243" s="1"/>
-      <c r="E243" s="1">
+      <c r="D243" s="1">
         <v>610</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>620</v>
       </c>
@@ -4686,12 +4443,11 @@
       <c r="C244" s="1">
         <v>798.68980274974604</v>
       </c>
-      <c r="D244" s="1"/>
-      <c r="E244" s="1">
+      <c r="D244" s="1">
         <v>620</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>630</v>
       </c>
@@ -4701,12 +4457,11 @@
       <c r="C245" s="1">
         <v>810.42519790050301</v>
       </c>
-      <c r="D245" s="1"/>
-      <c r="E245" s="1">
+      <c r="D245" s="1">
         <v>630</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>640</v>
       </c>
@@ -4716,12 +4471,11 @@
       <c r="C246" s="1">
         <v>822.16059305125998</v>
       </c>
-      <c r="D246" s="1"/>
-      <c r="E246" s="1">
+      <c r="D246" s="1">
         <v>640</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>650</v>
       </c>
@@ -4731,12 +4485,11 @@
       <c r="C247" s="1">
         <v>833.89598820201695</v>
       </c>
-      <c r="D247" s="1"/>
-      <c r="E247" s="1">
+      <c r="D247" s="1">
         <v>650</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>660</v>
       </c>
@@ -4746,12 +4499,11 @@
       <c r="C248" s="1">
         <v>845.63138335277404</v>
       </c>
-      <c r="D248" s="1"/>
-      <c r="E248" s="1">
+      <c r="D248" s="1">
         <v>660</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>670</v>
       </c>
@@ -4761,12 +4513,11 @@
       <c r="C249" s="1">
         <v>857.36677850353101</v>
       </c>
-      <c r="D249" s="1"/>
-      <c r="E249" s="1">
+      <c r="D249" s="1">
         <v>670</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>680</v>
       </c>
@@ -4776,12 +4527,11 @@
       <c r="C250" s="1">
         <v>869.10217365428798</v>
       </c>
-      <c r="D250" s="1"/>
-      <c r="E250" s="1">
+      <c r="D250" s="1">
         <v>680</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>690</v>
       </c>
@@ -4791,12 +4541,11 @@
       <c r="C251" s="1">
         <v>880.83756880504507</v>
       </c>
-      <c r="D251" s="1"/>
-      <c r="E251" s="1">
+      <c r="D251" s="1">
         <v>690</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>700</v>
       </c>
@@ -4806,12 +4555,11 @@
       <c r="C252" s="1">
         <v>892.57296395580204</v>
       </c>
-      <c r="D252" s="1"/>
-      <c r="E252" s="1">
+      <c r="D252" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>710</v>
       </c>
@@ -4821,12 +4569,11 @@
       <c r="C253" s="1">
         <v>906.85402912701988</v>
       </c>
-      <c r="D253" s="1"/>
-      <c r="E253" s="1">
+      <c r="D253" s="1">
         <v>710</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>720</v>
       </c>
@@ -4836,12 +4583,11 @@
       <c r="C254" s="1">
         <v>921.13509429823762</v>
       </c>
-      <c r="D254" s="1"/>
-      <c r="E254" s="1">
+      <c r="D254" s="1">
         <v>720</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>730</v>
       </c>
@@ -4851,12 +4597,11 @@
       <c r="C255" s="1">
         <v>935.41615946945535</v>
       </c>
-      <c r="D255" s="1"/>
-      <c r="E255" s="1">
+      <c r="D255" s="1">
         <v>730</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>740</v>
       </c>
@@ -4866,12 +4611,11 @@
       <c r="C256" s="1">
         <v>949.6972246406732</v>
       </c>
-      <c r="D256" s="1"/>
-      <c r="E256" s="1">
+      <c r="D256" s="1">
         <v>740</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>750</v>
       </c>
@@ -4881,12 +4625,11 @@
       <c r="C257" s="1">
         <v>963.97828981189105</v>
       </c>
-      <c r="D257" s="1"/>
-      <c r="E257" s="1">
+      <c r="D257" s="1">
         <v>750</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>760</v>
       </c>
@@ -4896,12 +4639,11 @@
       <c r="C258" s="1">
         <v>978.25935498310878</v>
       </c>
-      <c r="D258" s="1"/>
-      <c r="E258" s="1">
+      <c r="D258" s="1">
         <v>760</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>770</v>
       </c>
@@ -4911,12 +4653,11 @@
       <c r="C259" s="1">
         <v>992.54042015432651</v>
       </c>
-      <c r="D259" s="1"/>
-      <c r="E259" s="1">
+      <c r="D259" s="1">
         <v>770</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>780</v>
       </c>
@@ -4926,12 +4667,11 @@
       <c r="C260" s="1">
         <v>1006.821485325544</v>
       </c>
-      <c r="D260" s="1"/>
-      <c r="E260" s="1">
+      <c r="D260" s="1">
         <v>780</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>790</v>
       </c>
@@ -4941,12 +4681,11 @@
       <c r="C261" s="1">
         <v>1021.102550496762</v>
       </c>
-      <c r="D261" s="1"/>
-      <c r="E261" s="1">
+      <c r="D261" s="1">
         <v>790</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>800</v>
       </c>
@@ -4956,12 +4695,11 @@
       <c r="C262" s="1">
         <v>1035.3836156679799</v>
       </c>
-      <c r="D262" s="1"/>
-      <c r="E262" s="1">
+      <c r="D262" s="1">
         <v>800</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>810</v>
       </c>
@@ -4971,12 +4709,11 @@
       <c r="C263" s="1">
         <v>1047.5713251031921</v>
       </c>
-      <c r="D263" s="1"/>
-      <c r="E263" s="1">
+      <c r="D263" s="1">
         <v>810</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>820</v>
       </c>
@@ -4986,12 +4723,11 @@
       <c r="C264" s="1">
         <v>1059.759034538404</v>
       </c>
-      <c r="D264" s="1"/>
-      <c r="E264" s="1">
+      <c r="D264" s="1">
         <v>820</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>830</v>
       </c>
@@ -5001,12 +4737,11 @@
       <c r="C265" s="1">
         <v>1071.9467439736161</v>
       </c>
-      <c r="D265" s="1"/>
-      <c r="E265" s="1">
+      <c r="D265" s="1">
         <v>830</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>840</v>
       </c>
@@ -5016,12 +4751,11 @@
       <c r="C266" s="1">
         <v>1084.134453408828</v>
       </c>
-      <c r="D266" s="1"/>
-      <c r="E266" s="1">
+      <c r="D266" s="1">
         <v>840</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>850</v>
       </c>
@@ -5031,12 +4765,11 @@
       <c r="C267" s="1">
         <v>1096.3221628440399</v>
       </c>
-      <c r="D267" s="1"/>
-      <c r="E267" s="1">
+      <c r="D267" s="1">
         <v>850</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>860</v>
       </c>
@@ -5046,12 +4779,11 @@
       <c r="C268" s="1">
         <v>1108.509872279252</v>
       </c>
-      <c r="D268" s="1"/>
-      <c r="E268" s="1">
+      <c r="D268" s="1">
         <v>860</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>870</v>
       </c>
@@ -5061,12 +4793,11 @@
       <c r="C269" s="1">
         <v>1120.6975817144639</v>
       </c>
-      <c r="D269" s="1"/>
-      <c r="E269" s="1">
+      <c r="D269" s="1">
         <v>870</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>880</v>
       </c>
@@ -5076,12 +4807,11 @@
       <c r="C270" s="1">
         <v>1132.885291149676</v>
       </c>
-      <c r="D270" s="1"/>
-      <c r="E270" s="1">
+      <c r="D270" s="1">
         <v>880</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>890</v>
       </c>
@@ -5091,12 +4821,11 @@
       <c r="C271" s="1">
         <v>1145.073000584888</v>
       </c>
-      <c r="D271" s="1"/>
-      <c r="E271" s="1">
+      <c r="D271" s="1">
         <v>890</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>900</v>
       </c>
@@ -5106,12 +4835,11 @@
       <c r="C272" s="1">
         <v>1157.2607100201001</v>
       </c>
-      <c r="D272" s="1"/>
-      <c r="E272" s="1">
+      <c r="D272" s="1">
         <v>900</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>910</v>
       </c>
@@ -5121,12 +4849,11 @@
       <c r="C273" s="1">
         <v>1169.926880580641</v>
       </c>
-      <c r="D273" s="1"/>
-      <c r="E273" s="1">
+      <c r="D273" s="1">
         <v>910</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>920</v>
       </c>
@@ -5136,12 +4863,11 @@
       <c r="C274" s="1">
         <v>1182.5930511411821</v>
       </c>
-      <c r="D274" s="1"/>
-      <c r="E274" s="1">
+      <c r="D274" s="1">
         <v>920</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>930</v>
       </c>
@@ -5151,12 +4877,11 @@
       <c r="C275" s="1">
         <v>1195.2592217017229</v>
       </c>
-      <c r="D275" s="1"/>
-      <c r="E275" s="1">
+      <c r="D275" s="1">
         <v>930</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>940</v>
       </c>
@@ -5166,12 +4891,11 @@
       <c r="C276" s="1">
         <v>1207.925392262264</v>
       </c>
-      <c r="D276" s="1"/>
-      <c r="E276" s="1">
+      <c r="D276" s="1">
         <v>940</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>950</v>
       </c>
@@ -5181,12 +4905,11 @@
       <c r="C277" s="1">
         <v>1220.5915628228049</v>
       </c>
-      <c r="D277" s="1"/>
-      <c r="E277" s="1">
+      <c r="D277" s="1">
         <v>950</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>960</v>
       </c>
@@ -5196,12 +4919,11 @@
       <c r="C278" s="1">
         <v>1233.257733383346</v>
       </c>
-      <c r="D278" s="1"/>
-      <c r="E278" s="1">
+      <c r="D278" s="1">
         <v>960</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>970</v>
       </c>
@@ -5211,12 +4933,11 @@
       <c r="C279" s="1">
         <v>1245.9239039438869</v>
       </c>
-      <c r="D279" s="1"/>
-      <c r="E279" s="1">
+      <c r="D279" s="1">
         <v>970</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>980</v>
       </c>
@@ -5226,12 +4947,11 @@
       <c r="C280" s="1">
         <v>1258.590074504428</v>
       </c>
-      <c r="D280" s="1"/>
-      <c r="E280" s="1">
+      <c r="D280" s="1">
         <v>980</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>990</v>
       </c>
@@ -5241,12 +4961,11 @@
       <c r="C281" s="1">
         <v>1271.2562450649691</v>
       </c>
-      <c r="D281" s="1"/>
-      <c r="E281" s="1">
+      <c r="D281" s="1">
         <v>990</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="4">
         <v>1000</v>
       </c>
@@ -5256,12 +4975,11 @@
       <c r="C282" s="3">
         <v>1283.92241562551</v>
       </c>
-      <c r="D282" s="3"/>
-      <c r="E282" s="3">
+      <c r="D282" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="4">
         <v>1100</v>
       </c>
@@ -5271,12 +4989,11 @@
       <c r="C283" s="3">
         <v>1413.4262864036509</v>
       </c>
-      <c r="D283" s="3"/>
-      <c r="E283" s="3">
+      <c r="D283" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="4">
         <v>1200</v>
       </c>
@@ -5286,12 +5003,11 @@
       <c r="C284" s="3">
         <v>1542.9301571817921</v>
       </c>
-      <c r="D284" s="3"/>
-      <c r="E284" s="3">
+      <c r="D284" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="4">
         <v>1300</v>
       </c>
@@ -5301,12 +5017,11 @@
       <c r="C285" s="3">
         <v>1672.434027959933</v>
       </c>
-      <c r="D285" s="3"/>
-      <c r="E285" s="3">
+      <c r="D285" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="4">
         <v>1400</v>
       </c>
@@ -5316,12 +5031,11 @@
       <c r="C286" s="3">
         <v>1801.937898738074</v>
       </c>
-      <c r="D286" s="3"/>
-      <c r="E286" s="3">
+      <c r="D286" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="4">
         <v>1500</v>
       </c>
@@ -5331,12 +5045,11 @@
       <c r="C287" s="3">
         <v>1931.4417695162149</v>
       </c>
-      <c r="D287" s="3"/>
-      <c r="E287" s="3">
+      <c r="D287" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="4">
         <v>1600</v>
       </c>
@@ -5346,12 +5059,11 @@
       <c r="C288" s="3">
         <v>2060.9456402943561</v>
       </c>
-      <c r="D288" s="3"/>
-      <c r="E288" s="3">
+      <c r="D288" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="4">
         <v>1700</v>
       </c>
@@ -5361,12 +5073,11 @@
       <c r="C289" s="3">
         <v>2190.449511072497</v>
       </c>
-      <c r="D289" s="3"/>
-      <c r="E289" s="3">
+      <c r="D289" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="4">
         <v>1800</v>
       </c>
@@ -5376,12 +5087,11 @@
       <c r="C290" s="3">
         <v>2319.9533818506379</v>
       </c>
-      <c r="D290" s="3"/>
-      <c r="E290" s="3">
+      <c r="D290" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="4">
         <v>1900</v>
       </c>
@@ -5391,12 +5101,11 @@
       <c r="C291" s="3">
         <v>2449.4572526287789</v>
       </c>
-      <c r="D291" s="3"/>
-      <c r="E291" s="3">
+      <c r="D291" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="4">
         <v>2000</v>
       </c>
@@ -5406,12 +5115,11 @@
       <c r="C292" s="3">
         <v>2578.9611234069198</v>
       </c>
-      <c r="D292" s="3"/>
-      <c r="E292" s="3">
+      <c r="D292" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="4">
         <v>2100</v>
       </c>
@@ -5421,12 +5129,11 @@
       <c r="C293" s="3">
         <v>2708.9240676720592</v>
       </c>
-      <c r="D293" s="3"/>
-      <c r="E293" s="3">
+      <c r="D293" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="4">
         <v>2200</v>
       </c>
@@ -5436,12 +5143,11 @@
       <c r="C294" s="3">
         <v>2838.8870119371982</v>
       </c>
-      <c r="D294" s="3"/>
-      <c r="E294" s="3">
+      <c r="D294" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="4">
         <v>2300</v>
       </c>
@@ -5451,12 +5157,11 @@
       <c r="C295" s="3">
         <v>2968.8499562023371</v>
       </c>
-      <c r="D295" s="3"/>
-      <c r="E295" s="3">
+      <c r="D295" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="4">
         <v>2400</v>
       </c>
@@ -5466,12 +5171,11 @@
       <c r="C296" s="3">
         <v>3098.8129004674761</v>
       </c>
-      <c r="D296" s="3"/>
-      <c r="E296" s="3">
+      <c r="D296" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="4">
         <v>2500</v>
       </c>
@@ -5481,12 +5185,11 @@
       <c r="C297" s="3">
         <v>3228.775844732615</v>
       </c>
-      <c r="D297" s="3"/>
-      <c r="E297" s="3">
+      <c r="D297" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="4">
         <v>2600</v>
       </c>
@@ -5496,12 +5199,11 @@
       <c r="C298" s="3">
         <v>3358.738788997754</v>
       </c>
-      <c r="D298" s="3"/>
-      <c r="E298" s="3">
+      <c r="D298" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="4">
         <v>2700</v>
       </c>
@@ -5511,12 +5213,11 @@
       <c r="C299" s="3">
         <v>3488.701733262893</v>
       </c>
-      <c r="D299" s="3"/>
-      <c r="E299" s="3">
+      <c r="D299" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="4">
         <v>2800</v>
       </c>
@@ -5526,12 +5227,11 @@
       <c r="C300" s="3">
         <v>3618.6646775280319</v>
       </c>
-      <c r="D300" s="3"/>
-      <c r="E300" s="3">
+      <c r="D300" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="4">
         <v>2900</v>
       </c>
@@ -5541,12 +5241,11 @@
       <c r="C301" s="3">
         <v>3748.6276217931709</v>
       </c>
-      <c r="D301" s="3"/>
-      <c r="E301" s="3">
+      <c r="D301" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="4">
         <v>3000</v>
       </c>
@@ -5556,12 +5255,11 @@
       <c r="C302" s="3">
         <v>3878.5905660583098</v>
       </c>
-      <c r="D302" s="3"/>
-      <c r="E302" s="3">
+      <c r="D302" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="4">
         <v>3100</v>
       </c>
@@ -5571,12 +5269,11 @@
       <c r="C303" s="3">
         <v>4001.1137026290521</v>
       </c>
-      <c r="D303" s="3"/>
-      <c r="E303" s="3">
+      <c r="D303" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="4">
         <v>3200</v>
       </c>
@@ -5586,12 +5283,11 @@
       <c r="C304" s="3">
         <v>4123.6368391997939</v>
       </c>
-      <c r="D304" s="3"/>
-      <c r="E304" s="3">
+      <c r="D304" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="4">
         <v>3300</v>
       </c>
@@ -5601,12 +5297,11 @@
       <c r="C305" s="3">
         <v>4246.1599757705362</v>
       </c>
-      <c r="D305" s="3"/>
-      <c r="E305" s="3">
+      <c r="D305" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="4">
         <v>3400</v>
       </c>
@@ -5616,12 +5311,11 @@
       <c r="C306" s="3">
         <v>4368.6831123412776</v>
       </c>
-      <c r="D306" s="3"/>
-      <c r="E306" s="3">
+      <c r="D306" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="4">
         <v>3500</v>
       </c>
@@ -5631,12 +5325,11 @@
       <c r="C307" s="3">
         <v>4491.2062489120199</v>
       </c>
-      <c r="D307" s="3"/>
-      <c r="E307" s="3">
+      <c r="D307" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="4">
         <v>3600</v>
       </c>
@@ -5646,12 +5339,11 @@
       <c r="C308" s="3">
         <v>4613.7293854827622</v>
       </c>
-      <c r="D308" s="3"/>
-      <c r="E308" s="3">
+      <c r="D308" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="4">
         <v>3700</v>
       </c>
@@ -5661,12 +5353,11 @@
       <c r="C309" s="3">
         <v>4736.2525220535044</v>
       </c>
-      <c r="D309" s="3"/>
-      <c r="E309" s="3">
+      <c r="D309" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="4">
         <v>3800</v>
       </c>
@@ -5676,12 +5367,11 @@
       <c r="C310" s="3">
         <v>4858.7756586242467</v>
       </c>
-      <c r="D310" s="3"/>
-      <c r="E310" s="3">
+      <c r="D310" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="4">
         <v>3900</v>
       </c>
@@ -5691,12 +5381,11 @@
       <c r="C311" s="3">
         <v>4981.2987951949881</v>
       </c>
-      <c r="D311" s="3"/>
-      <c r="E311" s="3">
+      <c r="D311" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="4">
         <v>4000</v>
       </c>
@@ -5706,12 +5395,11 @@
       <c r="C312" s="3">
         <v>5103.8219317657304</v>
       </c>
-      <c r="D312" s="3"/>
-      <c r="E312" s="3">
+      <c r="D312" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="4">
         <v>4100</v>
       </c>
@@ -5721,12 +5409,11 @@
       <c r="C313" s="3">
         <v>5240.5982249910776</v>
       </c>
-      <c r="D313" s="3"/>
-      <c r="E313" s="3">
+      <c r="D313" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="4">
         <v>4200</v>
       </c>
@@ -5736,12 +5423,11 @@
       <c r="C314" s="3">
         <v>5377.3745182164266</v>
       </c>
-      <c r="D314" s="3"/>
-      <c r="E314" s="3">
+      <c r="D314" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="4">
         <v>4300</v>
       </c>
@@ -5751,12 +5437,11 @@
       <c r="C315" s="3">
         <v>5514.1508114417738</v>
       </c>
-      <c r="D315" s="3"/>
-      <c r="E315" s="3">
+      <c r="D315" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="4">
         <v>4400</v>
       </c>
@@ -5766,12 +5451,11 @@
       <c r="C316" s="3">
         <v>5650.927104667122</v>
       </c>
-      <c r="D316" s="3"/>
-      <c r="E316" s="3">
+      <c r="D316" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="4">
         <v>4500</v>
       </c>
@@ -5781,12 +5465,11 @@
       <c r="C317" s="3">
         <v>5787.7033978924701</v>
       </c>
-      <c r="D317" s="3"/>
-      <c r="E317" s="3">
+      <c r="D317" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="4">
         <v>4600</v>
       </c>
@@ -5796,12 +5479,11 @@
       <c r="C318" s="3">
         <v>5924.4796911178182</v>
       </c>
-      <c r="D318" s="3"/>
-      <c r="E318" s="3">
+      <c r="D318" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="4">
         <v>4700</v>
       </c>
@@ -5811,12 +5493,11 @@
       <c r="C319" s="3">
         <v>6061.2559843431663</v>
       </c>
-      <c r="D319" s="3"/>
-      <c r="E319" s="3">
+      <c r="D319" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="4">
         <v>4800</v>
       </c>
@@ -5826,12 +5507,11 @@
       <c r="C320" s="3">
         <v>6198.0322775685136</v>
       </c>
-      <c r="D320" s="3"/>
-      <c r="E320" s="3">
+      <c r="D320" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="4">
         <v>4900</v>
       </c>
@@ -5841,12 +5521,11 @@
       <c r="C321" s="3">
         <v>6334.8085707938617</v>
       </c>
-      <c r="D321" s="3"/>
-      <c r="E321" s="3">
+      <c r="D321" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="4">
         <v>5000</v>
       </c>
@@ -5856,12 +5535,11 @@
       <c r="C322" s="3">
         <v>6471.5848640192098</v>
       </c>
-      <c r="D322" s="3"/>
-      <c r="E322" s="3">
+      <c r="D322" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="4">
         <v>5100</v>
       </c>
@@ -5871,12 +5549,11 @@
       <c r="C323" s="3">
         <v>6592.0175209378458</v>
       </c>
-      <c r="D323" s="3"/>
-      <c r="E323" s="3">
+      <c r="D323" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="4">
         <v>5200</v>
       </c>
@@ -5886,12 +5563,11 @@
       <c r="C324" s="3">
         <v>6712.4501778564818</v>
       </c>
-      <c r="D324" s="3"/>
-      <c r="E324" s="3">
+      <c r="D324" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="4">
         <v>5300</v>
       </c>
@@ -5901,12 +5577,11 @@
       <c r="C325" s="3">
         <v>6832.8828347751178</v>
       </c>
-      <c r="D325" s="3"/>
-      <c r="E325" s="3">
+      <c r="D325" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="4">
         <v>5400</v>
       </c>
@@ -5916,12 +5591,11 @@
       <c r="C326" s="3">
         <v>6953.3154916937538</v>
       </c>
-      <c r="D326" s="3"/>
-      <c r="E326" s="3">
+      <c r="D326" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="4">
         <v>5500</v>
       </c>
@@ -5931,12 +5605,11 @@
       <c r="C327" s="3">
         <v>7073.7481486123897</v>
       </c>
-      <c r="D327" s="3"/>
-      <c r="E327" s="3">
+      <c r="D327" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="4">
         <v>5600</v>
       </c>
@@ -5946,12 +5619,11 @@
       <c r="C328" s="3">
         <v>7194.1808055310257</v>
       </c>
-      <c r="D328" s="3"/>
-      <c r="E328" s="3">
+      <c r="D328" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="4">
         <v>5700</v>
       </c>
@@ -5961,12 +5633,11 @@
       <c r="C329" s="3">
         <v>7314.6134624496617</v>
       </c>
-      <c r="D329" s="3"/>
-      <c r="E329" s="3">
+      <c r="D329" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="4">
         <v>5800</v>
       </c>
@@ -5976,12 +5647,11 @@
       <c r="C330" s="3">
         <v>7435.0461193682977</v>
       </c>
-      <c r="D330" s="3"/>
-      <c r="E330" s="3">
+      <c r="D330" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="4">
         <v>5900</v>
       </c>
@@ -5991,12 +5661,11 @@
       <c r="C331" s="3">
         <v>7555.4787762869337</v>
       </c>
-      <c r="D331" s="3"/>
-      <c r="E331" s="3">
+      <c r="D331" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="4">
         <v>6000</v>
       </c>
@@ -6006,12 +5675,11 @@
       <c r="C332" s="3">
         <v>7675.9114332055697</v>
       </c>
-      <c r="D332" s="3"/>
-      <c r="E332" s="3">
+      <c r="D332" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="4">
         <v>6100</v>
       </c>
@@ -6021,12 +5689,11 @@
       <c r="C333" s="3">
         <v>7812.0147326941687</v>
       </c>
-      <c r="D333" s="3"/>
-      <c r="E333" s="3">
+      <c r="D333" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="4">
         <v>6200</v>
       </c>
@@ -6036,12 +5703,11 @@
       <c r="C334" s="3">
         <v>7948.1180321827678</v>
       </c>
-      <c r="D334" s="3"/>
-      <c r="E334" s="3">
+      <c r="D334" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="4">
         <v>6300</v>
       </c>
@@ -6051,12 +5717,11 @@
       <c r="C335" s="3">
         <v>8084.2213316713669</v>
       </c>
-      <c r="D335" s="3"/>
-      <c r="E335" s="3">
+      <c r="D335" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="4">
         <v>6400</v>
       </c>
@@ -6066,12 +5731,11 @@
       <c r="C336" s="3">
         <v>8220.3246311599651</v>
       </c>
-      <c r="D336" s="3"/>
-      <c r="E336" s="3">
+      <c r="D336" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="4">
         <v>6500</v>
       </c>
@@ -6081,12 +5745,11 @@
       <c r="C337" s="3">
         <v>8356.4279306485641</v>
       </c>
-      <c r="D337" s="3"/>
-      <c r="E337" s="3">
+      <c r="D337" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="4">
         <v>6600</v>
       </c>
@@ -6096,12 +5759,11 @@
       <c r="C338" s="3">
         <v>8492.5312301371632</v>
       </c>
-      <c r="D338" s="3"/>
-      <c r="E338" s="3">
+      <c r="D338" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="4">
         <v>6700</v>
       </c>
@@ -6111,12 +5773,11 @@
       <c r="C339" s="3">
         <v>8628.6345296257623</v>
       </c>
-      <c r="D339" s="3"/>
-      <c r="E339" s="3">
+      <c r="D339" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="4">
         <v>6800</v>
       </c>
@@ -6126,12 +5787,11 @@
       <c r="C340" s="3">
         <v>8764.7378291143614</v>
       </c>
-      <c r="D340" s="3"/>
-      <c r="E340" s="3">
+      <c r="D340" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="4">
         <v>6900</v>
       </c>
@@ -6141,12 +5801,11 @@
       <c r="C341" s="3">
         <v>8900.8411286029605</v>
       </c>
-      <c r="D341" s="3"/>
-      <c r="E341" s="3">
+      <c r="D341" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="4">
         <v>7000</v>
       </c>
@@ -6156,12 +5815,11 @@
       <c r="C342" s="3">
         <v>9036.9444280915595</v>
       </c>
-      <c r="D342" s="3"/>
-      <c r="E342" s="3">
+      <c r="D342" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="4">
         <v>7100</v>
       </c>
@@ -6171,12 +5829,11 @@
       <c r="C343" s="3">
         <v>9173.7472052612829</v>
       </c>
-      <c r="D343" s="3"/>
-      <c r="E343" s="3">
+      <c r="D343" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="4">
         <v>7200</v>
       </c>
@@ -6186,12 +5843,11 @@
       <c r="C344" s="3">
         <v>9310.5499824310082</v>
       </c>
-      <c r="D344" s="3"/>
-      <c r="E344" s="3">
+      <c r="D344" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="4">
         <v>7300</v>
       </c>
@@ -6201,12 +5857,11 @@
       <c r="C345" s="3">
         <v>9447.3527596007316</v>
       </c>
-      <c r="D345" s="3"/>
-      <c r="E345" s="3">
+      <c r="D345" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="4">
         <v>7400</v>
       </c>
@@ -6216,12 +5871,11 @@
       <c r="C346" s="3">
         <v>9584.155536770455</v>
       </c>
-      <c r="D346" s="3"/>
-      <c r="E346" s="3">
+      <c r="D346" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="4">
         <v>7500</v>
       </c>
@@ -6231,12 +5885,11 @@
       <c r="C347" s="3">
         <v>9720.9583139401802</v>
       </c>
-      <c r="D347" s="3"/>
-      <c r="E347" s="3">
+      <c r="D347" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="4">
         <v>7600</v>
       </c>
@@ -6246,12 +5899,11 @@
       <c r="C348" s="3">
         <v>9857.7610911099036</v>
       </c>
-      <c r="D348" s="3"/>
-      <c r="E348" s="3">
+      <c r="D348" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="4">
         <v>7700</v>
       </c>
@@ -6261,12 +5913,11 @@
       <c r="C349" s="3">
         <v>9994.5638682796271</v>
       </c>
-      <c r="D349" s="3"/>
-      <c r="E349" s="3">
+      <c r="D349" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="4">
         <v>7800</v>
       </c>
@@ -6276,12 +5927,11 @@
       <c r="C350" s="3">
         <v>10131.36664544935</v>
       </c>
-      <c r="D350" s="3"/>
-      <c r="E350" s="3">
+      <c r="D350" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="4">
         <v>7900</v>
       </c>
@@ -6291,12 +5941,11 @@
       <c r="C351" s="3">
         <v>10268.169422619079</v>
       </c>
-      <c r="D351" s="3"/>
-      <c r="E351" s="3">
+      <c r="D351" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="4">
         <v>8000</v>
       </c>
@@ -6306,12 +5955,11 @@
       <c r="C352" s="3">
         <v>10404.972199788799</v>
       </c>
-      <c r="D352" s="3"/>
-      <c r="E352" s="3">
+      <c r="D352" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="4">
         <v>8100</v>
       </c>
@@ -6321,12 +5969,11 @@
       <c r="C353" s="3">
         <v>10527.4654192936</v>
       </c>
-      <c r="D353" s="3"/>
-      <c r="E353" s="3">
+      <c r="D353" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="4">
         <v>8200</v>
       </c>
@@ -6336,12 +5983,11 @@
       <c r="C354" s="3">
         <v>10649.9586387984</v>
       </c>
-      <c r="D354" s="3"/>
-      <c r="E354" s="3">
+      <c r="D354" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="4">
         <v>8300</v>
       </c>
@@ -6351,12 +5997,11 @@
       <c r="C355" s="3">
         <v>10772.4518583032</v>
       </c>
-      <c r="D355" s="3"/>
-      <c r="E355" s="3">
+      <c r="D355" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="4">
         <v>8400</v>
       </c>
@@ -6366,12 +6011,11 @@
       <c r="C356" s="3">
         <v>10894.945077808001</v>
       </c>
-      <c r="D356" s="3"/>
-      <c r="E356" s="3">
+      <c r="D356" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="4">
         <v>8500</v>
       </c>
@@ -6381,12 +6025,11 @@
       <c r="C357" s="3">
         <v>11017.438297312799</v>
       </c>
-      <c r="D357" s="3"/>
-      <c r="E357" s="3">
+      <c r="D357" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="4">
         <v>8600</v>
       </c>
@@ -6396,12 +6039,11 @@
       <c r="C358" s="3">
         <v>11139.9315168176</v>
       </c>
-      <c r="D358" s="3"/>
-      <c r="E358" s="3">
+      <c r="D358" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="4">
         <v>8700</v>
       </c>
@@ -6411,12 +6053,11 @@
       <c r="C359" s="3">
         <v>11262.4247363224</v>
       </c>
-      <c r="D359" s="3"/>
-      <c r="E359" s="3">
+      <c r="D359" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="4">
         <v>8800</v>
       </c>
@@ -6426,12 +6067,11 @@
       <c r="C360" s="3">
         <v>11384.917955827201</v>
       </c>
-      <c r="D360" s="3"/>
-      <c r="E360" s="3">
+      <c r="D360" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="4">
         <v>8900</v>
       </c>
@@ -6441,12 +6081,11 @@
       <c r="C361" s="3">
         <v>11507.411175331999</v>
       </c>
-      <c r="D361" s="3"/>
-      <c r="E361" s="3">
+      <c r="D361" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="4">
         <v>9000</v>
       </c>
@@ -6456,12 +6095,11 @@
       <c r="C362" s="3">
         <v>11629.9043948368</v>
       </c>
-      <c r="D362" s="3"/>
-      <c r="E362" s="3">
+      <c r="D362" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="4">
         <v>9100</v>
       </c>
@@ -6471,12 +6109,11 @@
       <c r="C363" s="3">
         <v>11738.187533921729</v>
       </c>
-      <c r="D363" s="3"/>
-      <c r="E363" s="3">
+      <c r="D363" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="4">
         <v>9200</v>
       </c>
@@ -6486,12 +6123,11 @@
       <c r="C364" s="3">
         <v>11846.470673006659</v>
       </c>
-      <c r="D364" s="3"/>
-      <c r="E364" s="3">
+      <c r="D364" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="4">
         <v>9300</v>
       </c>
@@ -6501,12 +6137,11 @@
       <c r="C365" s="3">
         <v>11954.753812091591</v>
       </c>
-      <c r="D365" s="3"/>
-      <c r="E365" s="3">
+      <c r="D365" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="4">
         <v>9400</v>
       </c>
@@ -6516,12 +6151,11 @@
       <c r="C366" s="3">
         <v>12063.03695117652</v>
       </c>
-      <c r="D366" s="3"/>
-      <c r="E366" s="3">
+      <c r="D366" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="4">
         <v>9500</v>
       </c>
@@ -6531,12 +6165,11 @@
       <c r="C367" s="3">
         <v>12171.32009026145</v>
       </c>
-      <c r="D367" s="3"/>
-      <c r="E367" s="3">
+      <c r="D367" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="4">
         <v>9600</v>
       </c>
@@ -6546,12 +6179,11 @@
       <c r="C368" s="3">
         <v>12279.60322934638</v>
       </c>
-      <c r="D368" s="3"/>
-      <c r="E368" s="3">
+      <c r="D368" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="4">
         <v>9700</v>
       </c>
@@ -6561,12 +6193,11 @@
       <c r="C369" s="3">
         <v>12387.886368431309</v>
       </c>
-      <c r="D369" s="3"/>
-      <c r="E369" s="3">
+      <c r="D369" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="4">
         <v>9800</v>
       </c>
@@ -6576,12 +6207,11 @@
       <c r="C370" s="3">
         <v>12496.169507516241</v>
       </c>
-      <c r="D370" s="3"/>
-      <c r="E370" s="3">
+      <c r="D370" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="4">
         <v>9900</v>
       </c>
@@ -6591,12 +6221,11 @@
       <c r="C371" s="3">
         <v>12604.45264660117</v>
       </c>
-      <c r="D371" s="3"/>
-      <c r="E371" s="3">
+      <c r="D371" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="4">
         <v>10000</v>
       </c>
@@ -6606,12 +6235,11 @@
       <c r="C372" s="3">
         <v>12712.7357856861</v>
       </c>
-      <c r="D372" s="3"/>
-      <c r="E372" s="3">
+      <c r="D372" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="4">
         <v>11000</v>
       </c>
@@ -6621,12 +6249,11 @@
       <c r="C373" s="3">
         <v>14014.033287764119</v>
       </c>
-      <c r="D373" s="3"/>
-      <c r="E373" s="3">
+      <c r="D373" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="4">
         <v>12000</v>
       </c>
@@ -6636,12 +6263,11 @@
       <c r="C374" s="3">
         <v>15315.330789842141</v>
       </c>
-      <c r="D374" s="3"/>
-      <c r="E374" s="3">
+      <c r="D374" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="4">
         <v>13000</v>
       </c>
@@ -6651,12 +6277,11 @@
       <c r="C375" s="3">
         <v>16616.628291920159</v>
       </c>
-      <c r="D375" s="3"/>
-      <c r="E375" s="3">
+      <c r="D375" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="4">
         <v>14000</v>
       </c>
@@ -6666,12 +6291,11 @@
       <c r="C376" s="3">
         <v>17917.92579399818</v>
       </c>
-      <c r="D376" s="3"/>
-      <c r="E376" s="3">
+      <c r="D376" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="4">
         <v>15000</v>
       </c>
@@ -6681,12 +6305,11 @@
       <c r="C377" s="3">
         <v>19219.223296076201</v>
       </c>
-      <c r="D377" s="3"/>
-      <c r="E377" s="3">
+      <c r="D377" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="4">
         <v>16000</v>
       </c>
@@ -6696,12 +6319,11 @@
       <c r="C378" s="3">
         <v>20520.520798154219</v>
       </c>
-      <c r="D378" s="3"/>
-      <c r="E378" s="3">
+      <c r="D378" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="4">
         <v>17000</v>
       </c>
@@ -6711,12 +6333,11 @@
       <c r="C379" s="3">
         <v>21821.81830023224</v>
       </c>
-      <c r="D379" s="3"/>
-      <c r="E379" s="3">
+      <c r="D379" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="4">
         <v>18000</v>
       </c>
@@ -6726,12 +6347,11 @@
       <c r="C380" s="3">
         <v>23123.115802310262</v>
       </c>
-      <c r="D380" s="3"/>
-      <c r="E380" s="3">
+      <c r="D380" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="4">
         <v>19000</v>
       </c>
@@ -6741,12 +6361,11 @@
       <c r="C381" s="3">
         <v>24424.413304388279</v>
       </c>
-      <c r="D381" s="3"/>
-      <c r="E381" s="3">
+      <c r="D381" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="4">
         <v>20000</v>
       </c>
@@ -6756,12 +6375,11 @@
       <c r="C382" s="3">
         <v>25725.710806466301</v>
       </c>
-      <c r="D382" s="3"/>
-      <c r="E382" s="3">
+      <c r="D382" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="4">
         <v>21000</v>
       </c>
@@ -6769,12 +6387,11 @@
       <c r="C383" s="3">
         <v>26993.61325834518</v>
       </c>
-      <c r="D383" s="3"/>
-      <c r="E383" s="3">
+      <c r="D383" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="4">
         <v>22000</v>
       </c>
@@ -6782,12 +6399,11 @@
       <c r="C384" s="3">
         <v>28261.515710224059</v>
       </c>
-      <c r="D384" s="3"/>
-      <c r="E384" s="3">
+      <c r="D384" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="4">
         <v>23000</v>
       </c>
@@ -6795,12 +6411,11 @@
       <c r="C385" s="3">
         <v>29529.418162102938</v>
       </c>
-      <c r="D385" s="3"/>
-      <c r="E385" s="3">
+      <c r="D385" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="4">
         <v>24000</v>
       </c>
@@ -6808,12 +6423,11 @@
       <c r="C386" s="3">
         <v>30797.320613981821</v>
       </c>
-      <c r="D386" s="3"/>
-      <c r="E386" s="3">
+      <c r="D386" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="4">
         <v>25000</v>
       </c>
@@ -6821,12 +6435,11 @@
       <c r="C387" s="3">
         <v>32065.2230658607</v>
       </c>
-      <c r="D387" s="3"/>
-      <c r="E387" s="3">
+      <c r="D387" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="4">
         <v>26000</v>
       </c>
@@ -6834,12 +6447,11 @@
       <c r="C388" s="3">
         <v>33333.12551773958</v>
       </c>
-      <c r="D388" s="3"/>
-      <c r="E388" s="3">
+      <c r="D388" s="3">
         <v>26000</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="4">
         <v>27000</v>
       </c>
@@ -6847,12 +6459,11 @@
       <c r="C389" s="3">
         <v>34601.027969618459</v>
       </c>
-      <c r="D389" s="3"/>
-      <c r="E389" s="3">
+      <c r="D389" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="4">
         <v>28000</v>
       </c>
@@ -6860,12 +6471,11 @@
       <c r="C390" s="3">
         <v>35868.930421497338</v>
       </c>
-      <c r="D390" s="3"/>
-      <c r="E390" s="3">
+      <c r="D390" s="3">
         <v>28000</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="4">
         <v>29000</v>
       </c>
@@ -6873,19 +6483,18 @@
       <c r="C391" s="3">
         <v>37136.832873376217</v>
       </c>
-      <c r="D391" s="3"/>
-      <c r="E391" s="3">
+      <c r="D391" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="4">
         <v>30000</v>
       </c>
       <c r="C392">
         <v>38404.735325255097</v>
       </c>
-      <c r="E392">
+      <c r="D392">
         <v>30000</v>
       </c>
     </row>

--- a/impulse_1.xlsx
+++ b/impulse_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\nomogram_ ver.streamlit - 복사본5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\nomogram (수정본)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FA0286-81B5-4D74-901F-0E8A7F7A86C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7967A4-DCC6-4513-A70D-840331F30CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="2475" windowWidth="12150" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4575" yWindow="3420" windowWidth="21600" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pressure" sheetId="4" r:id="rId1"/>
@@ -1025,15 +1025,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9684C5D3-1973-41B6-B112-850508B717AA}">
-  <dimension ref="A1:D392"/>
+  <dimension ref="A1:E392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1044,10 +1044,13 @@
         <v>35</v>
       </c>
       <c r="D1" s="2">
+        <v>70</v>
+      </c>
+      <c r="E1" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1055,11 +1058,12 @@
         <v>4.6546570003565768E-2</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0.1</v>
       </c>
@@ -1070,10 +1074,13 @@
         <v>5.6492271887188528E-2</v>
       </c>
       <c r="D3" s="1">
+        <v>9.5636112541674811E-2</v>
+      </c>
+      <c r="E3" s="1">
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>0.2</v>
       </c>
@@ -1084,10 +1091,13 @@
         <v>0.20820913332774771</v>
       </c>
       <c r="D4" s="1">
+        <v>0.2059447825144059</v>
+      </c>
+      <c r="E4" s="1">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>0.3</v>
       </c>
@@ -1098,10 +1108,13 @@
         <v>0.35992599476830689</v>
       </c>
       <c r="D5" s="1">
+        <v>0.31625345248713699</v>
+      </c>
+      <c r="E5" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>0.4</v>
       </c>
@@ -1112,10 +1125,13 @@
         <v>0.51164285620886596</v>
       </c>
       <c r="D6" s="1">
+        <v>0.42656212245986802</v>
+      </c>
+      <c r="E6" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>0.5</v>
       </c>
@@ -1126,10 +1142,13 @@
         <v>0.66335971764942503</v>
       </c>
       <c r="D7" s="1">
+        <v>0.53687079243259905</v>
+      </c>
+      <c r="E7" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>0.60000000000000009</v>
       </c>
@@ -1140,10 +1159,13 @@
         <v>0.78679773339973513</v>
       </c>
       <c r="D8" s="1">
+        <v>0.65595368202801607</v>
+      </c>
+      <c r="E8" s="1">
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>0.70000000000000007</v>
       </c>
@@ -1154,10 +1176,13 @@
         <v>0.91945908568597912</v>
       </c>
       <c r="D9" s="1">
+        <v>0.74966086349592109</v>
+      </c>
+      <c r="E9" s="1">
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>0.8</v>
       </c>
@@ -1168,10 +1193,13 @@
         <v>1.04305455787927</v>
       </c>
       <c r="D10" s="1">
+        <v>0.86315631310708796</v>
+      </c>
+      <c r="E10" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>0.9</v>
       </c>
@@ -1182,10 +1210,13 @@
         <v>1.1572305695942999</v>
       </c>
       <c r="D11" s="1">
+        <v>0.97195692797737099</v>
+      </c>
+      <c r="E11" s="1">
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -1196,10 +1227,13 @@
         <v>1.2934662994499899</v>
       </c>
       <c r="D12" s="1">
+        <v>1.0703919738244201</v>
+      </c>
+      <c r="E12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -1210,10 +1244,13 @@
         <v>1.418213481137607</v>
       </c>
       <c r="D13" s="1">
+        <v>1.1783579242382229</v>
+      </c>
+      <c r="E13" s="1">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>1.2</v>
       </c>
@@ -1224,10 +1261,13 @@
         <v>1.5429606628252239</v>
       </c>
       <c r="D14" s="1">
+        <v>1.286323874652026</v>
+      </c>
+      <c r="E14" s="1">
         <v>1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1.3</v>
       </c>
@@ -1238,10 +1278,13 @@
         <v>1.667707844512841</v>
       </c>
       <c r="D15" s="1">
+        <v>1.3942898250658291</v>
+      </c>
+      <c r="E15" s="1">
         <v>1.3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1.4</v>
       </c>
@@ -1252,10 +1295,13 @@
         <v>1.7924550262004579</v>
       </c>
       <c r="D16" s="1">
+        <v>1.502255775479632</v>
+      </c>
+      <c r="E16" s="1">
         <v>1.4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1.5</v>
       </c>
@@ -1266,10 +1312,13 @@
         <v>1.917202207888075</v>
       </c>
       <c r="D17" s="1">
+        <v>1.610221725893435</v>
+      </c>
+      <c r="E17" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1.6</v>
       </c>
@@ -1280,10 +1329,13 @@
         <v>2.0419493895756919</v>
       </c>
       <c r="D18" s="1">
+        <v>1.7181876763072379</v>
+      </c>
+      <c r="E18" s="1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1.7</v>
       </c>
@@ -1294,10 +1346,13 @@
         <v>2.1666965712633091</v>
       </c>
       <c r="D19" s="1">
+        <v>1.826153626721041</v>
+      </c>
+      <c r="E19" s="1">
         <v>1.7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>1.8</v>
       </c>
@@ -1308,10 +1363,13 @@
         <v>2.2914437529509262</v>
       </c>
       <c r="D20" s="1">
+        <v>1.9341195771348441</v>
+      </c>
+      <c r="E20" s="1">
         <v>1.8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1.9</v>
       </c>
@@ -1322,10 +1380,13 @@
         <v>2.4161909346385428</v>
       </c>
       <c r="D21" s="1">
+        <v>2.0420855275486471</v>
+      </c>
+      <c r="E21" s="1">
         <v>1.9</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>2</v>
       </c>
@@ -1336,10 +1397,13 @@
         <v>2.54093811632616</v>
       </c>
       <c r="D22" s="1">
+        <v>2.15005147796245</v>
+      </c>
+      <c r="E22" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>2.1</v>
       </c>
@@ -1350,10 +1414,13 @@
         <v>2.6804916451686531</v>
       </c>
       <c r="D23" s="1">
+        <v>2.2608042984579049</v>
+      </c>
+      <c r="E23" s="1">
         <v>2.1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -1364,10 +1431,13 @@
         <v>2.8200451740111458</v>
       </c>
       <c r="D24" s="1">
+        <v>2.3715571189533602</v>
+      </c>
+      <c r="E24" s="1">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -1378,10 +1448,13 @@
         <v>2.959598702853639</v>
       </c>
       <c r="D25" s="1">
+        <v>2.4823099394488159</v>
+      </c>
+      <c r="E25" s="1">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>2.4</v>
       </c>
@@ -1392,10 +1465,13 @@
         <v>3.0991522316961331</v>
       </c>
       <c r="D26" s="1">
+        <v>2.5930627599442699</v>
+      </c>
+      <c r="E26" s="1">
         <v>2.4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>2.5</v>
       </c>
@@ -1406,10 +1482,13 @@
         <v>3.2387057605386249</v>
       </c>
       <c r="D27" s="1">
+        <v>2.7038155804397248</v>
+      </c>
+      <c r="E27" s="1">
         <v>2.5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>2.6</v>
       </c>
@@ -1420,10 +1499,13 @@
         <v>3.3782592893811181</v>
       </c>
       <c r="D28" s="1">
+        <v>2.8145684009351801</v>
+      </c>
+      <c r="E28" s="1">
         <v>2.6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>2.7</v>
       </c>
@@ -1434,10 +1516,13 @@
         <v>3.5178128182236108</v>
       </c>
       <c r="D29" s="1">
+        <v>2.925321221430635</v>
+      </c>
+      <c r="E29" s="1">
         <v>2.7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>2.8</v>
       </c>
@@ -1448,10 +1533,13 @@
         <v>3.657366347066104</v>
       </c>
       <c r="D30" s="1">
+        <v>3.0360740419260899</v>
+      </c>
+      <c r="E30" s="1">
         <v>2.8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>2.9</v>
       </c>
@@ -1462,10 +1550,13 @@
         <v>3.7969198759085971</v>
       </c>
       <c r="D31" s="1">
+        <v>3.1468268624215461</v>
+      </c>
+      <c r="E31" s="1">
         <v>2.9</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>3</v>
       </c>
@@ -1476,10 +1567,13 @@
         <v>3.9364734047510899</v>
       </c>
       <c r="D32" s="1">
+        <v>3.2575796829170001</v>
+      </c>
+      <c r="E32" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>3.1</v>
       </c>
@@ -1490,10 +1584,13 @@
         <v>4.0608440017776744</v>
       </c>
       <c r="D33" s="1">
+        <v>3.3604905633992339</v>
+      </c>
+      <c r="E33" s="1">
         <v>3.1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>3.2</v>
       </c>
@@ -1504,10 +1601,13 @@
         <v>4.1852145988042579</v>
       </c>
       <c r="D34" s="1">
+        <v>3.4634014438814682</v>
+      </c>
+      <c r="E34" s="1">
         <v>3.2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>3.3</v>
       </c>
@@ -1518,10 +1618,13 @@
         <v>4.3095851958308424</v>
       </c>
       <c r="D35" s="1">
+        <v>3.566312324363702</v>
+      </c>
+      <c r="E35" s="1">
         <v>3.3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>3.4</v>
       </c>
@@ -1532,10 +1635,13 @@
         <v>4.4339557928574269</v>
       </c>
       <c r="D36" s="1">
+        <v>3.6692232048459359</v>
+      </c>
+      <c r="E36" s="1">
         <v>3.4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>3.5</v>
       </c>
@@ -1546,10 +1652,13 @@
         <v>4.5583263898840114</v>
       </c>
       <c r="D37" s="1">
+        <v>3.7721340853281702</v>
+      </c>
+      <c r="E37" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>3.6</v>
       </c>
@@ -1560,10 +1669,13 @@
         <v>4.6826969869105941</v>
       </c>
       <c r="D38" s="1">
+        <v>3.875044965810404</v>
+      </c>
+      <c r="E38" s="1">
         <v>3.6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>3.7</v>
       </c>
@@ -1574,10 +1686,13 @@
         <v>4.8070675839371786</v>
       </c>
       <c r="D39" s="1">
+        <v>3.9779558462926379</v>
+      </c>
+      <c r="E39" s="1">
         <v>3.7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>3.8</v>
       </c>
@@ -1588,10 +1703,13 @@
         <v>4.9314381809637622</v>
       </c>
       <c r="D40" s="1">
+        <v>4.0808667267748726</v>
+      </c>
+      <c r="E40" s="1">
         <v>3.8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>3.9</v>
       </c>
@@ -1602,10 +1720,13 @@
         <v>5.0558087779903467</v>
       </c>
       <c r="D41" s="1">
+        <v>4.1837776072571069</v>
+      </c>
+      <c r="E41" s="1">
         <v>3.9</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>4</v>
       </c>
@@ -1616,10 +1737,13 @@
         <v>5.1801793750169303</v>
       </c>
       <c r="D42" s="1">
+        <v>4.2866884877393403</v>
+      </c>
+      <c r="E42" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>4.1000000000000014</v>
       </c>
@@ -1630,10 +1754,13 @@
         <v>5.3045348999953301</v>
       </c>
       <c r="D43" s="1">
+        <v>4.3935601952462262</v>
+      </c>
+      <c r="E43" s="1">
         <v>4.1000000000000014</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>4.2</v>
       </c>
@@ -1644,10 +1771,13 @@
         <v>5.4288904249737282</v>
       </c>
       <c r="D44" s="1">
+        <v>4.5004319027531103</v>
+      </c>
+      <c r="E44" s="1">
         <v>4.2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>4.3</v>
       </c>
@@ -1658,10 +1788,13 @@
         <v>5.5532459499521272</v>
       </c>
       <c r="D45" s="1">
+        <v>4.6073036102599954</v>
+      </c>
+      <c r="E45" s="1">
         <v>4.3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>4.4000000000000004</v>
       </c>
@@ -1672,10 +1805,13 @@
         <v>5.6776014749305261</v>
       </c>
       <c r="D46" s="1">
+        <v>4.7141753177668804</v>
+      </c>
+      <c r="E46" s="1">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>4.5</v>
       </c>
@@ -1686,10 +1822,13 @@
         <v>5.8019569999089251</v>
       </c>
       <c r="D47" s="1">
+        <v>4.8210470252737654</v>
+      </c>
+      <c r="E47" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>4.6000000000000014</v>
       </c>
@@ -1700,10 +1839,13 @@
         <v>5.926312524887325</v>
       </c>
       <c r="D48" s="1">
+        <v>4.9279187327806504</v>
+      </c>
+      <c r="E48" s="1">
         <v>4.6000000000000014</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>4.7</v>
       </c>
@@ -1714,10 +1856,13 @@
         <v>6.050668049865723</v>
       </c>
       <c r="D49" s="1">
+        <v>5.0347904402875354</v>
+      </c>
+      <c r="E49" s="1">
         <v>4.7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>4.8000000000000007</v>
       </c>
@@ -1728,10 +1873,13 @@
         <v>6.1750235748441229</v>
       </c>
       <c r="D50" s="1">
+        <v>5.1416621477944204</v>
+      </c>
+      <c r="E50" s="1">
         <v>4.8000000000000007</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>4.9000000000000004</v>
       </c>
@@ -1742,10 +1890,13 @@
         <v>6.2993790998225219</v>
       </c>
       <c r="D51" s="1">
+        <v>5.2485338553013046</v>
+      </c>
+      <c r="E51" s="1">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>5</v>
       </c>
@@ -1756,10 +1907,13 @@
         <v>6.4237346248009199</v>
       </c>
       <c r="D52" s="1">
+        <v>5.3554055628081896</v>
+      </c>
+      <c r="E52" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>5.1000000000000014</v>
       </c>
@@ -1770,10 +1924,13 @@
         <v>6.5546581026655009</v>
       </c>
       <c r="D53" s="1">
+        <v>5.4645473353619272</v>
+      </c>
+      <c r="E53" s="1">
         <v>5.1000000000000014</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>5.2</v>
       </c>
@@ -1784,10 +1941,13 @@
         <v>6.68558158053008</v>
       </c>
       <c r="D54" s="1">
+        <v>5.5736891079156639</v>
+      </c>
+      <c r="E54" s="1">
         <v>5.2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>5.3000000000000007</v>
       </c>
@@ -1798,10 +1958,13 @@
         <v>6.8165050583946609</v>
       </c>
       <c r="D55" s="1">
+        <v>5.6828308804694014</v>
+      </c>
+      <c r="E55" s="1">
         <v>5.3000000000000007</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>5.4</v>
       </c>
@@ -1812,10 +1975,13 @@
         <v>6.9474285362592401</v>
       </c>
       <c r="D56" s="1">
+        <v>5.7919726530231381</v>
+      </c>
+      <c r="E56" s="1">
         <v>5.4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>5.5</v>
       </c>
@@ -1826,10 +1992,13 @@
         <v>7.0783520141238201</v>
       </c>
       <c r="D57" s="1">
+        <v>5.9011144255768748</v>
+      </c>
+      <c r="E57" s="1">
         <v>5.5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>5.6000000000000014</v>
       </c>
@@ -1840,10 +2009,13 @@
         <v>7.209275491988401</v>
       </c>
       <c r="D58" s="1">
+        <v>6.0102561981306124</v>
+      </c>
+      <c r="E58" s="1">
         <v>5.6000000000000014</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>5.7</v>
       </c>
@@ -1854,10 +2026,13 @@
         <v>7.3401989698529801</v>
       </c>
       <c r="D59" s="1">
+        <v>6.1193979706843491</v>
+      </c>
+      <c r="E59" s="1">
         <v>5.7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>5.8000000000000007</v>
       </c>
@@ -1868,10 +2043,13 @@
         <v>7.4711224477175611</v>
       </c>
       <c r="D60" s="1">
+        <v>6.2285397432380867</v>
+      </c>
+      <c r="E60" s="1">
         <v>5.8000000000000007</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>5.9</v>
       </c>
@@ -1882,10 +2060,13 @@
         <v>7.6020459255821411</v>
       </c>
       <c r="D61" s="1">
+        <v>6.3376815157918234</v>
+      </c>
+      <c r="E61" s="1">
         <v>5.9</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>6</v>
       </c>
@@ -1896,10 +2077,13 @@
         <v>7.7329694034467202</v>
       </c>
       <c r="D62" s="1">
+        <v>6.4468232883455601</v>
+      </c>
+      <c r="E62" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>6.1000000000000014</v>
       </c>
@@ -1910,10 +2094,13 @@
         <v>7.8633433695247517</v>
       </c>
       <c r="D63" s="1">
+        <v>6.5499717224214216</v>
+      </c>
+      <c r="E63" s="1">
         <v>6.1000000000000014</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>6.2</v>
       </c>
@@ -1924,10 +2111,13 @@
         <v>7.9937173356027822</v>
       </c>
       <c r="D64" s="1">
+        <v>6.6531201564972839</v>
+      </c>
+      <c r="E64" s="1">
         <v>6.2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>6.3000000000000007</v>
       </c>
@@ -1938,10 +2128,13 @@
         <v>8.1240913016808136</v>
       </c>
       <c r="D65" s="1">
+        <v>6.7562685905731472</v>
+      </c>
+      <c r="E65" s="1">
         <v>6.3000000000000007</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>6.4</v>
       </c>
@@ -1952,10 +2145,13 @@
         <v>8.2544652677588441</v>
       </c>
       <c r="D66" s="1">
+        <v>6.8594170246490087</v>
+      </c>
+      <c r="E66" s="1">
         <v>6.4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>6.5</v>
       </c>
@@ -1966,10 +2162,13 @@
         <v>8.3848392338368747</v>
       </c>
       <c r="D67" s="1">
+        <v>6.9625654587248702</v>
+      </c>
+      <c r="E67" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>6.6000000000000014</v>
       </c>
@@ -1980,10 +2179,13 @@
         <v>8.515213199914907</v>
       </c>
       <c r="D68" s="1">
+        <v>7.0657138928007326</v>
+      </c>
+      <c r="E68" s="1">
         <v>6.6000000000000014</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>6.7</v>
       </c>
@@ -1994,10 +2196,13 @@
         <v>8.6455871659929358</v>
       </c>
       <c r="D69" s="1">
+        <v>7.1688623268765941</v>
+      </c>
+      <c r="E69" s="1">
         <v>6.7</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>6.8000000000000007</v>
       </c>
@@ -2008,10 +2213,13 @@
         <v>8.7759611320709681</v>
       </c>
       <c r="D70" s="1">
+        <v>7.2720107609524574</v>
+      </c>
+      <c r="E70" s="1">
         <v>6.8000000000000007</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>6.9</v>
       </c>
@@ -2022,10 +2230,13 @@
         <v>8.9063350981489986</v>
       </c>
       <c r="D71" s="1">
+        <v>7.3751591950283188</v>
+      </c>
+      <c r="E71" s="1">
         <v>6.9</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>7</v>
       </c>
@@ -2036,10 +2247,13 @@
         <v>9.0367090642270291</v>
       </c>
       <c r="D72" s="1">
+        <v>7.4783076291041803</v>
+      </c>
+      <c r="E72" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>7.1000000000000014</v>
       </c>
@@ -2050,10 +2264,13 @@
         <v>9.1735336734922566</v>
       </c>
       <c r="D73" s="1">
+        <v>7.5851504695229188</v>
+      </c>
+      <c r="E73" s="1">
         <v>7.1000000000000014</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>7.2</v>
       </c>
@@ -2064,10 +2281,13 @@
         <v>9.310358282757484</v>
       </c>
       <c r="D74" s="1">
+        <v>7.6919933099416564</v>
+      </c>
+      <c r="E74" s="1">
         <v>7.2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>7.3000000000000007</v>
       </c>
@@ -2078,10 +2298,13 @@
         <v>9.4471828920227114</v>
       </c>
       <c r="D75" s="1">
+        <v>7.7988361503603949</v>
+      </c>
+      <c r="E75" s="1">
         <v>7.3000000000000007</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>7.4</v>
       </c>
@@ -2092,10 +2315,13 @@
         <v>9.5840075012879389</v>
       </c>
       <c r="D76" s="1">
+        <v>7.9056789907791316</v>
+      </c>
+      <c r="E76" s="1">
         <v>7.4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>7.5</v>
       </c>
@@ -2106,10 +2332,13 @@
         <v>9.7208321105531645</v>
       </c>
       <c r="D77" s="1">
+        <v>8.012521831197871</v>
+      </c>
+      <c r="E77" s="1">
         <v>7.5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>7.6000000000000014</v>
       </c>
@@ -2120,10 +2349,13 @@
         <v>9.857656719818392</v>
       </c>
       <c r="D78" s="1">
+        <v>8.1193646716166086</v>
+      </c>
+      <c r="E78" s="1">
         <v>7.6000000000000014</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>7.7</v>
       </c>
@@ -2134,10 +2366,13 @@
         <v>9.9944813290836194</v>
       </c>
       <c r="D79" s="1">
+        <v>8.2262075120353462</v>
+      </c>
+      <c r="E79" s="1">
         <v>7.7</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>7.8000000000000007</v>
       </c>
@@ -2148,10 +2383,13 @@
         <v>10.13130593834885</v>
       </c>
       <c r="D80" s="1">
+        <v>8.3330503524540855</v>
+      </c>
+      <c r="E80" s="1">
         <v>7.8000000000000007</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>7.9</v>
       </c>
@@ -2162,10 +2400,13 @@
         <v>10.268130547614071</v>
       </c>
       <c r="D81" s="1">
+        <v>8.4398931928728231</v>
+      </c>
+      <c r="E81" s="1">
         <v>7.9</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>8</v>
       </c>
@@ -2176,10 +2417,13 @@
         <v>10.4049551568793</v>
       </c>
       <c r="D82" s="1">
+        <v>8.5467360332915607</v>
+      </c>
+      <c r="E82" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>8.1</v>
       </c>
@@ -2190,10 +2434,13 @@
         <v>10.5361093292532</v>
       </c>
       <c r="D83" s="1">
+        <v>8.6544674049371917</v>
+      </c>
+      <c r="E83" s="1">
         <v>8.1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>8.2000000000000011</v>
       </c>
@@ -2204,10 +2451,13 @@
         <v>10.667263501627099</v>
       </c>
       <c r="D84" s="1">
+        <v>8.7621987765828262</v>
+      </c>
+      <c r="E84" s="1">
         <v>8.2000000000000011</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>8.3000000000000007</v>
       </c>
@@ -2218,10 +2468,13 @@
         <v>10.798417674001</v>
       </c>
       <c r="D85" s="1">
+        <v>8.8699301482284572</v>
+      </c>
+      <c r="E85" s="1">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>8.4</v>
       </c>
@@ -2232,10 +2485,13 @@
         <v>10.9295718463749</v>
       </c>
       <c r="D86" s="1">
+        <v>8.9776615198740881</v>
+      </c>
+      <c r="E86" s="1">
         <v>8.4</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>8.5</v>
       </c>
@@ -2246,10 +2502,13 @@
         <v>11.060726018748801</v>
       </c>
       <c r="D87" s="1">
+        <v>9.0853928915197208</v>
+      </c>
+      <c r="E87" s="1">
         <v>8.5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>8.6</v>
       </c>
@@ -2260,10 +2519,13 @@
         <v>11.191880191122699</v>
       </c>
       <c r="D88" s="1">
+        <v>9.1931242631653518</v>
+      </c>
+      <c r="E88" s="1">
         <v>8.6</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>8.7000000000000011</v>
       </c>
@@ -2274,10 +2536,13 @@
         <v>11.3230343634966</v>
       </c>
       <c r="D89" s="1">
+        <v>9.3008556348109845</v>
+      </c>
+      <c r="E89" s="1">
         <v>8.7000000000000011</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>8.8000000000000007</v>
       </c>
@@ -2288,10 +2553,13 @@
         <v>11.4541885358705</v>
       </c>
       <c r="D90" s="1">
+        <v>9.4085870064566155</v>
+      </c>
+      <c r="E90" s="1">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>8.9</v>
       </c>
@@ -2302,10 +2570,13 @@
         <v>11.585342708244401</v>
       </c>
       <c r="D91" s="1">
+        <v>9.5163183781022482</v>
+      </c>
+      <c r="E91" s="1">
         <v>8.9</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>9</v>
       </c>
@@ -2316,10 +2587,13 @@
         <v>11.716496880618299</v>
       </c>
       <c r="D92" s="1">
+        <v>9.6240497497478792</v>
+      </c>
+      <c r="E92" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>9.1</v>
       </c>
@@ -2330,10 +2604,13 @@
         <v>11.825586260740421</v>
       </c>
       <c r="D93" s="1">
+        <v>9.7453606310311507</v>
+      </c>
+      <c r="E93" s="1">
         <v>9.1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>9.2000000000000011</v>
       </c>
@@ -2344,10 +2621,13 @@
         <v>11.93467564086254</v>
       </c>
       <c r="D94" s="1">
+        <v>9.866671512314424</v>
+      </c>
+      <c r="E94" s="1">
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>9.3000000000000007</v>
       </c>
@@ -2358,10 +2638,13 @@
         <v>12.04376502098466</v>
       </c>
       <c r="D95" s="1">
+        <v>9.9879823935976955</v>
+      </c>
+      <c r="E95" s="1">
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>9.4</v>
       </c>
@@ -2372,10 +2655,13 @@
         <v>12.152854401106779</v>
       </c>
       <c r="D96" s="1">
+        <v>10.109293274880971</v>
+      </c>
+      <c r="E96" s="1">
         <v>9.4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>9.5</v>
       </c>
@@ -2386,10 +2672,13 @@
         <v>12.261943781228901</v>
       </c>
       <c r="D97" s="1">
+        <v>10.23060415616424</v>
+      </c>
+      <c r="E97" s="1">
         <v>9.5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>9.6000000000000014</v>
       </c>
@@ -2400,10 +2689,13 @@
         <v>12.37103316135102</v>
       </c>
       <c r="D98" s="1">
+        <v>10.35191503744751</v>
+      </c>
+      <c r="E98" s="1">
         <v>9.6000000000000014</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>9.7000000000000011</v>
       </c>
@@ -2414,10 +2706,13 @@
         <v>12.48012254147314</v>
       </c>
       <c r="D99" s="1">
+        <v>10.47322591873079</v>
+      </c>
+      <c r="E99" s="1">
         <v>9.7000000000000011</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>9.8000000000000007</v>
       </c>
@@ -2428,10 +2723,13 @@
         <v>12.589211921595259</v>
       </c>
       <c r="D100" s="1">
+        <v>10.59453680001406</v>
+      </c>
+      <c r="E100" s="1">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>9.9</v>
       </c>
@@ -2442,10 +2740,13 @@
         <v>12.698301301717381</v>
       </c>
       <c r="D101" s="1">
+        <v>10.71584768129733</v>
+      </c>
+      <c r="E101" s="1">
         <v>9.9</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>10</v>
       </c>
@@ -2456,10 +2757,13 @@
         <v>12.8073906818395</v>
       </c>
       <c r="D102" s="1">
+        <v>10.8371585625806</v>
+      </c>
+      <c r="E102" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>11</v>
       </c>
@@ -2470,10 +2774,13 @@
         <v>14.09921848053828</v>
       </c>
       <c r="D103" s="1">
+        <v>11.8981668760304</v>
+      </c>
+      <c r="E103" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>12</v>
       </c>
@@ -2484,10 +2791,13 @@
         <v>15.391046279237059</v>
       </c>
       <c r="D104" s="1">
+        <v>12.959175189480201</v>
+      </c>
+      <c r="E104" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>13</v>
       </c>
@@ -2498,10 +2808,13 @@
         <v>16.682874077935839</v>
       </c>
       <c r="D105" s="1">
+        <v>14.020183502929999</v>
+      </c>
+      <c r="E105" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>14</v>
       </c>
@@ -2512,10 +2825,13 @@
         <v>17.974701876634619</v>
       </c>
       <c r="D106" s="1">
+        <v>15.0811918163798</v>
+      </c>
+      <c r="E106" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>15</v>
       </c>
@@ -2526,10 +2842,13 @@
         <v>19.266529675333398</v>
       </c>
       <c r="D107" s="1">
+        <v>16.1422001298296</v>
+      </c>
+      <c r="E107" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>16</v>
       </c>
@@ -2540,10 +2859,13 @@
         <v>20.558357474032181</v>
       </c>
       <c r="D108" s="1">
+        <v>17.203208443279401</v>
+      </c>
+      <c r="E108" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>17</v>
       </c>
@@ -2554,10 +2876,13 @@
         <v>21.850185272730961</v>
       </c>
       <c r="D109" s="1">
+        <v>18.264216756729201</v>
+      </c>
+      <c r="E109" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>18</v>
       </c>
@@ -2568,10 +2893,13 @@
         <v>23.142013071429741</v>
       </c>
       <c r="D110" s="1">
+        <v>19.325225070178998</v>
+      </c>
+      <c r="E110" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>19</v>
       </c>
@@ -2582,10 +2910,13 @@
         <v>24.43384087012852</v>
       </c>
       <c r="D111" s="1">
+        <v>20.386233383628799</v>
+      </c>
+      <c r="E111" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>20</v>
       </c>
@@ -2596,10 +2927,13 @@
         <v>25.7256686688273</v>
       </c>
       <c r="D112" s="1">
+        <v>21.447241697078599</v>
+      </c>
+      <c r="E112" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>21</v>
       </c>
@@ -2610,10 +2944,13 @@
         <v>26.99352217705583</v>
       </c>
       <c r="D113" s="1">
+        <v>22.528004465346459</v>
+      </c>
+      <c r="E113" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>22</v>
       </c>
@@ -2624,10 +2961,13 @@
         <v>28.26137568528436</v>
       </c>
       <c r="D114" s="1">
+        <v>23.608767233614319</v>
+      </c>
+      <c r="E114" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>23</v>
       </c>
@@ -2638,10 +2978,13 @@
         <v>29.52922919351289</v>
       </c>
       <c r="D115" s="1">
+        <v>24.689530001882179</v>
+      </c>
+      <c r="E115" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>24</v>
       </c>
@@ -2652,10 +2995,13 @@
         <v>30.79708270174142</v>
       </c>
       <c r="D116" s="1">
+        <v>25.770292770150039</v>
+      </c>
+      <c r="E116" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>25</v>
       </c>
@@ -2666,10 +3012,13 @@
         <v>32.06493620996995</v>
       </c>
       <c r="D117" s="1">
+        <v>26.851055538417899</v>
+      </c>
+      <c r="E117" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>26</v>
       </c>
@@ -2680,10 +3029,13 @@
         <v>33.332789718198477</v>
       </c>
       <c r="D118" s="1">
+        <v>27.931818306685759</v>
+      </c>
+      <c r="E118" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>27</v>
       </c>
@@ -2694,10 +3046,13 @@
         <v>34.60064322642701</v>
       </c>
       <c r="D119" s="1">
+        <v>29.012581074953619</v>
+      </c>
+      <c r="E119" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>28</v>
       </c>
@@ -2708,10 +3063,13 @@
         <v>35.868496734655537</v>
       </c>
       <c r="D120" s="1">
+        <v>30.093343843221479</v>
+      </c>
+      <c r="E120" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>29</v>
       </c>
@@ -2722,10 +3080,13 @@
         <v>37.136350242884063</v>
       </c>
       <c r="D121" s="1">
+        <v>31.174106611489339</v>
+      </c>
+      <c r="E121" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>30</v>
       </c>
@@ -2736,10 +3097,13 @@
         <v>38.404203751112597</v>
       </c>
       <c r="D122" s="1">
+        <v>32.254869379757203</v>
+      </c>
+      <c r="E122" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>31</v>
       </c>
@@ -2750,10 +3114,13 @@
         <v>39.692991696788248</v>
       </c>
       <c r="D123" s="1">
+        <v>33.337294812004259</v>
+      </c>
+      <c r="E123" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>32</v>
       </c>
@@ -2764,10 +3131,13 @@
         <v>40.981779642463898</v>
       </c>
       <c r="D124" s="1">
+        <v>34.419720244251323</v>
+      </c>
+      <c r="E124" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>33</v>
       </c>
@@ -2778,10 +3148,13 @@
         <v>42.270567588139549</v>
       </c>
       <c r="D125" s="1">
+        <v>35.50214567649838</v>
+      </c>
+      <c r="E125" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>34</v>
       </c>
@@ -2792,10 +3165,13 @@
         <v>43.5593555338152</v>
       </c>
       <c r="D126" s="1">
+        <v>36.584571108745443</v>
+      </c>
+      <c r="E126" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>35</v>
       </c>
@@ -2806,10 +3182,13 @@
         <v>44.848143479490837</v>
       </c>
       <c r="D127" s="1">
+        <v>37.6669965409925</v>
+      </c>
+      <c r="E127" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>36</v>
       </c>
@@ -2820,10 +3199,13 @@
         <v>46.136931425166487</v>
       </c>
       <c r="D128" s="1">
+        <v>38.749421973239563</v>
+      </c>
+      <c r="E128" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>37</v>
       </c>
@@ -2834,10 +3216,13 @@
         <v>47.425719370842153</v>
       </c>
       <c r="D129" s="1">
+        <v>39.83184740548662</v>
+      </c>
+      <c r="E129" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>38</v>
       </c>
@@ -2848,10 +3233,13 @@
         <v>48.714507316517803</v>
       </c>
       <c r="D130" s="1">
+        <v>40.914272837733677</v>
+      </c>
+      <c r="E130" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>39</v>
       </c>
@@ -2862,10 +3250,13 @@
         <v>50.003295262193447</v>
       </c>
       <c r="D131" s="1">
+        <v>41.99669826998074</v>
+      </c>
+      <c r="E131" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>40</v>
       </c>
@@ -2876,10 +3267,13 @@
         <v>51.292083207869098</v>
       </c>
       <c r="D132" s="1">
+        <v>43.079123702227797</v>
+      </c>
+      <c r="E132" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>41</v>
       </c>
@@ -2890,10 +3284,13 @@
         <v>52.570849446584297</v>
       </c>
       <c r="D133" s="1">
+        <v>44.193279197827678</v>
+      </c>
+      <c r="E133" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>42</v>
       </c>
@@ -2904,10 +3301,13 @@
         <v>53.849615685299518</v>
       </c>
       <c r="D134" s="1">
+        <v>45.30743469342756</v>
+      </c>
+      <c r="E134" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>43</v>
       </c>
@@ -2918,10 +3318,13 @@
         <v>55.128381924014732</v>
       </c>
       <c r="D135" s="1">
+        <v>46.421590189027441</v>
+      </c>
+      <c r="E135" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>44</v>
       </c>
@@ -2932,10 +3335,13 @@
         <v>56.407148162729939</v>
       </c>
       <c r="D136" s="1">
+        <v>47.535745684627322</v>
+      </c>
+      <c r="E136" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>45</v>
       </c>
@@ -2946,10 +3352,13 @@
         <v>57.685914401445153</v>
       </c>
       <c r="D137" s="1">
+        <v>48.649901180227197</v>
+      </c>
+      <c r="E137" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>46</v>
       </c>
@@ -2960,10 +3369,13 @@
         <v>58.964680640160353</v>
       </c>
       <c r="D138" s="1">
+        <v>49.764056675827078</v>
+      </c>
+      <c r="E138" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>47</v>
       </c>
@@ -2974,10 +3386,13 @@
         <v>60.243446878875567</v>
       </c>
       <c r="D139" s="1">
+        <v>50.878212171426959</v>
+      </c>
+      <c r="E139" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>48</v>
       </c>
@@ -2988,10 +3403,13 @@
         <v>61.522213117590773</v>
       </c>
       <c r="D140" s="1">
+        <v>51.992367667026841</v>
+      </c>
+      <c r="E140" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>49</v>
       </c>
@@ -3002,10 +3420,13 @@
         <v>62.800979356305987</v>
       </c>
       <c r="D141" s="1">
+        <v>53.106523162626722</v>
+      </c>
+      <c r="E141" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>50</v>
       </c>
@@ -3016,10 +3437,13 @@
         <v>64.079745595021194</v>
       </c>
       <c r="D142" s="1">
+        <v>54.220678658226603</v>
+      </c>
+      <c r="E142" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>51</v>
       </c>
@@ -3030,10 +3454,13 @@
         <v>65.328837756306584</v>
       </c>
       <c r="D143" s="1">
+        <v>55.325761641383806</v>
+      </c>
+      <c r="E143" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>52</v>
       </c>
@@ -3044,10 +3471,13 @@
         <v>66.577929917591973</v>
       </c>
       <c r="D144" s="1">
+        <v>56.430844624541017</v>
+      </c>
+      <c r="E144" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>53</v>
       </c>
@@ -3058,10 +3488,13 @@
         <v>67.827022078877363</v>
       </c>
       <c r="D145" s="1">
+        <v>57.535927607698227</v>
+      </c>
+      <c r="E145" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>54</v>
       </c>
@@ -3072,10 +3505,13 @@
         <v>69.076114240162752</v>
       </c>
       <c r="D146" s="1">
+        <v>58.641010590855437</v>
+      </c>
+      <c r="E146" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>55</v>
       </c>
@@ -3086,10 +3522,13 @@
         <v>70.325206401448156</v>
       </c>
       <c r="D147" s="1">
+        <v>59.746093574012647</v>
+      </c>
+      <c r="E147" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>56</v>
       </c>
@@ -3100,10 +3539,13 @@
         <v>71.574298562733546</v>
       </c>
       <c r="D148" s="1">
+        <v>60.851176557169858</v>
+      </c>
+      <c r="E148" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>57</v>
       </c>
@@ -3114,10 +3556,13 @@
         <v>72.823390724018935</v>
       </c>
       <c r="D149" s="1">
+        <v>61.956259540327068</v>
+      </c>
+      <c r="E149" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>58</v>
       </c>
@@ -3128,10 +3573,13 @@
         <v>74.072482885304325</v>
       </c>
       <c r="D150" s="1">
+        <v>63.061342523484292</v>
+      </c>
+      <c r="E150" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>59</v>
       </c>
@@ -3142,10 +3590,13 @@
         <v>75.321575046589714</v>
       </c>
       <c r="D151" s="1">
+        <v>64.166425506641502</v>
+      </c>
+      <c r="E151" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>60</v>
       </c>
@@ -3156,10 +3607,13 @@
         <v>76.570667207875104</v>
       </c>
       <c r="D152" s="1">
+        <v>65.271508489798705</v>
+      </c>
+      <c r="E152" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>61</v>
       </c>
@@ -3170,10 +3624,13 @@
         <v>77.928138784127484</v>
       </c>
       <c r="D153" s="1">
+        <v>66.315660353131477</v>
+      </c>
+      <c r="E153" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>62</v>
       </c>
@@ -3184,10 +3641,13 @@
         <v>79.285610360379863</v>
       </c>
       <c r="D154" s="1">
+        <v>67.359812216464249</v>
+      </c>
+      <c r="E154" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>63</v>
       </c>
@@ -3198,10 +3658,13 @@
         <v>80.643081936632242</v>
       </c>
       <c r="D155" s="1">
+        <v>68.403964079797007</v>
+      </c>
+      <c r="E155" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>64</v>
       </c>
@@ -3212,10 +3675,13 @@
         <v>82.000553512884622</v>
       </c>
       <c r="D156" s="1">
+        <v>69.448115943129778</v>
+      </c>
+      <c r="E156" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>65</v>
       </c>
@@ -3226,10 +3692,13 @@
         <v>83.358025089137001</v>
       </c>
       <c r="D157" s="1">
+        <v>70.49226780646255</v>
+      </c>
+      <c r="E157" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>66</v>
       </c>
@@ -3240,10 +3709,13 @@
         <v>84.715496665389381</v>
       </c>
       <c r="D158" s="1">
+        <v>71.536419669795322</v>
+      </c>
+      <c r="E158" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>67</v>
       </c>
@@ -3254,10 +3726,13 @@
         <v>86.07296824164176</v>
       </c>
       <c r="D159" s="1">
+        <v>72.580571533128094</v>
+      </c>
+      <c r="E159" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>68</v>
       </c>
@@ -3268,10 +3743,13 @@
         <v>87.43043981789414</v>
       </c>
       <c r="D160" s="1">
+        <v>73.624723396460851</v>
+      </c>
+      <c r="E160" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>69</v>
       </c>
@@ -3282,10 +3760,13 @@
         <v>88.787911394146519</v>
       </c>
       <c r="D161" s="1">
+        <v>74.668875259793623</v>
+      </c>
+      <c r="E161" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>70</v>
       </c>
@@ -3296,10 +3777,13 @@
         <v>90.145382970398899</v>
       </c>
       <c r="D162" s="1">
+        <v>75.713027123126395</v>
+      </c>
+      <c r="E162" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>71</v>
       </c>
@@ -3310,10 +3794,13 @@
         <v>91.357259475637505</v>
       </c>
       <c r="D163" s="1">
+        <v>76.730881123922032</v>
+      </c>
+      <c r="E163" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>72</v>
       </c>
@@ -3324,10 +3811,13 @@
         <v>92.569135980876112</v>
       </c>
       <c r="D164" s="1">
+        <v>77.748735124717669</v>
+      </c>
+      <c r="E164" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>73</v>
       </c>
@@ -3338,10 +3828,13 @@
         <v>93.781012486114733</v>
       </c>
       <c r="D165" s="1">
+        <v>78.76658912551332</v>
+      </c>
+      <c r="E165" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>74</v>
       </c>
@@ -3352,10 +3845,13 @@
         <v>94.99288899135334</v>
       </c>
       <c r="D166" s="1">
+        <v>79.784443126308958</v>
+      </c>
+      <c r="E166" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>75</v>
       </c>
@@ -3366,10 +3862,13 @@
         <v>96.204765496591946</v>
       </c>
       <c r="D167" s="1">
+        <v>80.802297127104595</v>
+      </c>
+      <c r="E167" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>76</v>
       </c>
@@ -3380,10 +3879,13 @@
         <v>97.416642001830553</v>
       </c>
       <c r="D168" s="1">
+        <v>81.820151127900232</v>
+      </c>
+      <c r="E168" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>77</v>
       </c>
@@ -3394,10 +3896,13 @@
         <v>98.62851850706916</v>
       </c>
       <c r="D169" s="1">
+        <v>82.838005128695869</v>
+      </c>
+      <c r="E169" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>78</v>
       </c>
@@ -3408,10 +3913,13 @@
         <v>99.840395012307781</v>
       </c>
       <c r="D170" s="1">
+        <v>83.85585912949152</v>
+      </c>
+      <c r="E170" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>79</v>
       </c>
@@ -3422,10 +3930,13 @@
         <v>101.0522715175464</v>
       </c>
       <c r="D171" s="1">
+        <v>84.873713130287157</v>
+      </c>
+      <c r="E171" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>80</v>
       </c>
@@ -3436,10 +3947,13 @@
         <v>102.26414802278499</v>
       </c>
       <c r="D172" s="1">
+        <v>85.891567131082795</v>
+      </c>
+      <c r="E172" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>81</v>
       </c>
@@ -3450,10 +3964,13 @@
         <v>103.81223981043711</v>
       </c>
       <c r="D173" s="1">
+        <v>86.974227962513751</v>
+      </c>
+      <c r="E173" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>82</v>
       </c>
@@ -3464,10 +3981,13 @@
         <v>105.3603315980892</v>
       </c>
       <c r="D174" s="1">
+        <v>88.056888793944722</v>
+      </c>
+      <c r="E174" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>83</v>
       </c>
@@ -3478,10 +3998,13 @@
         <v>106.9084233857413</v>
       </c>
       <c r="D175" s="1">
+        <v>89.139549625375679</v>
+      </c>
+      <c r="E175" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>84</v>
       </c>
@@ -3492,10 +4015,13 @@
         <v>108.4565151733934</v>
       </c>
       <c r="D176" s="1">
+        <v>90.222210456806636</v>
+      </c>
+      <c r="E176" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>85</v>
       </c>
@@ -3506,10 +4032,13 @@
         <v>110.0046069610455</v>
       </c>
       <c r="D177" s="1">
+        <v>91.304871288237592</v>
+      </c>
+      <c r="E177" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>86</v>
       </c>
@@ -3520,10 +4049,13 @@
         <v>111.55269874869759</v>
       </c>
       <c r="D178" s="1">
+        <v>92.387532119668563</v>
+      </c>
+      <c r="E178" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>87</v>
       </c>
@@ -3534,10 +4066,13 @@
         <v>113.10079053634971</v>
       </c>
       <c r="D179" s="1">
+        <v>93.47019295109952</v>
+      </c>
+      <c r="E179" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>88</v>
       </c>
@@ -3548,10 +4083,13 @@
         <v>114.6488823240018</v>
       </c>
       <c r="D180" s="1">
+        <v>94.552853782530477</v>
+      </c>
+      <c r="E180" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>89</v>
       </c>
@@ -3562,10 +4100,13 @@
         <v>116.1969741116539</v>
       </c>
       <c r="D181" s="1">
+        <v>95.635514613961448</v>
+      </c>
+      <c r="E181" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>90</v>
       </c>
@@ -3576,10 +4117,13 @@
         <v>117.745065899306</v>
       </c>
       <c r="D182" s="1">
+        <v>96.718175445392404</v>
+      </c>
+      <c r="E182" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>91</v>
       </c>
@@ -3590,10 +4134,13 @@
         <v>118.93753036215</v>
       </c>
       <c r="D183" s="1">
+        <v>97.776751871506761</v>
+      </c>
+      <c r="E183" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>92</v>
       </c>
@@ -3604,10 +4151,13 @@
         <v>120.129994824994</v>
       </c>
       <c r="D184" s="1">
+        <v>98.835328297621118</v>
+      </c>
+      <c r="E184" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>93</v>
       </c>
@@ -3618,10 +4168,13 @@
         <v>121.322459287838</v>
       </c>
       <c r="D185" s="1">
+        <v>99.893904723735488</v>
+      </c>
+      <c r="E185" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>94</v>
       </c>
@@ -3632,10 +4185,13 @@
         <v>122.514923750682</v>
       </c>
       <c r="D186" s="1">
+        <v>100.9524811498498</v>
+      </c>
+      <c r="E186" s="1">
         <v>94</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>95</v>
       </c>
@@ -3646,10 +4202,13 @@
         <v>123.707388213526</v>
       </c>
       <c r="D187" s="1">
+        <v>102.0110575759642</v>
+      </c>
+      <c r="E187" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>96</v>
       </c>
@@ -3660,10 +4219,13 @@
         <v>124.89985267637</v>
       </c>
       <c r="D188" s="1">
+        <v>103.0696340020786</v>
+      </c>
+      <c r="E188" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>97</v>
       </c>
@@ -3674,10 +4236,13 @@
         <v>126.092317139214</v>
       </c>
       <c r="D189" s="1">
+        <v>104.1282104281929</v>
+      </c>
+      <c r="E189" s="1">
         <v>97</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>98</v>
       </c>
@@ -3688,10 +4253,13 @@
         <v>127.284781602058</v>
       </c>
       <c r="D190" s="1">
+        <v>105.1867868543073</v>
+      </c>
+      <c r="E190" s="1">
         <v>98</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>99</v>
       </c>
@@ -3702,10 +4270,13 @@
         <v>128.477246064902</v>
       </c>
       <c r="D191" s="1">
+        <v>106.2453632804216</v>
+      </c>
+      <c r="E191" s="1">
         <v>99</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>100</v>
       </c>
@@ -3716,10 +4287,13 @@
         <v>129.66971052774599</v>
       </c>
       <c r="D192" s="1">
+        <v>107.303939706536</v>
+      </c>
+      <c r="E192" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>110</v>
       </c>
@@ -3730,10 +4304,13 @@
         <v>142.74799699620621</v>
       </c>
       <c r="D193" s="1">
+        <v>118.12750122830801</v>
+      </c>
+      <c r="E193" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>120</v>
       </c>
@@ -3744,10 +4321,13 @@
         <v>155.8262834646664</v>
       </c>
       <c r="D194" s="1">
+        <v>128.95106275008001</v>
+      </c>
+      <c r="E194" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>130</v>
       </c>
@@ -3758,10 +4338,13 @@
         <v>168.9045699331266</v>
       </c>
       <c r="D195" s="1">
+        <v>139.77462427185199</v>
+      </c>
+      <c r="E195" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>140</v>
       </c>
@@ -3772,10 +4355,13 @@
         <v>181.98285640158679</v>
       </c>
       <c r="D196" s="1">
+        <v>150.598185793624</v>
+      </c>
+      <c r="E196" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>150</v>
       </c>
@@ -3786,10 +4372,13 @@
         <v>195.06114287004701</v>
       </c>
       <c r="D197" s="1">
+        <v>161.421747315396</v>
+      </c>
+      <c r="E197" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>160</v>
       </c>
@@ -3800,10 +4389,13 @@
         <v>208.1394293385072</v>
       </c>
       <c r="D198" s="1">
+        <v>172.24530883716801</v>
+      </c>
+      <c r="E198" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>170</v>
       </c>
@@ -3814,10 +4406,13 @@
         <v>221.21771580696739</v>
       </c>
       <c r="D199" s="1">
+        <v>183.06887035893999</v>
+      </c>
+      <c r="E199" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>180</v>
       </c>
@@ -3828,10 +4423,13 @@
         <v>234.29600227542761</v>
       </c>
       <c r="D200" s="1">
+        <v>193.892431880712</v>
+      </c>
+      <c r="E200" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>190</v>
       </c>
@@ -3842,10 +4440,13 @@
         <v>247.3742887438878</v>
       </c>
       <c r="D201" s="1">
+        <v>204.715993402484</v>
+      </c>
+      <c r="E201" s="1">
         <v>190</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>200</v>
       </c>
@@ -3856,10 +4457,13 @@
         <v>260.45257521234799</v>
       </c>
       <c r="D202" s="1">
+        <v>215.53955492425601</v>
+      </c>
+      <c r="E202" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>210</v>
       </c>
@@ -3870,10 +4474,13 @@
         <v>273.28908967036239</v>
       </c>
       <c r="D203" s="1">
+        <v>225.68738901844881</v>
+      </c>
+      <c r="E203" s="1">
         <v>210</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>220</v>
       </c>
@@ -3884,10 +4491,13 @@
         <v>286.12560412837678</v>
       </c>
       <c r="D204" s="1">
+        <v>235.83522311264159</v>
+      </c>
+      <c r="E204" s="1">
         <v>220</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>230</v>
       </c>
@@ -3898,10 +4508,13 @@
         <v>298.96211858639123</v>
       </c>
       <c r="D205" s="1">
+        <v>245.98305720683439</v>
+      </c>
+      <c r="E205" s="1">
         <v>230</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>240</v>
       </c>
@@ -3912,10 +4525,13 @@
         <v>311.79863304440562</v>
       </c>
       <c r="D206" s="1">
+        <v>256.13089130102719</v>
+      </c>
+      <c r="E206" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>250</v>
       </c>
@@ -3926,10 +4542,13 @@
         <v>324.63514750242001</v>
       </c>
       <c r="D207" s="1">
+        <v>266.27872539522002</v>
+      </c>
+      <c r="E207" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>260</v>
       </c>
@@ -3940,10 +4559,13 @@
         <v>337.4716619604344</v>
       </c>
       <c r="D208" s="1">
+        <v>276.4265594894128</v>
+      </c>
+      <c r="E208" s="1">
         <v>260</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>270</v>
       </c>
@@ -3954,10 +4576,13 @@
         <v>350.3081764184488</v>
       </c>
       <c r="D209" s="1">
+        <v>286.57439358360563</v>
+      </c>
+      <c r="E209" s="1">
         <v>270</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>280</v>
       </c>
@@ -3968,10 +4593,13 @@
         <v>363.14469087646319</v>
       </c>
       <c r="D210" s="1">
+        <v>296.7222276777984</v>
+      </c>
+      <c r="E210" s="1">
         <v>280</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>290</v>
       </c>
@@ -3982,10 +4610,13 @@
         <v>375.98120533447758</v>
       </c>
       <c r="D211" s="1">
+        <v>306.87006177199117</v>
+      </c>
+      <c r="E211" s="1">
         <v>290</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>300</v>
       </c>
@@ -3996,10 +4627,13 @@
         <v>388.81771979249203</v>
       </c>
       <c r="D212" s="1">
+        <v>317.01789586618401</v>
+      </c>
+      <c r="E212" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>310</v>
       </c>
@@ -4010,10 +4644,13 @@
         <v>401.48135492323468</v>
       </c>
       <c r="D213" s="1">
+        <v>328.60957627654841</v>
+      </c>
+      <c r="E213" s="1">
         <v>310</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>320</v>
       </c>
@@ -4024,10 +4661,13 @@
         <v>414.14499005397738</v>
       </c>
       <c r="D214" s="1">
+        <v>340.20125668691281</v>
+      </c>
+      <c r="E214" s="1">
         <v>320</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>330</v>
       </c>
@@ -4038,10 +4678,13 @@
         <v>426.80862518472009</v>
       </c>
       <c r="D215" s="1">
+        <v>351.79293709727722</v>
+      </c>
+      <c r="E215" s="1">
         <v>330</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>340</v>
       </c>
@@ -4052,10 +4695,13 @@
         <v>439.47226031546279</v>
       </c>
       <c r="D216" s="1">
+        <v>363.38461750764162</v>
+      </c>
+      <c r="E216" s="1">
         <v>340</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>350</v>
       </c>
@@ -4066,10 +4712,13 @@
         <v>452.1358954462055</v>
       </c>
       <c r="D217" s="1">
+        <v>374.97629791800603</v>
+      </c>
+      <c r="E217" s="1">
         <v>350</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>360</v>
       </c>
@@ -4080,10 +4729,13 @@
         <v>464.7995305769482</v>
       </c>
       <c r="D218" s="1">
+        <v>386.56797832837037</v>
+      </c>
+      <c r="E218" s="1">
         <v>360</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>370</v>
       </c>
@@ -4094,10 +4746,13 @@
         <v>477.46316570769091</v>
       </c>
       <c r="D219" s="1">
+        <v>398.15965873873478</v>
+      </c>
+      <c r="E219" s="1">
         <v>370</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>380</v>
       </c>
@@ -4108,10 +4763,13 @@
         <v>490.12680083843361</v>
       </c>
       <c r="D220" s="1">
+        <v>409.75133914909918</v>
+      </c>
+      <c r="E220" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>390</v>
       </c>
@@ -4122,10 +4780,13 @@
         <v>502.79043596917631</v>
       </c>
       <c r="D221" s="1">
+        <v>421.34301955946358</v>
+      </c>
+      <c r="E221" s="1">
         <v>390</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>400</v>
       </c>
@@ -4136,10 +4797,13 @@
         <v>515.45407109991902</v>
       </c>
       <c r="D222" s="1">
+        <v>432.93469996982799</v>
+      </c>
+      <c r="E222" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>410</v>
       </c>
@@ -4150,10 +4814,13 @@
         <v>527.82885539763015</v>
       </c>
       <c r="D223" s="1">
+        <v>443.72822293215501</v>
+      </c>
+      <c r="E223" s="1">
         <v>410</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>420</v>
       </c>
@@ -4164,10 +4831,13 @@
         <v>540.20363969534117</v>
       </c>
       <c r="D224" s="1">
+        <v>454.52174589448202</v>
+      </c>
+      <c r="E224" s="1">
         <v>420</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>430</v>
       </c>
@@ -4178,10 +4848,13 @@
         <v>552.5784239930523</v>
       </c>
       <c r="D225" s="1">
+        <v>465.31526885680898</v>
+      </c>
+      <c r="E225" s="1">
         <v>430</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>440</v>
       </c>
@@ -4192,10 +4865,13 @@
         <v>564.95320829076343</v>
       </c>
       <c r="D226" s="1">
+        <v>476.108791819136</v>
+      </c>
+      <c r="E226" s="1">
         <v>440</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>450</v>
       </c>
@@ -4206,10 +4882,13 @@
         <v>577.32799258847444</v>
       </c>
       <c r="D227" s="1">
+        <v>486.90231478146302</v>
+      </c>
+      <c r="E227" s="1">
         <v>450</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>460</v>
       </c>
@@ -4220,10 +4899,13 @@
         <v>589.70277688618557</v>
       </c>
       <c r="D228" s="1">
+        <v>497.69583774378998</v>
+      </c>
+      <c r="E228" s="1">
         <v>460</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>470</v>
       </c>
@@ -4234,10 +4916,13 @@
         <v>602.07756118389671</v>
       </c>
       <c r="D229" s="1">
+        <v>508.48936070611711</v>
+      </c>
+      <c r="E229" s="1">
         <v>470</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>480</v>
       </c>
@@ -4248,10 +4933,13 @@
         <v>614.45234548160784</v>
       </c>
       <c r="D230" s="1">
+        <v>519.28288366844401</v>
+      </c>
+      <c r="E230" s="1">
         <v>480</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>490</v>
       </c>
@@ -4262,10 +4950,13 @@
         <v>626.82712977931885</v>
       </c>
       <c r="D231" s="1">
+        <v>530.07640663077109</v>
+      </c>
+      <c r="E231" s="1">
         <v>490</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>500</v>
       </c>
@@ -4276,10 +4967,13 @@
         <v>639.20191407702998</v>
       </c>
       <c r="D232" s="1">
+        <v>540.86992959309805</v>
+      </c>
+      <c r="E232" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>510</v>
       </c>
@@ -4290,10 +4984,13 @@
         <v>652.80362391415019</v>
       </c>
       <c r="D233" s="1">
+        <v>550.46021507937087</v>
+      </c>
+      <c r="E233" s="1">
         <v>510</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>520</v>
       </c>
@@ -4304,10 +5001,13 @@
         <v>666.4053337512704</v>
       </c>
       <c r="D234" s="1">
+        <v>560.05050056564369</v>
+      </c>
+      <c r="E234" s="1">
         <v>520</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>530</v>
       </c>
@@ -4318,10 +5018,13 @@
         <v>680.00704358839062</v>
       </c>
       <c r="D235" s="1">
+        <v>569.64078605191639</v>
+      </c>
+      <c r="E235" s="1">
         <v>530</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>540</v>
       </c>
@@ -4332,10 +5035,13 @@
         <v>693.60875342551083</v>
       </c>
       <c r="D236" s="1">
+        <v>579.23107153818921</v>
+      </c>
+      <c r="E236" s="1">
         <v>540</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>550</v>
       </c>
@@ -4346,10 +5052,13 @@
         <v>707.21046326263104</v>
       </c>
       <c r="D237" s="1">
+        <v>588.82135702446203</v>
+      </c>
+      <c r="E237" s="1">
         <v>550</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>560</v>
       </c>
@@ -4360,10 +5069,13 @@
         <v>720.81217309975113</v>
       </c>
       <c r="D238" s="1">
+        <v>598.41164251073485</v>
+      </c>
+      <c r="E238" s="1">
         <v>560</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>570</v>
       </c>
@@ -4374,10 +5086,13 @@
         <v>734.41388293687135</v>
       </c>
       <c r="D239" s="1">
+        <v>608.00192799700767</v>
+      </c>
+      <c r="E239" s="1">
         <v>570</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>580</v>
       </c>
@@ -4388,10 +5103,13 @@
         <v>748.01559277399156</v>
       </c>
       <c r="D240" s="1">
+        <v>617.59221348328037</v>
+      </c>
+      <c r="E240" s="1">
         <v>580</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>590</v>
       </c>
@@ -4402,10 +5120,13 @@
         <v>761.61730261111177</v>
       </c>
       <c r="D241" s="1">
+        <v>627.18249896955319</v>
+      </c>
+      <c r="E241" s="1">
         <v>590</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>600</v>
       </c>
@@ -4416,10 +5137,13 @@
         <v>775.21901244823198</v>
       </c>
       <c r="D242" s="1">
+        <v>636.77278445582601</v>
+      </c>
+      <c r="E242" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>610</v>
       </c>
@@ -4430,10 +5154,13 @@
         <v>786.95440759898895</v>
       </c>
       <c r="D243" s="1">
+        <v>649.75191912429375</v>
+      </c>
+      <c r="E243" s="1">
         <v>610</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>620</v>
       </c>
@@ -4444,10 +5171,13 @@
         <v>798.68980274974604</v>
       </c>
       <c r="D244" s="1">
+        <v>662.73105379276137</v>
+      </c>
+      <c r="E244" s="1">
         <v>620</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>630</v>
       </c>
@@ -4458,10 +5188,13 @@
         <v>810.42519790050301</v>
       </c>
       <c r="D245" s="1">
+        <v>675.71018846122911</v>
+      </c>
+      <c r="E245" s="1">
         <v>630</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>640</v>
       </c>
@@ -4472,10 +5205,13 @@
         <v>822.16059305125998</v>
       </c>
       <c r="D246" s="1">
+        <v>688.68932312969685</v>
+      </c>
+      <c r="E246" s="1">
         <v>640</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>650</v>
       </c>
@@ -4486,10 +5222,13 @@
         <v>833.89598820201695</v>
       </c>
       <c r="D247" s="1">
+        <v>701.66845779816458</v>
+      </c>
+      <c r="E247" s="1">
         <v>650</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>660</v>
       </c>
@@ -4500,10 +5239,13 @@
         <v>845.63138335277404</v>
       </c>
       <c r="D248" s="1">
+        <v>714.6475924666322</v>
+      </c>
+      <c r="E248" s="1">
         <v>660</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>670</v>
       </c>
@@ -4514,10 +5256,13 @@
         <v>857.36677850353101</v>
       </c>
       <c r="D249" s="1">
+        <v>727.62672713509994</v>
+      </c>
+      <c r="E249" s="1">
         <v>670</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>680</v>
       </c>
@@ -4528,10 +5273,13 @@
         <v>869.10217365428798</v>
       </c>
       <c r="D250" s="1">
+        <v>740.60586180356768</v>
+      </c>
+      <c r="E250" s="1">
         <v>680</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>690</v>
       </c>
@@ -4542,10 +5290,13 @@
         <v>880.83756880504507</v>
       </c>
       <c r="D251" s="1">
+        <v>753.5849964720353</v>
+      </c>
+      <c r="E251" s="1">
         <v>690</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>700</v>
       </c>
@@ -4556,10 +5307,13 @@
         <v>892.57296395580204</v>
       </c>
       <c r="D252" s="1">
+        <v>766.56413114050304</v>
+      </c>
+      <c r="E252" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>710</v>
       </c>
@@ -4570,10 +5324,13 @@
         <v>906.85402912701988</v>
       </c>
       <c r="D253" s="1">
+        <v>775.58646659980923</v>
+      </c>
+      <c r="E253" s="1">
         <v>710</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>720</v>
       </c>
@@ -4584,10 +5341,13 @@
         <v>921.13509429823762</v>
       </c>
       <c r="D254" s="1">
+        <v>784.60880205911542</v>
+      </c>
+      <c r="E254" s="1">
         <v>720</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>730</v>
       </c>
@@ -4598,10 +5358,13 @@
         <v>935.41615946945535</v>
       </c>
       <c r="D255" s="1">
+        <v>793.63113751842161</v>
+      </c>
+      <c r="E255" s="1">
         <v>730</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>740</v>
       </c>
@@ -4612,10 +5375,13 @@
         <v>949.6972246406732</v>
       </c>
       <c r="D256" s="1">
+        <v>802.6534729777278</v>
+      </c>
+      <c r="E256" s="1">
         <v>740</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>750</v>
       </c>
@@ -4626,10 +5392,13 @@
         <v>963.97828981189105</v>
       </c>
       <c r="D257" s="1">
+        <v>811.67580843703399</v>
+      </c>
+      <c r="E257" s="1">
         <v>750</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>760</v>
       </c>
@@ -4640,10 +5409,13 @@
         <v>978.25935498310878</v>
       </c>
       <c r="D258" s="1">
+        <v>820.69814389634018</v>
+      </c>
+      <c r="E258" s="1">
         <v>760</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>770</v>
       </c>
@@ -4654,10 +5426,13 @@
         <v>992.54042015432651</v>
       </c>
       <c r="D259" s="1">
+        <v>829.72047935564638</v>
+      </c>
+      <c r="E259" s="1">
         <v>770</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>780</v>
       </c>
@@ -4668,10 +5443,13 @@
         <v>1006.821485325544</v>
       </c>
       <c r="D260" s="1">
+        <v>838.74281481495257</v>
+      </c>
+      <c r="E260" s="1">
         <v>780</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>790</v>
       </c>
@@ -4682,10 +5460,13 @@
         <v>1021.102550496762</v>
       </c>
       <c r="D261" s="1">
+        <v>847.76515027425876</v>
+      </c>
+      <c r="E261" s="1">
         <v>790</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>800</v>
       </c>
@@ -4696,10 +5477,13 @@
         <v>1035.3836156679799</v>
       </c>
       <c r="D262" s="1">
+        <v>856.78748573356495</v>
+      </c>
+      <c r="E262" s="1">
         <v>800</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>810</v>
       </c>
@@ -4710,10 +5494,13 @@
         <v>1047.5713251031921</v>
       </c>
       <c r="D263" s="1">
+        <v>869.02963322360665</v>
+      </c>
+      <c r="E263" s="1">
         <v>810</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>820</v>
       </c>
@@ -4724,10 +5511,13 @@
         <v>1059.759034538404</v>
       </c>
       <c r="D264" s="1">
+        <v>881.27178071364835</v>
+      </c>
+      <c r="E264" s="1">
         <v>820</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>830</v>
       </c>
@@ -4738,10 +5528,13 @@
         <v>1071.9467439736161</v>
       </c>
       <c r="D265" s="1">
+        <v>893.51392820369006</v>
+      </c>
+      <c r="E265" s="1">
         <v>830</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>840</v>
       </c>
@@ -4752,10 +5545,13 @@
         <v>1084.134453408828</v>
       </c>
       <c r="D266" s="1">
+        <v>905.75607569373176</v>
+      </c>
+      <c r="E266" s="1">
         <v>840</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>850</v>
       </c>
@@ -4766,10 +5562,13 @@
         <v>1096.3221628440399</v>
       </c>
       <c r="D267" s="1">
+        <v>917.99822318377346</v>
+      </c>
+      <c r="E267" s="1">
         <v>850</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>860</v>
       </c>
@@ -4780,10 +5579,13 @@
         <v>1108.509872279252</v>
       </c>
       <c r="D268" s="1">
+        <v>930.24037067381516</v>
+      </c>
+      <c r="E268" s="1">
         <v>860</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>870</v>
       </c>
@@ -4794,10 +5596,13 @@
         <v>1120.6975817144639</v>
       </c>
       <c r="D269" s="1">
+        <v>942.48251816385687</v>
+      </c>
+      <c r="E269" s="1">
         <v>870</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>880</v>
       </c>
@@ -4808,10 +5613,13 @@
         <v>1132.885291149676</v>
       </c>
       <c r="D270" s="1">
+        <v>954.72466565389857</v>
+      </c>
+      <c r="E270" s="1">
         <v>880</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>890</v>
       </c>
@@ -4822,10 +5630,13 @@
         <v>1145.073000584888</v>
       </c>
       <c r="D271" s="1">
+        <v>966.96681314394027</v>
+      </c>
+      <c r="E271" s="1">
         <v>890</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>900</v>
       </c>
@@ -4836,10 +5647,13 @@
         <v>1157.2607100201001</v>
       </c>
       <c r="D272" s="1">
+        <v>979.20896063398197</v>
+      </c>
+      <c r="E272" s="1">
         <v>900</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>910</v>
       </c>
@@ -4850,10 +5664,13 @@
         <v>1169.926880580641</v>
       </c>
       <c r="D273" s="1">
+        <v>989.12591025997278</v>
+      </c>
+      <c r="E273" s="1">
         <v>910</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>920</v>
       </c>
@@ -4864,10 +5681,13 @@
         <v>1182.5930511411821</v>
       </c>
       <c r="D274" s="1">
+        <v>999.04285988596359</v>
+      </c>
+      <c r="E274" s="1">
         <v>920</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>930</v>
       </c>
@@ -4878,10 +5698,13 @@
         <v>1195.2592217017229</v>
       </c>
       <c r="D275" s="1">
+        <v>1008.9598095119539</v>
+      </c>
+      <c r="E275" s="1">
         <v>930</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>940</v>
       </c>
@@ -4892,10 +5715,13 @@
         <v>1207.925392262264</v>
       </c>
       <c r="D276" s="1">
+        <v>1018.876759137945</v>
+      </c>
+      <c r="E276" s="1">
         <v>940</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>950</v>
       </c>
@@ -4906,10 +5732,13 @@
         <v>1220.5915628228049</v>
       </c>
       <c r="D277" s="1">
+        <v>1028.7937087639359</v>
+      </c>
+      <c r="E277" s="1">
         <v>950</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>960</v>
       </c>
@@ -4920,10 +5749,13 @@
         <v>1233.257733383346</v>
       </c>
       <c r="D278" s="1">
+        <v>1038.7106583899269</v>
+      </c>
+      <c r="E278" s="1">
         <v>960</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>970</v>
       </c>
@@ -4934,10 +5766,13 @@
         <v>1245.9239039438869</v>
       </c>
       <c r="D279" s="1">
+        <v>1048.627608015918</v>
+      </c>
+      <c r="E279" s="1">
         <v>970</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>980</v>
       </c>
@@ -4948,10 +5783,13 @@
         <v>1258.590074504428</v>
       </c>
       <c r="D280" s="1">
+        <v>1058.5445576419081</v>
+      </c>
+      <c r="E280" s="1">
         <v>980</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>990</v>
       </c>
@@ -4962,10 +5800,13 @@
         <v>1271.2562450649691</v>
       </c>
       <c r="D281" s="1">
+        <v>1068.4615072678989</v>
+      </c>
+      <c r="E281" s="1">
         <v>990</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="4">
         <v>1000</v>
       </c>
@@ -4976,10 +5817,13 @@
         <v>1283.92241562551</v>
       </c>
       <c r="D282" s="3">
+        <v>1078.37845689389</v>
+      </c>
+      <c r="E282" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="4">
         <v>1100</v>
       </c>
@@ -4990,10 +5834,13 @@
         <v>1413.4262864036509</v>
       </c>
       <c r="D283" s="3">
+        <v>1183.954127565225</v>
+      </c>
+      <c r="E283" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="4">
         <v>1200</v>
       </c>
@@ -5004,10 +5851,13 @@
         <v>1542.9301571817921</v>
       </c>
       <c r="D284" s="3">
+        <v>1289.5297982365601</v>
+      </c>
+      <c r="E284" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="4">
         <v>1300</v>
       </c>
@@ -5018,10 +5868,13 @@
         <v>1672.434027959933</v>
       </c>
       <c r="D285" s="3">
+        <v>1395.1054689078951</v>
+      </c>
+      <c r="E285" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="4">
         <v>1400</v>
       </c>
@@ -5032,10 +5885,13 @@
         <v>1801.937898738074</v>
       </c>
       <c r="D286" s="3">
+        <v>1500.6811395792299</v>
+      </c>
+      <c r="E286" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="4">
         <v>1500</v>
       </c>
@@ -5046,10 +5902,13 @@
         <v>1931.4417695162149</v>
       </c>
       <c r="D287" s="3">
+        <v>1606.256810250565</v>
+      </c>
+      <c r="E287" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="4">
         <v>1600</v>
       </c>
@@ -5060,10 +5919,13 @@
         <v>2060.9456402943561</v>
       </c>
       <c r="D288" s="3">
+        <v>1711.8324809219</v>
+      </c>
+      <c r="E288" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="4">
         <v>1700</v>
       </c>
@@ -5074,10 +5936,13 @@
         <v>2190.449511072497</v>
       </c>
       <c r="D289" s="3">
+        <v>1817.4081515932351</v>
+      </c>
+      <c r="E289" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="4">
         <v>1800</v>
       </c>
@@ -5088,10 +5953,13 @@
         <v>2319.9533818506379</v>
       </c>
       <c r="D290" s="3">
+        <v>1922.9838222645701</v>
+      </c>
+      <c r="E290" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="4">
         <v>1900</v>
       </c>
@@ -5102,10 +5970,13 @@
         <v>2449.4572526287789</v>
       </c>
       <c r="D291" s="3">
+        <v>2028.5594929359049</v>
+      </c>
+      <c r="E291" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="4">
         <v>2000</v>
       </c>
@@ -5116,10 +5987,13 @@
         <v>2578.9611234069198</v>
       </c>
       <c r="D292" s="3">
+        <v>2134.13516360724</v>
+      </c>
+      <c r="E292" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="4">
         <v>2100</v>
       </c>
@@ -5130,10 +6004,13 @@
         <v>2708.9240676720592</v>
       </c>
       <c r="D293" s="3">
+        <v>2244.0681075899702</v>
+      </c>
+      <c r="E293" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="4">
         <v>2200</v>
       </c>
@@ -5144,10 +6021,13 @@
         <v>2838.8870119371982</v>
       </c>
       <c r="D294" s="3">
+        <v>2354.0010515726999</v>
+      </c>
+      <c r="E294" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="4">
         <v>2300</v>
       </c>
@@ -5158,10 +6038,13 @@
         <v>2968.8499562023371</v>
       </c>
       <c r="D295" s="3">
+        <v>2463.9339955554301</v>
+      </c>
+      <c r="E295" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="4">
         <v>2400</v>
       </c>
@@ -5172,10 +6055,13 @@
         <v>3098.8129004674761</v>
       </c>
       <c r="D296" s="3">
+        <v>2573.8669395381598</v>
+      </c>
+      <c r="E296" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="4">
         <v>2500</v>
       </c>
@@ -5186,10 +6072,13 @@
         <v>3228.775844732615</v>
       </c>
       <c r="D297" s="3">
+        <v>2683.79988352089</v>
+      </c>
+      <c r="E297" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="4">
         <v>2600</v>
       </c>
@@ -5200,10 +6089,13 @@
         <v>3358.738788997754</v>
       </c>
       <c r="D298" s="3">
+        <v>2793.7328275036198</v>
+      </c>
+      <c r="E298" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="4">
         <v>2700</v>
       </c>
@@ -5214,10 +6106,13 @@
         <v>3488.701733262893</v>
       </c>
       <c r="D299" s="3">
+        <v>2903.66577148635</v>
+      </c>
+      <c r="E299" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="4">
         <v>2800</v>
       </c>
@@ -5228,10 +6123,13 @@
         <v>3618.6646775280319</v>
       </c>
       <c r="D300" s="3">
+        <v>3013.5987154690802</v>
+      </c>
+      <c r="E300" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="4">
         <v>2900</v>
       </c>
@@ -5242,10 +6140,13 @@
         <v>3748.6276217931709</v>
       </c>
       <c r="D301" s="3">
+        <v>3123.5316594518099</v>
+      </c>
+      <c r="E301" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="4">
         <v>3000</v>
       </c>
@@ -5256,10 +6157,13 @@
         <v>3878.5905660583098</v>
       </c>
       <c r="D302" s="3">
+        <v>3233.4646034345401</v>
+      </c>
+      <c r="E302" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="4">
         <v>3100</v>
       </c>
@@ -5270,10 +6174,13 @@
         <v>4001.1137026290521</v>
       </c>
       <c r="D303" s="3">
+        <v>3341.9906760295262</v>
+      </c>
+      <c r="E303" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="4">
         <v>3200</v>
       </c>
@@ -5284,10 +6191,13 @@
         <v>4123.6368391997939</v>
       </c>
       <c r="D304" s="3">
+        <v>3450.5167486245118</v>
+      </c>
+      <c r="E304" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="4">
         <v>3300</v>
       </c>
@@ -5298,10 +6208,13 @@
         <v>4246.1599757705362</v>
       </c>
       <c r="D305" s="3">
+        <v>3559.0428212194979</v>
+      </c>
+      <c r="E305" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="4">
         <v>3400</v>
       </c>
@@ -5312,10 +6225,13 @@
         <v>4368.6831123412776</v>
       </c>
       <c r="D306" s="3">
+        <v>3667.568893814484</v>
+      </c>
+      <c r="E306" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="4">
         <v>3500</v>
       </c>
@@ -5326,10 +6242,13 @@
         <v>4491.2062489120199</v>
       </c>
       <c r="D307" s="3">
+        <v>3776.0949664094701</v>
+      </c>
+      <c r="E307" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="4">
         <v>3600</v>
       </c>
@@ -5340,10 +6259,13 @@
         <v>4613.7293854827622</v>
       </c>
       <c r="D308" s="3">
+        <v>3884.6210390044562</v>
+      </c>
+      <c r="E308" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="4">
         <v>3700</v>
       </c>
@@ -5354,10 +6276,13 @@
         <v>4736.2525220535044</v>
       </c>
       <c r="D309" s="3">
+        <v>3993.1471115994418</v>
+      </c>
+      <c r="E309" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="4">
         <v>3800</v>
       </c>
@@ -5368,10 +6293,13 @@
         <v>4858.7756586242467</v>
       </c>
       <c r="D310" s="3">
+        <v>4101.6731841944274</v>
+      </c>
+      <c r="E310" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="4">
         <v>3900</v>
       </c>
@@ -5382,10 +6310,13 @@
         <v>4981.2987951949881</v>
       </c>
       <c r="D311" s="3">
+        <v>4210.199256789414</v>
+      </c>
+      <c r="E311" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="4">
         <v>4000</v>
       </c>
@@ -5396,10 +6327,13 @@
         <v>5103.8219317657304</v>
       </c>
       <c r="D312" s="3">
+        <v>4318.7253293843996</v>
+      </c>
+      <c r="E312" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="4">
         <v>4100</v>
       </c>
@@ -5410,10 +6344,13 @@
         <v>5240.5982249910776</v>
       </c>
       <c r="D313" s="3">
+        <v>4422.394229922189</v>
+      </c>
+      <c r="E313" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="4">
         <v>4200</v>
       </c>
@@ -5424,10 +6361,13 @@
         <v>5377.3745182164266</v>
       </c>
       <c r="D314" s="3">
+        <v>4526.0631304599774</v>
+      </c>
+      <c r="E314" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="4">
         <v>4300</v>
       </c>
@@ -5438,10 +6378,13 @@
         <v>5514.1508114417738</v>
       </c>
       <c r="D315" s="3">
+        <v>4629.7320309977667</v>
+      </c>
+      <c r="E315" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="4">
         <v>4400</v>
       </c>
@@ -5452,10 +6395,13 @@
         <v>5650.927104667122</v>
       </c>
       <c r="D316" s="3">
+        <v>4733.4009315355561</v>
+      </c>
+      <c r="E316" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="4">
         <v>4500</v>
       </c>
@@ -5466,10 +6412,13 @@
         <v>5787.7033978924701</v>
       </c>
       <c r="D317" s="3">
+        <v>4837.0698320733454</v>
+      </c>
+      <c r="E317" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="4">
         <v>4600</v>
       </c>
@@ -5480,10 +6429,13 @@
         <v>5924.4796911178182</v>
       </c>
       <c r="D318" s="3">
+        <v>4940.7387326111339</v>
+      </c>
+      <c r="E318" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="4">
         <v>4700</v>
       </c>
@@ -5494,10 +6446,13 @@
         <v>6061.2559843431663</v>
       </c>
       <c r="D319" s="3">
+        <v>5044.4076331489232</v>
+      </c>
+      <c r="E319" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="4">
         <v>4800</v>
       </c>
@@ -5508,10 +6463,13 @@
         <v>6198.0322775685136</v>
       </c>
       <c r="D320" s="3">
+        <v>5148.0765336867134</v>
+      </c>
+      <c r="E320" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="4">
         <v>4900</v>
       </c>
@@ -5522,10 +6480,13 @@
         <v>6334.8085707938617</v>
       </c>
       <c r="D321" s="3">
+        <v>5251.745434224501</v>
+      </c>
+      <c r="E321" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="4">
         <v>5000</v>
       </c>
@@ -5536,10 +6497,13 @@
         <v>6471.5848640192098</v>
       </c>
       <c r="D322" s="3">
+        <v>5355.4143347622903</v>
+      </c>
+      <c r="E322" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="4">
         <v>5100</v>
       </c>
@@ -5550,10 +6514,13 @@
         <v>6592.0175209378458</v>
       </c>
       <c r="D323" s="3">
+        <v>5459.8062296384314</v>
+      </c>
+      <c r="E323" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="4">
         <v>5200</v>
       </c>
@@ -5564,10 +6531,13 @@
         <v>6712.4501778564818</v>
       </c>
       <c r="D324" s="3">
+        <v>5564.1981245145698</v>
+      </c>
+      <c r="E324" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="4">
         <v>5300</v>
       </c>
@@ -5578,10 +6548,13 @@
         <v>6832.8828347751178</v>
       </c>
       <c r="D325" s="3">
+        <v>5668.59001939071</v>
+      </c>
+      <c r="E325" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="4">
         <v>5400</v>
       </c>
@@ -5592,10 +6565,13 @@
         <v>6953.3154916937538</v>
       </c>
       <c r="D326" s="3">
+        <v>5772.9819142668503</v>
+      </c>
+      <c r="E326" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="4">
         <v>5500</v>
       </c>
@@ -5606,10 +6582,13 @@
         <v>7073.7481486123897</v>
       </c>
       <c r="D327" s="3">
+        <v>5877.3738091429896</v>
+      </c>
+      <c r="E327" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="4">
         <v>5600</v>
       </c>
@@ -5620,10 +6599,13 @@
         <v>7194.1808055310257</v>
       </c>
       <c r="D328" s="3">
+        <v>5981.7657040191298</v>
+      </c>
+      <c r="E328" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="4">
         <v>5700</v>
       </c>
@@ -5634,10 +6616,13 @@
         <v>7314.6134624496617</v>
       </c>
       <c r="D329" s="3">
+        <v>6086.15759889527</v>
+      </c>
+      <c r="E329" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="4">
         <v>5800</v>
       </c>
@@ -5648,10 +6633,13 @@
         <v>7435.0461193682977</v>
       </c>
       <c r="D330" s="3">
+        <v>6190.5494937714102</v>
+      </c>
+      <c r="E330" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="4">
         <v>5900</v>
       </c>
@@ -5662,10 +6650,13 @@
         <v>7555.4787762869337</v>
       </c>
       <c r="D331" s="3">
+        <v>6294.9413886475504</v>
+      </c>
+      <c r="E331" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="4">
         <v>6000</v>
       </c>
@@ -5676,10 +6667,13 @@
         <v>7675.9114332055697</v>
       </c>
       <c r="D332" s="3">
+        <v>6399.3332835236897</v>
+      </c>
+      <c r="E332" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="4">
         <v>6100</v>
       </c>
@@ -5690,10 +6684,13 @@
         <v>7812.0147326941687</v>
       </c>
       <c r="D333" s="3">
+        <v>6518.4121153590204</v>
+      </c>
+      <c r="E333" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="4">
         <v>6200</v>
       </c>
@@ -5704,10 +6701,13 @@
         <v>7948.1180321827678</v>
       </c>
       <c r="D334" s="3">
+        <v>6637.490947194352</v>
+      </c>
+      <c r="E334" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="4">
         <v>6300</v>
       </c>
@@ -5718,10 +6718,13 @@
         <v>8084.2213316713669</v>
       </c>
       <c r="D335" s="3">
+        <v>6756.5697790296826</v>
+      </c>
+      <c r="E335" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="4">
         <v>6400</v>
       </c>
@@ -5732,10 +6735,13 @@
         <v>8220.3246311599651</v>
       </c>
       <c r="D336" s="3">
+        <v>6875.6486108650142</v>
+      </c>
+      <c r="E336" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="4">
         <v>6500</v>
       </c>
@@ -5746,10 +6752,13 @@
         <v>8356.4279306485641</v>
       </c>
       <c r="D337" s="3">
+        <v>6994.7274427003449</v>
+      </c>
+      <c r="E337" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="4">
         <v>6600</v>
       </c>
@@ -5760,10 +6769,13 @@
         <v>8492.5312301371632</v>
       </c>
       <c r="D338" s="3">
+        <v>7113.8062745356756</v>
+      </c>
+      <c r="E338" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="4">
         <v>6700</v>
       </c>
@@ -5774,10 +6786,13 @@
         <v>8628.6345296257623</v>
       </c>
       <c r="D339" s="3">
+        <v>7232.8851063710072</v>
+      </c>
+      <c r="E339" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="4">
         <v>6800</v>
       </c>
@@ -5788,10 +6803,13 @@
         <v>8764.7378291143614</v>
       </c>
       <c r="D340" s="3">
+        <v>7351.9639382063378</v>
+      </c>
+      <c r="E340" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="4">
         <v>6900</v>
       </c>
@@ -5802,10 +6820,13 @@
         <v>8900.8411286029605</v>
       </c>
       <c r="D341" s="3">
+        <v>7471.0427700416694</v>
+      </c>
+      <c r="E341" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="4">
         <v>7000</v>
       </c>
@@ -5816,10 +6837,13 @@
         <v>9036.9444280915595</v>
       </c>
       <c r="D342" s="3">
+        <v>7590.1216018770001</v>
+      </c>
+      <c r="E342" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="4">
         <v>7100</v>
       </c>
@@ -5830,10 +6854,13 @@
         <v>9173.7472052612829</v>
       </c>
       <c r="D343" s="3">
+        <v>7698.5725184283456</v>
+      </c>
+      <c r="E343" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="4">
         <v>7200</v>
       </c>
@@ -5844,10 +6871,13 @@
         <v>9310.5499824310082</v>
       </c>
       <c r="D344" s="3">
+        <v>7807.023434979692</v>
+      </c>
+      <c r="E344" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="4">
         <v>7300</v>
       </c>
@@ -5858,10 +6888,13 @@
         <v>9447.3527596007316</v>
       </c>
       <c r="D345" s="3">
+        <v>7915.4743515310383</v>
+      </c>
+      <c r="E345" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="4">
         <v>7400</v>
       </c>
@@ -5872,10 +6905,13 @@
         <v>9584.155536770455</v>
       </c>
       <c r="D346" s="3">
+        <v>8023.9252680823838</v>
+      </c>
+      <c r="E346" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="4">
         <v>7500</v>
       </c>
@@ -5886,10 +6922,13 @@
         <v>9720.9583139401802</v>
       </c>
       <c r="D347" s="3">
+        <v>8132.3761846337293</v>
+      </c>
+      <c r="E347" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="4">
         <v>7600</v>
       </c>
@@ -5900,10 +6939,13 @@
         <v>9857.7610911099036</v>
       </c>
       <c r="D348" s="3">
+        <v>8240.8271011850757</v>
+      </c>
+      <c r="E348" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="4">
         <v>7700</v>
       </c>
@@ -5914,10 +6956,13 @@
         <v>9994.5638682796271</v>
       </c>
       <c r="D349" s="3">
+        <v>8349.278017736422</v>
+      </c>
+      <c r="E349" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="4">
         <v>7800</v>
       </c>
@@ -5928,10 +6973,13 @@
         <v>10131.36664544935</v>
       </c>
       <c r="D350" s="3">
+        <v>8457.7289342877666</v>
+      </c>
+      <c r="E350" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="4">
         <v>7900</v>
       </c>
@@ -5942,10 +6990,13 @@
         <v>10268.169422619079</v>
       </c>
       <c r="D351" s="3">
+        <v>8566.179850839113</v>
+      </c>
+      <c r="E351" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="4">
         <v>8000</v>
       </c>
@@ -5956,10 +7007,13 @@
         <v>10404.972199788799</v>
       </c>
       <c r="D352" s="3">
+        <v>8674.6307673904594</v>
+      </c>
+      <c r="E352" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="4">
         <v>8100</v>
       </c>
@@ -5970,10 +7024,13 @@
         <v>10527.4654192936</v>
       </c>
       <c r="D353" s="3">
+        <v>8783.974248625369</v>
+      </c>
+      <c r="E353" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="4">
         <v>8200</v>
       </c>
@@ -5984,10 +7041,13 @@
         <v>10649.9586387984</v>
       </c>
       <c r="D354" s="3">
+        <v>8893.3177298602786</v>
+      </c>
+      <c r="E354" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="4">
         <v>8300</v>
       </c>
@@ -5998,10 +7058,13 @@
         <v>10772.4518583032</v>
       </c>
       <c r="D355" s="3">
+        <v>9002.6612110951901</v>
+      </c>
+      <c r="E355" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="4">
         <v>8400</v>
       </c>
@@ -6012,10 +7075,13 @@
         <v>10894.945077808001</v>
       </c>
       <c r="D356" s="3">
+        <v>9112.0046923300997</v>
+      </c>
+      <c r="E356" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="4">
         <v>8500</v>
       </c>
@@ -6026,10 +7092,13 @@
         <v>11017.438297312799</v>
       </c>
       <c r="D357" s="3">
+        <v>9221.3481735650093</v>
+      </c>
+      <c r="E357" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="4">
         <v>8600</v>
       </c>
@@ -6040,10 +7109,13 @@
         <v>11139.9315168176</v>
       </c>
       <c r="D358" s="3">
+        <v>9330.691654799919</v>
+      </c>
+      <c r="E358" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="4">
         <v>8700</v>
       </c>
@@ -6054,10 +7126,13 @@
         <v>11262.4247363224</v>
       </c>
       <c r="D359" s="3">
+        <v>9440.0351360348286</v>
+      </c>
+      <c r="E359" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="4">
         <v>8800</v>
       </c>
@@ -6068,10 +7143,13 @@
         <v>11384.917955827201</v>
       </c>
       <c r="D360" s="3">
+        <v>9549.3786172697401</v>
+      </c>
+      <c r="E360" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="4">
         <v>8900</v>
       </c>
@@ -6082,10 +7160,13 @@
         <v>11507.411175331999</v>
       </c>
       <c r="D361" s="3">
+        <v>9658.7220985046497</v>
+      </c>
+      <c r="E361" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="4">
         <v>9000</v>
       </c>
@@ -6096,10 +7177,13 @@
         <v>11629.9043948368</v>
       </c>
       <c r="D362" s="3">
+        <v>9768.0655797395593</v>
+      </c>
+      <c r="E362" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="4">
         <v>9100</v>
       </c>
@@ -6110,10 +7194,13 @@
         <v>11738.187533921729</v>
       </c>
       <c r="D363" s="3">
+        <v>9859.0136019977035</v>
+      </c>
+      <c r="E363" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="4">
         <v>9200</v>
       </c>
@@ -6124,10 +7211,13 @@
         <v>11846.470673006659</v>
       </c>
       <c r="D364" s="3">
+        <v>9949.9616242558477</v>
+      </c>
+      <c r="E364" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="4">
         <v>9300</v>
       </c>
@@ -6138,10 +7228,13 @@
         <v>11954.753812091591</v>
       </c>
       <c r="D365" s="3">
+        <v>10040.90964651399</v>
+      </c>
+      <c r="E365" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="4">
         <v>9400</v>
       </c>
@@ -6152,10 +7245,13 @@
         <v>12063.03695117652</v>
       </c>
       <c r="D366" s="3">
+        <v>10131.85766877214</v>
+      </c>
+      <c r="E366" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="4">
         <v>9500</v>
       </c>
@@ -6166,10 +7262,13 @@
         <v>12171.32009026145</v>
       </c>
       <c r="D367" s="3">
+        <v>10222.80569103028</v>
+      </c>
+      <c r="E367" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="4">
         <v>9600</v>
       </c>
@@ -6180,10 +7279,13 @@
         <v>12279.60322934638</v>
       </c>
       <c r="D368" s="3">
+        <v>10313.753713288421</v>
+      </c>
+      <c r="E368" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="4">
         <v>9700</v>
       </c>
@@ -6194,10 +7296,13 @@
         <v>12387.886368431309</v>
       </c>
       <c r="D369" s="3">
+        <v>10404.70173554657</v>
+      </c>
+      <c r="E369" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="4">
         <v>9800</v>
       </c>
@@ -6208,10 +7313,13 @@
         <v>12496.169507516241</v>
       </c>
       <c r="D370" s="3">
+        <v>10495.649757804709</v>
+      </c>
+      <c r="E370" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="4">
         <v>9900</v>
       </c>
@@ -6222,10 +7330,13 @@
         <v>12604.45264660117</v>
       </c>
       <c r="D371" s="3">
+        <v>10586.597780062861</v>
+      </c>
+      <c r="E371" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="4">
         <v>10000</v>
       </c>
@@ -6236,10 +7347,13 @@
         <v>12712.7357856861</v>
       </c>
       <c r="D372" s="3">
+        <v>10677.545802320999</v>
+      </c>
+      <c r="E372" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="4">
         <v>11000</v>
       </c>
@@ -6250,10 +7364,13 @@
         <v>14014.033287764119</v>
       </c>
       <c r="D373" s="3">
+        <v>11722.978858867091</v>
+      </c>
+      <c r="E373" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="4">
         <v>12000</v>
       </c>
@@ -6264,10 +7381,13 @@
         <v>15315.330789842141</v>
       </c>
       <c r="D374" s="3">
+        <v>12768.41191541318</v>
+      </c>
+      <c r="E374" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="4">
         <v>13000</v>
       </c>
@@ -6278,10 +7398,13 @@
         <v>16616.628291920159</v>
       </c>
       <c r="D375" s="3">
+        <v>13813.84497195927</v>
+      </c>
+      <c r="E375" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="4">
         <v>14000</v>
       </c>
@@ -6292,10 +7415,13 @@
         <v>17917.92579399818</v>
       </c>
       <c r="D376" s="3">
+        <v>14859.27802850536</v>
+      </c>
+      <c r="E376" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="4">
         <v>15000</v>
       </c>
@@ -6306,10 +7432,13 @@
         <v>19219.223296076201</v>
       </c>
       <c r="D377" s="3">
+        <v>15904.711085051449</v>
+      </c>
+      <c r="E377" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="4">
         <v>16000</v>
       </c>
@@ -6320,10 +7449,13 @@
         <v>20520.520798154219</v>
       </c>
       <c r="D378" s="3">
+        <v>16950.144141597539</v>
+      </c>
+      <c r="E378" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="4">
         <v>17000</v>
       </c>
@@ -6334,10 +7466,13 @@
         <v>21821.81830023224</v>
       </c>
       <c r="D379" s="3">
+        <v>17995.57719814363</v>
+      </c>
+      <c r="E379" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="4">
         <v>18000</v>
       </c>
@@ -6348,10 +7483,13 @@
         <v>23123.115802310262</v>
       </c>
       <c r="D380" s="3">
+        <v>19041.010254689721</v>
+      </c>
+      <c r="E380" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="4">
         <v>19000</v>
       </c>
@@ -6362,10 +7500,13 @@
         <v>24424.413304388279</v>
       </c>
       <c r="D381" s="3">
+        <v>20086.443311235809</v>
+      </c>
+      <c r="E381" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="4">
         <v>20000</v>
       </c>
@@ -6376,10 +7517,13 @@
         <v>25725.710806466301</v>
       </c>
       <c r="D382" s="3">
+        <v>21131.876367781901</v>
+      </c>
+      <c r="E382" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="4">
         <v>21000</v>
       </c>
@@ -6388,10 +7532,13 @@
         <v>26993.61325834518</v>
       </c>
       <c r="D383" s="3">
+        <v>22173.292766346469</v>
+      </c>
+      <c r="E383" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="4">
         <v>22000</v>
       </c>
@@ -6400,10 +7547,13 @@
         <v>28261.515710224059</v>
       </c>
       <c r="D384" s="3">
+        <v>23214.709164911041</v>
+      </c>
+      <c r="E384" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="4">
         <v>23000</v>
       </c>
@@ -6412,10 +7562,13 @@
         <v>29529.418162102938</v>
       </c>
       <c r="D385" s="3">
+        <v>24256.125563475609</v>
+      </c>
+      <c r="E385" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="4">
         <v>24000</v>
       </c>
@@ -6424,10 +7577,13 @@
         <v>30797.320613981821</v>
       </c>
       <c r="D386" s="3">
+        <v>25297.541962040181</v>
+      </c>
+      <c r="E386" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="4">
         <v>25000</v>
       </c>
@@ -6436,10 +7592,13 @@
         <v>32065.2230658607</v>
       </c>
       <c r="D387" s="3">
+        <v>26338.958360604749</v>
+      </c>
+      <c r="E387" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="4">
         <v>26000</v>
       </c>
@@ -6448,10 +7607,13 @@
         <v>33333.12551773958</v>
       </c>
       <c r="D388" s="3">
+        <v>27380.374759169321</v>
+      </c>
+      <c r="E388" s="3">
         <v>26000</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="4">
         <v>27000</v>
       </c>
@@ -6460,10 +7622,13 @@
         <v>34601.027969618459</v>
       </c>
       <c r="D389" s="3">
+        <v>28421.791157733889</v>
+      </c>
+      <c r="E389" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="4">
         <v>28000</v>
       </c>
@@ -6472,10 +7637,13 @@
         <v>35868.930421497338</v>
       </c>
       <c r="D390" s="3">
+        <v>29463.207556298461</v>
+      </c>
+      <c r="E390" s="3">
         <v>28000</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="4">
         <v>29000</v>
       </c>
@@ -6484,10 +7652,13 @@
         <v>37136.832873376217</v>
       </c>
       <c r="D391" s="3">
+        <v>30504.623954863029</v>
+      </c>
+      <c r="E391" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" s="4">
         <v>30000</v>
       </c>
@@ -6495,6 +7666,9 @@
         <v>38404.735325255097</v>
       </c>
       <c r="D392">
+        <v>31546.040353427601</v>
+      </c>
+      <c r="E392">
         <v>30000</v>
       </c>
     </row>
